--- a/src/main/resources/file/StudentSem.xlsx
+++ b/src/main/resources/file/StudentSem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wong zhao xuan\Documents\Programming Languages\Java\Course Timetable\timetable\src\main\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FEB753-E440-4C59-A356-927F149975A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304AFC38-B4DA-4BE9-BAB8-0193B0D33B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{775B32B7-97F4-4E22-B0E8-E8501CDB7B73}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
   <si>
     <t>Semester</t>
   </si>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021D61C9-216E-4AA0-9570-AB2E074861E1}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A12" sqref="A12:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,116 +556,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>24000053</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>24000073</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>24000078</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>24000123</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>24000138</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>24000004</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18">
-        <v>24000009</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <v>24000014</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>24000019</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21">
-        <v>24000024</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/file/StudentSem.xlsx
+++ b/src/main/resources/file/StudentSem.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wong zhao xuan\Documents\Programming Languages\Java\Course Timetable\timetable\src\main\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304AFC38-B4DA-4BE9-BAB8-0193B0D33B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B81A82-6F62-4A94-B4AC-CA2E0EFAE5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{775B32B7-97F4-4E22-B0E8-E8501CDB7B73}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="5">
   <si>
     <t>Semester</t>
   </si>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021D61C9-216E-4AA0-9570-AB2E074861E1}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C21"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>24000053</v>
+        <v>24000433</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -462,7 +462,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24000073</v>
+        <v>24000428</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>24000078</v>
+        <v>24000423</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -484,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>24000123</v>
+        <v>24000418</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -495,7 +495,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>24000138</v>
+        <v>24000413</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -506,10 +506,10 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>24000004</v>
+        <v>24000408</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -517,10 +517,10 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>24000009</v>
+        <v>24000403</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -528,10 +528,10 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>24000014</v>
+        <v>24000398</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -539,10 +539,10 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>24000019</v>
+        <v>24000393</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -550,9 +550,361 @@
         <v>1</v>
       </c>
       <c r="B11">
+        <v>24000388</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>24000383</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>24000378</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>24000373</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>24000368</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>24000363</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>24000358</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>24000353</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>24000348</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>24000343</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>24000338</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>24000333</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>24000328</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>24000323</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>24000318</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>24000313</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>24000308</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>24000303</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>24000298</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>24000293</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>24000288</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>24000283</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>24000278</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>24000273</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>24000268</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>24000263</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>24000258</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>24000253</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>24000004</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>24000009</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>24000014</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>24000019</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
         <v>24000024</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C43" t="s">
         <v>4</v>
       </c>
     </row>

--- a/src/main/resources/file/StudentSem.xlsx
+++ b/src/main/resources/file/StudentSem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wong zhao xuan\Documents\Programming Languages\Java\Course Timetable\timetable\src\main\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B81A82-6F62-4A94-B4AC-CA2E0EFAE5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37F02B2-3060-4BC4-9D94-C612FF1D974E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{775B32B7-97F4-4E22-B0E8-E8501CDB7B73}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{775B32B7-97F4-4E22-B0E8-E8501CDB7B73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021D61C9-216E-4AA0-9570-AB2E074861E1}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>24000433</v>
+        <v>24000363</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -462,7 +462,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24000428</v>
+        <v>24000358</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>24000423</v>
+        <v>24000353</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -484,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>24000418</v>
+        <v>24000348</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -495,7 +495,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>24000413</v>
+        <v>24000343</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>24000408</v>
+        <v>24000338</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>24000403</v>
+        <v>24000333</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -528,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>24000398</v>
+        <v>24000328</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -539,7 +539,7 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>24000393</v>
+        <v>24000323</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -550,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>24000388</v>
+        <v>24000318</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -561,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>24000383</v>
+        <v>24000313</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -572,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>24000378</v>
+        <v>24000308</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>24000373</v>
+        <v>24000303</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>24000368</v>
+        <v>24000298</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -605,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>24000363</v>
+        <v>24000293</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -616,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>24000358</v>
+        <v>24000288</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -627,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>24000353</v>
+        <v>24000283</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -638,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>24000348</v>
+        <v>24000278</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -649,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>24000343</v>
+        <v>24000273</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -660,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>24000338</v>
+        <v>24000268</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>24000333</v>
+        <v>24000263</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>24000328</v>
+        <v>24000258</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>24000323</v>
+        <v>24000253</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
@@ -704,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>24000318</v>
+        <v>24000433</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
@@ -715,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>24000313</v>
+        <v>24000428</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
@@ -726,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>24000308</v>
+        <v>24000423</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>24000303</v>
+        <v>24000418</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -748,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>24000298</v>
+        <v>24000413</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
@@ -759,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>24000293</v>
+        <v>24000408</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="B31">
-        <v>24000288</v>
+        <v>24000403</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>24000283</v>
+        <v>24000398</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -792,7 +792,7 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>24000278</v>
+        <v>24000393</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
@@ -803,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>24000273</v>
+        <v>24000388</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
@@ -814,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>24000268</v>
+        <v>24000383</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>24000263</v>
+        <v>24000378</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
@@ -836,7 +836,7 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>24000258</v>
+        <v>24000373</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
@@ -847,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>24000253</v>
+        <v>24000368</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>

--- a/src/main/resources/file/StudentSem.xlsx
+++ b/src/main/resources/file/StudentSem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wong zhao xuan\Documents\Programming Languages\Java\Course Timetable\timetable\src\main\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37F02B2-3060-4BC4-9D94-C612FF1D974E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFA64F2-1436-4968-9F39-A5F408A44A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{775B32B7-97F4-4E22-B0E8-E8501CDB7B73}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{775B32B7-97F4-4E22-B0E8-E8501CDB7B73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="5">
   <si>
     <t>Semester</t>
   </si>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021D61C9-216E-4AA0-9570-AB2E074861E1}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -908,6 +908,930 @@
         <v>4</v>
       </c>
     </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>23000190</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>23000195</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>23000200</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>23000205</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>23000210</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>23000215</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>23000220</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>23000225</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>23000230</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>23000235</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>23000240</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>23000245</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <v>23000250</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>23000255</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>23000260</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>23000265</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>23000270</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>23000275</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>23000280</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>23000285</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>23000290</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <v>23000295</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <v>23000300</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>23000305</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <v>23000310</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <v>23000315</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>23000320</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>23000325</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <v>23000330</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <v>23000335</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74">
+        <v>23000340</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <v>23000345</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76">
+        <v>23000350</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>23000355</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <v>23000360</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <v>23000365</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80">
+        <v>23000370</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81">
+        <v>23000375</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <v>23000380</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <v>23000385</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>23000390</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>2</v>
+      </c>
+      <c r="B85">
+        <v>23000395</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>3</v>
+      </c>
+      <c r="B86">
+        <v>23000405</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87">
+        <v>23000410</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88">
+        <v>23000415</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>3</v>
+      </c>
+      <c r="B89">
+        <v>23000420</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>3</v>
+      </c>
+      <c r="B90">
+        <v>23000425</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91">
+        <v>23000430</v>
+      </c>
+      <c r="C91" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>3</v>
+      </c>
+      <c r="B92">
+        <v>23000435</v>
+      </c>
+      <c r="C92" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>3</v>
+      </c>
+      <c r="B93">
+        <v>24000003</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>3</v>
+      </c>
+      <c r="B94">
+        <v>24000008</v>
+      </c>
+      <c r="C94" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>3</v>
+      </c>
+      <c r="B95">
+        <v>24000013</v>
+      </c>
+      <c r="C95" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>3</v>
+      </c>
+      <c r="B96">
+        <v>24000018</v>
+      </c>
+      <c r="C96" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>3</v>
+      </c>
+      <c r="B97">
+        <v>24000023</v>
+      </c>
+      <c r="C97" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>3</v>
+      </c>
+      <c r="B98">
+        <v>24000028</v>
+      </c>
+      <c r="C98" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>3</v>
+      </c>
+      <c r="B99">
+        <v>24000033</v>
+      </c>
+      <c r="C99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>3</v>
+      </c>
+      <c r="B100">
+        <v>24000038</v>
+      </c>
+      <c r="C100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>3</v>
+      </c>
+      <c r="B101">
+        <v>24000043</v>
+      </c>
+      <c r="C101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>3</v>
+      </c>
+      <c r="B102">
+        <v>24000048</v>
+      </c>
+      <c r="C102" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>3</v>
+      </c>
+      <c r="B103">
+        <v>24000053</v>
+      </c>
+      <c r="C103" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>3</v>
+      </c>
+      <c r="B104">
+        <v>24000058</v>
+      </c>
+      <c r="C104" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>3</v>
+      </c>
+      <c r="B105">
+        <v>24000063</v>
+      </c>
+      <c r="C105" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>3</v>
+      </c>
+      <c r="B106">
+        <v>24000068</v>
+      </c>
+      <c r="C106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>3</v>
+      </c>
+      <c r="B107">
+        <v>24000073</v>
+      </c>
+      <c r="C107" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>3</v>
+      </c>
+      <c r="B108">
+        <v>24000078</v>
+      </c>
+      <c r="C108" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>3</v>
+      </c>
+      <c r="B109">
+        <v>24000083</v>
+      </c>
+      <c r="C109" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>3</v>
+      </c>
+      <c r="B110">
+        <v>24000088</v>
+      </c>
+      <c r="C110" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>3</v>
+      </c>
+      <c r="B111">
+        <v>24000093</v>
+      </c>
+      <c r="C111" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>3</v>
+      </c>
+      <c r="B112">
+        <v>24000098</v>
+      </c>
+      <c r="C112" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>3</v>
+      </c>
+      <c r="B113">
+        <v>24000103</v>
+      </c>
+      <c r="C113" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>3</v>
+      </c>
+      <c r="B114">
+        <v>24000108</v>
+      </c>
+      <c r="C114" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>3</v>
+      </c>
+      <c r="B115">
+        <v>24000113</v>
+      </c>
+      <c r="C115" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>3</v>
+      </c>
+      <c r="B116">
+        <v>24000118</v>
+      </c>
+      <c r="C116" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>3</v>
+      </c>
+      <c r="B117">
+        <v>24000123</v>
+      </c>
+      <c r="C117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>3</v>
+      </c>
+      <c r="B118">
+        <v>24000128</v>
+      </c>
+      <c r="C118" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>3</v>
+      </c>
+      <c r="B119">
+        <v>24000133</v>
+      </c>
+      <c r="C119" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>3</v>
+      </c>
+      <c r="B120">
+        <v>24000138</v>
+      </c>
+      <c r="C120" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>3</v>
+      </c>
+      <c r="B121">
+        <v>24000143</v>
+      </c>
+      <c r="C121" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>3</v>
+      </c>
+      <c r="B122">
+        <v>24000148</v>
+      </c>
+      <c r="C122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>3</v>
+      </c>
+      <c r="B123">
+        <v>24000153</v>
+      </c>
+      <c r="C123" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>3</v>
+      </c>
+      <c r="B124">
+        <v>24000158</v>
+      </c>
+      <c r="C124" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>3</v>
+      </c>
+      <c r="B125">
+        <v>24000163</v>
+      </c>
+      <c r="C125" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>3</v>
+      </c>
+      <c r="B126">
+        <v>24000168</v>
+      </c>
+      <c r="C126" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>3</v>
+      </c>
+      <c r="B127">
+        <v>24000173</v>
+      </c>
+      <c r="C127" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/file/StudentSem.xlsx
+++ b/src/main/resources/file/StudentSem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wong zhao xuan\Documents\Programming Languages\Java\Course Timetable\timetable\src\main\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFA64F2-1436-4968-9F39-A5F408A44A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B0DE19-2EAB-417B-8027-9FC58E3E0B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{775B32B7-97F4-4E22-B0E8-E8501CDB7B73}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{775B32B7-97F4-4E22-B0E8-E8501CDB7B73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="5">
   <si>
     <t>Semester</t>
   </si>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021D61C9-216E-4AA0-9570-AB2E074861E1}">
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A275" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F290" sqref="F290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,6 +433,7 @@
     <col min="1" max="1" width="26.5546875" customWidth="1"/>
     <col min="2" max="2" width="33.33203125" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -451,7 +452,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>24000363</v>
+        <v>22000002</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -462,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24000358</v>
+        <v>22000007</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -473,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>24000353</v>
+        <v>22000012</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -484,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>24000348</v>
+        <v>22000017</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -495,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>24000343</v>
+        <v>22000022</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -506,7 +507,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>24000338</v>
+        <v>22000027</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -517,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>24000333</v>
+        <v>22000032</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -528,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>24000328</v>
+        <v>22000037</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -539,7 +540,7 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>24000323</v>
+        <v>22000042</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -550,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>24000318</v>
+        <v>22000047</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -561,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>24000313</v>
+        <v>22000052</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -572,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>24000308</v>
+        <v>22000057</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
@@ -583,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>24000303</v>
+        <v>22000062</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -594,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>24000298</v>
+        <v>22000067</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -605,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>24000293</v>
+        <v>22000072</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -616,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>24000288</v>
+        <v>22000077</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -627,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>24000283</v>
+        <v>22000082</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -638,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>24000278</v>
+        <v>22000087</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -649,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>24000273</v>
+        <v>22000092</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -660,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>24000268</v>
+        <v>22000097</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
@@ -671,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>24000263</v>
+        <v>22000102</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
@@ -682,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>24000258</v>
+        <v>22000107</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
@@ -693,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>24000253</v>
+        <v>22000112</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
@@ -704,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>24000433</v>
+        <v>22000117</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
@@ -715,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>24000428</v>
+        <v>22000122</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
@@ -726,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>24000423</v>
+        <v>22000127</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -737,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>24000418</v>
+        <v>22000132</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -748,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>24000413</v>
+        <v>22000137</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
@@ -759,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>24000408</v>
+        <v>22000142</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -770,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="B31">
-        <v>24000403</v>
+        <v>22000147</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -781,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>24000398</v>
+        <v>22000152</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -792,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>24000393</v>
+        <v>22000157</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
@@ -803,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>24000388</v>
+        <v>22000162</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
@@ -814,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>24000383</v>
+        <v>22000167</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
@@ -825,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>24000378</v>
+        <v>22000172</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
@@ -836,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>24000373</v>
+        <v>22000177</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
@@ -847,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>24000368</v>
+        <v>22000182</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -858,7 +859,7 @@
         <v>1</v>
       </c>
       <c r="B39">
-        <v>24000004</v>
+        <v>22000187</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -869,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="B40">
-        <v>24000009</v>
+        <v>22000192</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -880,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>24000014</v>
+        <v>22000197</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -891,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="B42">
-        <v>24000019</v>
+        <v>22000202</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
@@ -902,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="B43">
-        <v>24000024</v>
+        <v>22000207</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
@@ -910,10 +911,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44">
-        <v>23000190</v>
+        <v>22000212</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
@@ -921,10 +922,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45">
-        <v>23000195</v>
+        <v>22000217</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
@@ -932,10 +933,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46">
-        <v>23000200</v>
+        <v>22000222</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
@@ -943,10 +944,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47">
-        <v>23000205</v>
+        <v>22000227</v>
       </c>
       <c r="C47" t="s">
         <v>3</v>
@@ -954,10 +955,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48">
-        <v>23000210</v>
+        <v>22000232</v>
       </c>
       <c r="C48" t="s">
         <v>3</v>
@@ -965,10 +966,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49">
-        <v>23000215</v>
+        <v>22000237</v>
       </c>
       <c r="C49" t="s">
         <v>3</v>
@@ -976,10 +977,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50">
-        <v>23000220</v>
+        <v>22000242</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
@@ -987,10 +988,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51">
-        <v>23000225</v>
+        <v>22000247</v>
       </c>
       <c r="C51" t="s">
         <v>3</v>
@@ -998,10 +999,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52">
-        <v>23000230</v>
+        <v>22000252</v>
       </c>
       <c r="C52" t="s">
         <v>3</v>
@@ -1009,10 +1010,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53">
-        <v>23000235</v>
+        <v>22000257</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
@@ -1020,10 +1021,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54">
-        <v>23000240</v>
+        <v>22000262</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -1031,10 +1032,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B55">
-        <v>23000245</v>
+        <v>22000267</v>
       </c>
       <c r="C55" t="s">
         <v>3</v>
@@ -1042,10 +1043,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B56">
-        <v>23000250</v>
+        <v>22000272</v>
       </c>
       <c r="C56" t="s">
         <v>3</v>
@@ -1053,10 +1054,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57">
-        <v>23000255</v>
+        <v>22000277</v>
       </c>
       <c r="C57" t="s">
         <v>3</v>
@@ -1064,10 +1065,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58">
-        <v>23000260</v>
+        <v>22000282</v>
       </c>
       <c r="C58" t="s">
         <v>3</v>
@@ -1075,10 +1076,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59">
-        <v>23000265</v>
+        <v>22000287</v>
       </c>
       <c r="C59" t="s">
         <v>3</v>
@@ -1086,10 +1087,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60">
-        <v>23000270</v>
+        <v>22000292</v>
       </c>
       <c r="C60" t="s">
         <v>3</v>
@@ -1097,10 +1098,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B61">
-        <v>23000275</v>
+        <v>22000297</v>
       </c>
       <c r="C61" t="s">
         <v>3</v>
@@ -1108,10 +1109,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62">
-        <v>23000280</v>
+        <v>22000302</v>
       </c>
       <c r="C62" t="s">
         <v>3</v>
@@ -1119,10 +1120,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63">
-        <v>23000285</v>
+        <v>22000307</v>
       </c>
       <c r="C63" t="s">
         <v>3</v>
@@ -1130,10 +1131,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B64">
-        <v>23000290</v>
+        <v>22000312</v>
       </c>
       <c r="C64" t="s">
         <v>3</v>
@@ -1141,10 +1142,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65">
-        <v>23000295</v>
+        <v>22000317</v>
       </c>
       <c r="C65" t="s">
         <v>3</v>
@@ -1152,10 +1153,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B66">
-        <v>23000300</v>
+        <v>22000322</v>
       </c>
       <c r="C66" t="s">
         <v>3</v>
@@ -1163,10 +1164,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67">
-        <v>23000305</v>
+        <v>22000327</v>
       </c>
       <c r="C67" t="s">
         <v>3</v>
@@ -1174,10 +1175,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B68">
-        <v>23000310</v>
+        <v>22000332</v>
       </c>
       <c r="C68" t="s">
         <v>3</v>
@@ -1185,10 +1186,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B69">
-        <v>23000315</v>
+        <v>22000337</v>
       </c>
       <c r="C69" t="s">
         <v>3</v>
@@ -1196,10 +1197,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B70">
-        <v>23000320</v>
+        <v>22000342</v>
       </c>
       <c r="C70" t="s">
         <v>3</v>
@@ -1207,10 +1208,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B71">
-        <v>23000325</v>
+        <v>22000347</v>
       </c>
       <c r="C71" t="s">
         <v>3</v>
@@ -1218,10 +1219,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B72">
-        <v>23000330</v>
+        <v>22000352</v>
       </c>
       <c r="C72" t="s">
         <v>3</v>
@@ -1229,10 +1230,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B73">
-        <v>23000335</v>
+        <v>22000357</v>
       </c>
       <c r="C73" t="s">
         <v>3</v>
@@ -1240,10 +1241,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B74">
-        <v>23000340</v>
+        <v>22000362</v>
       </c>
       <c r="C74" t="s">
         <v>3</v>
@@ -1251,10 +1252,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B75">
-        <v>23000345</v>
+        <v>22000367</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -1262,10 +1263,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B76">
-        <v>23000350</v>
+        <v>22000372</v>
       </c>
       <c r="C76" t="s">
         <v>3</v>
@@ -1273,10 +1274,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B77">
-        <v>23000355</v>
+        <v>22000377</v>
       </c>
       <c r="C77" t="s">
         <v>3</v>
@@ -1284,10 +1285,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B78">
-        <v>23000360</v>
+        <v>22000382</v>
       </c>
       <c r="C78" t="s">
         <v>3</v>
@@ -1295,10 +1296,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B79">
-        <v>23000365</v>
+        <v>22000387</v>
       </c>
       <c r="C79" t="s">
         <v>3</v>
@@ -1306,10 +1307,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B80">
-        <v>23000370</v>
+        <v>22000392</v>
       </c>
       <c r="C80" t="s">
         <v>3</v>
@@ -1317,10 +1318,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B81">
-        <v>23000375</v>
+        <v>22000397</v>
       </c>
       <c r="C81" t="s">
         <v>3</v>
@@ -1328,10 +1329,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B82">
-        <v>23000380</v>
+        <v>22000402</v>
       </c>
       <c r="C82" t="s">
         <v>3</v>
@@ -1339,10 +1340,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B83">
-        <v>23000385</v>
+        <v>22000407</v>
       </c>
       <c r="C83" t="s">
         <v>3</v>
@@ -1350,10 +1351,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B84">
-        <v>23000390</v>
+        <v>22000412</v>
       </c>
       <c r="C84" t="s">
         <v>3</v>
@@ -1361,10 +1362,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B85">
-        <v>23000395</v>
+        <v>22000417</v>
       </c>
       <c r="C85" t="s">
         <v>3</v>
@@ -1372,10 +1373,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B86">
-        <v>23000405</v>
+        <v>22000422</v>
       </c>
       <c r="C86" t="s">
         <v>3</v>
@@ -1383,10 +1384,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B87">
-        <v>23000410</v>
+        <v>22000427</v>
       </c>
       <c r="C87" t="s">
         <v>3</v>
@@ -1394,10 +1395,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B88">
-        <v>23000415</v>
+        <v>22000432</v>
       </c>
       <c r="C88" t="s">
         <v>3</v>
@@ -1405,10 +1406,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B89">
-        <v>23000420</v>
+        <v>22000437</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
@@ -1416,10 +1417,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B90">
-        <v>23000425</v>
+        <v>23000005</v>
       </c>
       <c r="C90" t="s">
         <v>3</v>
@@ -1427,10 +1428,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B91">
-        <v>23000430</v>
+        <v>23000010</v>
       </c>
       <c r="C91" t="s">
         <v>3</v>
@@ -1438,10 +1439,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B92">
-        <v>23000435</v>
+        <v>23000015</v>
       </c>
       <c r="C92" t="s">
         <v>3</v>
@@ -1449,10 +1450,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B93">
-        <v>24000003</v>
+        <v>23000020</v>
       </c>
       <c r="C93" t="s">
         <v>3</v>
@@ -1460,10 +1461,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B94">
-        <v>24000008</v>
+        <v>23000025</v>
       </c>
       <c r="C94" t="s">
         <v>3</v>
@@ -1471,10 +1472,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B95">
-        <v>24000013</v>
+        <v>23000030</v>
       </c>
       <c r="C95" t="s">
         <v>3</v>
@@ -1482,10 +1483,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B96">
-        <v>24000018</v>
+        <v>23000035</v>
       </c>
       <c r="C96" t="s">
         <v>3</v>
@@ -1493,10 +1494,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B97">
-        <v>24000023</v>
+        <v>23000040</v>
       </c>
       <c r="C97" t="s">
         <v>3</v>
@@ -1504,10 +1505,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B98">
-        <v>24000028</v>
+        <v>23000045</v>
       </c>
       <c r="C98" t="s">
         <v>3</v>
@@ -1515,10 +1516,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B99">
-        <v>24000033</v>
+        <v>23000050</v>
       </c>
       <c r="C99" t="s">
         <v>3</v>
@@ -1526,10 +1527,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B100">
-        <v>24000038</v>
+        <v>23000055</v>
       </c>
       <c r="C100" t="s">
         <v>3</v>
@@ -1537,10 +1538,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B101">
-        <v>24000043</v>
+        <v>23000060</v>
       </c>
       <c r="C101" t="s">
         <v>3</v>
@@ -1548,10 +1549,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B102">
-        <v>24000048</v>
+        <v>23000065</v>
       </c>
       <c r="C102" t="s">
         <v>3</v>
@@ -1559,10 +1560,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B103">
-        <v>24000053</v>
+        <v>23000070</v>
       </c>
       <c r="C103" t="s">
         <v>3</v>
@@ -1570,10 +1571,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B104">
-        <v>24000058</v>
+        <v>23000075</v>
       </c>
       <c r="C104" t="s">
         <v>3</v>
@@ -1581,10 +1582,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B105">
-        <v>24000063</v>
+        <v>23000080</v>
       </c>
       <c r="C105" t="s">
         <v>3</v>
@@ -1592,10 +1593,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B106">
-        <v>24000068</v>
+        <v>23000085</v>
       </c>
       <c r="C106" t="s">
         <v>3</v>
@@ -1603,10 +1604,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B107">
-        <v>24000073</v>
+        <v>23000090</v>
       </c>
       <c r="C107" t="s">
         <v>3</v>
@@ -1614,10 +1615,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B108">
-        <v>24000078</v>
+        <v>23000095</v>
       </c>
       <c r="C108" t="s">
         <v>3</v>
@@ -1625,10 +1626,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B109">
-        <v>24000083</v>
+        <v>23000100</v>
       </c>
       <c r="C109" t="s">
         <v>3</v>
@@ -1636,10 +1637,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B110">
-        <v>24000088</v>
+        <v>23000105</v>
       </c>
       <c r="C110" t="s">
         <v>3</v>
@@ -1647,10 +1648,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B111">
-        <v>24000093</v>
+        <v>23000110</v>
       </c>
       <c r="C111" t="s">
         <v>3</v>
@@ -1658,10 +1659,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B112">
-        <v>24000098</v>
+        <v>23000115</v>
       </c>
       <c r="C112" t="s">
         <v>3</v>
@@ -1669,10 +1670,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B113">
-        <v>24000103</v>
+        <v>23000120</v>
       </c>
       <c r="C113" t="s">
         <v>3</v>
@@ -1680,10 +1681,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B114">
-        <v>24000108</v>
+        <v>23000125</v>
       </c>
       <c r="C114" t="s">
         <v>3</v>
@@ -1691,10 +1692,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B115">
-        <v>24000113</v>
+        <v>23000130</v>
       </c>
       <c r="C115" t="s">
         <v>3</v>
@@ -1702,10 +1703,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B116">
-        <v>24000118</v>
+        <v>23000135</v>
       </c>
       <c r="C116" t="s">
         <v>3</v>
@@ -1713,10 +1714,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B117">
-        <v>24000123</v>
+        <v>23000140</v>
       </c>
       <c r="C117" t="s">
         <v>3</v>
@@ -1724,10 +1725,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B118">
-        <v>24000128</v>
+        <v>23000145</v>
       </c>
       <c r="C118" t="s">
         <v>3</v>
@@ -1735,10 +1736,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B119">
-        <v>24000133</v>
+        <v>23000150</v>
       </c>
       <c r="C119" t="s">
         <v>3</v>
@@ -1746,10 +1747,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B120">
-        <v>24000138</v>
+        <v>23000155</v>
       </c>
       <c r="C120" t="s">
         <v>3</v>
@@ -1757,10 +1758,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B121">
-        <v>24000143</v>
+        <v>23000160</v>
       </c>
       <c r="C121" t="s">
         <v>3</v>
@@ -1768,10 +1769,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B122">
-        <v>24000148</v>
+        <v>23000165</v>
       </c>
       <c r="C122" t="s">
         <v>3</v>
@@ -1779,10 +1780,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B123">
-        <v>24000153</v>
+        <v>23000170</v>
       </c>
       <c r="C123" t="s">
         <v>3</v>
@@ -1790,10 +1791,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B124">
-        <v>24000158</v>
+        <v>23000175</v>
       </c>
       <c r="C124" t="s">
         <v>3</v>
@@ -1801,10 +1802,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B125">
-        <v>24000163</v>
+        <v>23000180</v>
       </c>
       <c r="C125" t="s">
         <v>3</v>
@@ -1812,10 +1813,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B126">
-        <v>24000168</v>
+        <v>23000185</v>
       </c>
       <c r="C126" t="s">
         <v>3</v>
@@ -1823,13 +1824,1927 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B127">
+        <v>23000190</v>
+      </c>
+      <c r="C127" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>2</v>
+      </c>
+      <c r="B128">
+        <v>23000195</v>
+      </c>
+      <c r="C128" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>2</v>
+      </c>
+      <c r="B129">
+        <v>23000200</v>
+      </c>
+      <c r="C129" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>2</v>
+      </c>
+      <c r="B130">
+        <v>23000205</v>
+      </c>
+      <c r="C130" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>2</v>
+      </c>
+      <c r="B131">
+        <v>23000210</v>
+      </c>
+      <c r="C131" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>2</v>
+      </c>
+      <c r="B132">
+        <v>23000215</v>
+      </c>
+      <c r="C132" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>2</v>
+      </c>
+      <c r="B133">
+        <v>23000220</v>
+      </c>
+      <c r="C133" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>2</v>
+      </c>
+      <c r="B134">
+        <v>23000225</v>
+      </c>
+      <c r="C134" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>2</v>
+      </c>
+      <c r="B135">
+        <v>23000230</v>
+      </c>
+      <c r="C135" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>2</v>
+      </c>
+      <c r="B136">
+        <v>23000235</v>
+      </c>
+      <c r="C136" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>2</v>
+      </c>
+      <c r="B137">
+        <v>23000240</v>
+      </c>
+      <c r="C137" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>2</v>
+      </c>
+      <c r="B138">
+        <v>23000245</v>
+      </c>
+      <c r="C138" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>2</v>
+      </c>
+      <c r="B139">
+        <v>23000250</v>
+      </c>
+      <c r="C139" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>2</v>
+      </c>
+      <c r="B140">
+        <v>23000255</v>
+      </c>
+      <c r="C140" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>2</v>
+      </c>
+      <c r="B141">
+        <v>23000260</v>
+      </c>
+      <c r="C141" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>2</v>
+      </c>
+      <c r="B142">
+        <v>23000265</v>
+      </c>
+      <c r="C142" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>2</v>
+      </c>
+      <c r="B143">
+        <v>23000270</v>
+      </c>
+      <c r="C143" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>2</v>
+      </c>
+      <c r="B144">
+        <v>23000275</v>
+      </c>
+      <c r="C144" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>2</v>
+      </c>
+      <c r="B145">
+        <v>23000280</v>
+      </c>
+      <c r="C145" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>2</v>
+      </c>
+      <c r="B146">
+        <v>23000285</v>
+      </c>
+      <c r="C146" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>2</v>
+      </c>
+      <c r="B147">
+        <v>23000290</v>
+      </c>
+      <c r="C147" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>2</v>
+      </c>
+      <c r="B148">
+        <v>23000295</v>
+      </c>
+      <c r="C148" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>2</v>
+      </c>
+      <c r="B149">
+        <v>23000300</v>
+      </c>
+      <c r="C149" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>2</v>
+      </c>
+      <c r="B150">
+        <v>23000305</v>
+      </c>
+      <c r="C150" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>2</v>
+      </c>
+      <c r="B151">
+        <v>23000310</v>
+      </c>
+      <c r="C151" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>2</v>
+      </c>
+      <c r="B152">
+        <v>23000315</v>
+      </c>
+      <c r="C152" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>2</v>
+      </c>
+      <c r="B153">
+        <v>23000320</v>
+      </c>
+      <c r="C153" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>2</v>
+      </c>
+      <c r="B154">
+        <v>23000325</v>
+      </c>
+      <c r="C154" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>2</v>
+      </c>
+      <c r="B155">
+        <v>23000330</v>
+      </c>
+      <c r="C155" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>2</v>
+      </c>
+      <c r="B156">
+        <v>23000335</v>
+      </c>
+      <c r="C156" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>2</v>
+      </c>
+      <c r="B157">
+        <v>23000340</v>
+      </c>
+      <c r="C157" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>2</v>
+      </c>
+      <c r="B158">
+        <v>23000345</v>
+      </c>
+      <c r="C158" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>2</v>
+      </c>
+      <c r="B159">
+        <v>23000350</v>
+      </c>
+      <c r="C159" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>2</v>
+      </c>
+      <c r="B160">
+        <v>23000355</v>
+      </c>
+      <c r="C160" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>2</v>
+      </c>
+      <c r="B161">
+        <v>23000360</v>
+      </c>
+      <c r="C161" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>2</v>
+      </c>
+      <c r="B162">
+        <v>23000365</v>
+      </c>
+      <c r="C162" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>2</v>
+      </c>
+      <c r="B163">
+        <v>23000370</v>
+      </c>
+      <c r="C163" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>2</v>
+      </c>
+      <c r="B164">
+        <v>23000375</v>
+      </c>
+      <c r="C164" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>2</v>
+      </c>
+      <c r="B165">
+        <v>23000380</v>
+      </c>
+      <c r="C165" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>2</v>
+      </c>
+      <c r="B166">
+        <v>23000385</v>
+      </c>
+      <c r="C166" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>2</v>
+      </c>
+      <c r="B167">
+        <v>23000390</v>
+      </c>
+      <c r="C167" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>2</v>
+      </c>
+      <c r="B168">
+        <v>23000395</v>
+      </c>
+      <c r="C168" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>2</v>
+      </c>
+      <c r="B169">
+        <v>23000400</v>
+      </c>
+      <c r="C169" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>2</v>
+      </c>
+      <c r="B170">
+        <v>23000405</v>
+      </c>
+      <c r="C170" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>2</v>
+      </c>
+      <c r="B171">
+        <v>23000410</v>
+      </c>
+      <c r="C171" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>2</v>
+      </c>
+      <c r="B172">
+        <v>23000415</v>
+      </c>
+      <c r="C172" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>2</v>
+      </c>
+      <c r="B173">
+        <v>23000420</v>
+      </c>
+      <c r="C173" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>2</v>
+      </c>
+      <c r="B174">
+        <v>23000425</v>
+      </c>
+      <c r="C174" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>2</v>
+      </c>
+      <c r="B175">
+        <v>23000430</v>
+      </c>
+      <c r="C175" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>2</v>
+      </c>
+      <c r="B176">
+        <v>23000435</v>
+      </c>
+      <c r="C176" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>2</v>
+      </c>
+      <c r="B177">
+        <v>24000003</v>
+      </c>
+      <c r="C177" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>2</v>
+      </c>
+      <c r="B178">
+        <v>24000008</v>
+      </c>
+      <c r="C178" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>2</v>
+      </c>
+      <c r="B179">
+        <v>24000013</v>
+      </c>
+      <c r="C179" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>2</v>
+      </c>
+      <c r="B180">
+        <v>24000018</v>
+      </c>
+      <c r="C180" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>2</v>
+      </c>
+      <c r="B181">
+        <v>24000023</v>
+      </c>
+      <c r="C181" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>2</v>
+      </c>
+      <c r="B182">
+        <v>24000028</v>
+      </c>
+      <c r="C182" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>2</v>
+      </c>
+      <c r="B183">
+        <v>24000033</v>
+      </c>
+      <c r="C183" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>2</v>
+      </c>
+      <c r="B184">
+        <v>24000038</v>
+      </c>
+      <c r="C184" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>2</v>
+      </c>
+      <c r="B185">
+        <v>24000043</v>
+      </c>
+      <c r="C185" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>2</v>
+      </c>
+      <c r="B186">
+        <v>24000048</v>
+      </c>
+      <c r="C186" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>2</v>
+      </c>
+      <c r="B187">
+        <v>24000053</v>
+      </c>
+      <c r="C187" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>2</v>
+      </c>
+      <c r="B188">
+        <v>24000058</v>
+      </c>
+      <c r="C188" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>2</v>
+      </c>
+      <c r="B189">
+        <v>24000063</v>
+      </c>
+      <c r="C189" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>2</v>
+      </c>
+      <c r="B190">
+        <v>24000068</v>
+      </c>
+      <c r="C190" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>2</v>
+      </c>
+      <c r="B191">
+        <v>24000073</v>
+      </c>
+      <c r="C191" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>2</v>
+      </c>
+      <c r="B192">
+        <v>24000078</v>
+      </c>
+      <c r="C192" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>2</v>
+      </c>
+      <c r="B193">
+        <v>24000083</v>
+      </c>
+      <c r="C193" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>2</v>
+      </c>
+      <c r="B194">
+        <v>24000088</v>
+      </c>
+      <c r="C194" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>2</v>
+      </c>
+      <c r="B195">
+        <v>24000093</v>
+      </c>
+      <c r="C195" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>2</v>
+      </c>
+      <c r="B196">
+        <v>24000098</v>
+      </c>
+      <c r="C196" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>2</v>
+      </c>
+      <c r="B197">
+        <v>24000103</v>
+      </c>
+      <c r="C197" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>2</v>
+      </c>
+      <c r="B198">
+        <v>24000108</v>
+      </c>
+      <c r="C198" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>2</v>
+      </c>
+      <c r="B199">
+        <v>24000113</v>
+      </c>
+      <c r="C199" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>2</v>
+      </c>
+      <c r="B200">
+        <v>24000118</v>
+      </c>
+      <c r="C200" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>2</v>
+      </c>
+      <c r="B201">
+        <v>24000123</v>
+      </c>
+      <c r="C201" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>3</v>
+      </c>
+      <c r="B202">
+        <v>24000128</v>
+      </c>
+      <c r="C202" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>3</v>
+      </c>
+      <c r="B203">
+        <v>24000133</v>
+      </c>
+      <c r="C203" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>3</v>
+      </c>
+      <c r="B204">
+        <v>24000138</v>
+      </c>
+      <c r="C204" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>3</v>
+      </c>
+      <c r="B205">
+        <v>24000143</v>
+      </c>
+      <c r="C205" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>3</v>
+      </c>
+      <c r="B206">
+        <v>24000148</v>
+      </c>
+      <c r="C206" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>3</v>
+      </c>
+      <c r="B207">
+        <v>24000153</v>
+      </c>
+      <c r="C207" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>3</v>
+      </c>
+      <c r="B208">
+        <v>24000158</v>
+      </c>
+      <c r="C208" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>3</v>
+      </c>
+      <c r="B209">
+        <v>24000163</v>
+      </c>
+      <c r="C209" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>3</v>
+      </c>
+      <c r="B210">
+        <v>24000168</v>
+      </c>
+      <c r="C210" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>3</v>
+      </c>
+      <c r="B211">
         <v>24000173</v>
       </c>
-      <c r="C127" t="s">
-        <v>3</v>
+      <c r="C211" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>3</v>
+      </c>
+      <c r="B212">
+        <v>24000178</v>
+      </c>
+      <c r="C212" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>3</v>
+      </c>
+      <c r="B213">
+        <v>24000183</v>
+      </c>
+      <c r="C213" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>3</v>
+      </c>
+      <c r="B214">
+        <v>24000188</v>
+      </c>
+      <c r="C214" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>3</v>
+      </c>
+      <c r="B215">
+        <v>24000193</v>
+      </c>
+      <c r="C215" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>3</v>
+      </c>
+      <c r="B216">
+        <v>24000198</v>
+      </c>
+      <c r="C216" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>3</v>
+      </c>
+      <c r="B217">
+        <v>24000203</v>
+      </c>
+      <c r="C217" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>3</v>
+      </c>
+      <c r="B218">
+        <v>24000208</v>
+      </c>
+      <c r="C218" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>3</v>
+      </c>
+      <c r="B219">
+        <v>24000213</v>
+      </c>
+      <c r="C219" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>3</v>
+      </c>
+      <c r="B220">
+        <v>24000218</v>
+      </c>
+      <c r="C220" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>3</v>
+      </c>
+      <c r="B221">
+        <v>24000223</v>
+      </c>
+      <c r="C221" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>3</v>
+      </c>
+      <c r="B222">
+        <v>24000228</v>
+      </c>
+      <c r="C222" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>3</v>
+      </c>
+      <c r="B223">
+        <v>24000233</v>
+      </c>
+      <c r="C223" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>3</v>
+      </c>
+      <c r="B224">
+        <v>24000238</v>
+      </c>
+      <c r="C224" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>3</v>
+      </c>
+      <c r="B225">
+        <v>24000243</v>
+      </c>
+      <c r="C225" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>3</v>
+      </c>
+      <c r="B226">
+        <v>24000248</v>
+      </c>
+      <c r="C226" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>3</v>
+      </c>
+      <c r="B227">
+        <v>24000253</v>
+      </c>
+      <c r="C227" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>3</v>
+      </c>
+      <c r="B228">
+        <v>24000258</v>
+      </c>
+      <c r="C228" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>3</v>
+      </c>
+      <c r="B229">
+        <v>24000263</v>
+      </c>
+      <c r="C229" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>3</v>
+      </c>
+      <c r="B230">
+        <v>24000268</v>
+      </c>
+      <c r="C230" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>3</v>
+      </c>
+      <c r="B231">
+        <v>24000273</v>
+      </c>
+      <c r="C231" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>3</v>
+      </c>
+      <c r="B232">
+        <v>24000278</v>
+      </c>
+      <c r="C232" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>3</v>
+      </c>
+      <c r="B233">
+        <v>24000283</v>
+      </c>
+      <c r="C233" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>3</v>
+      </c>
+      <c r="B234">
+        <v>24000288</v>
+      </c>
+      <c r="C234" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>3</v>
+      </c>
+      <c r="B235">
+        <v>24000293</v>
+      </c>
+      <c r="C235" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>3</v>
+      </c>
+      <c r="B236">
+        <v>24000298</v>
+      </c>
+      <c r="C236" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>3</v>
+      </c>
+      <c r="B237">
+        <v>24000303</v>
+      </c>
+      <c r="C237" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>3</v>
+      </c>
+      <c r="B238">
+        <v>24000308</v>
+      </c>
+      <c r="C238" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>3</v>
+      </c>
+      <c r="B239">
+        <v>24000313</v>
+      </c>
+      <c r="C239" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>3</v>
+      </c>
+      <c r="B240">
+        <v>24000318</v>
+      </c>
+      <c r="C240" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>3</v>
+      </c>
+      <c r="B241">
+        <v>24000323</v>
+      </c>
+      <c r="C241" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>3</v>
+      </c>
+      <c r="B242">
+        <v>24000328</v>
+      </c>
+      <c r="C242" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>3</v>
+      </c>
+      <c r="B243">
+        <v>24000333</v>
+      </c>
+      <c r="C243" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>3</v>
+      </c>
+      <c r="B244">
+        <v>24000338</v>
+      </c>
+      <c r="C244" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>3</v>
+      </c>
+      <c r="B245">
+        <v>24000343</v>
+      </c>
+      <c r="C245" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>3</v>
+      </c>
+      <c r="B246">
+        <v>24000348</v>
+      </c>
+      <c r="C246" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>3</v>
+      </c>
+      <c r="B247">
+        <v>24000353</v>
+      </c>
+      <c r="C247" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>3</v>
+      </c>
+      <c r="B248">
+        <v>24000358</v>
+      </c>
+      <c r="C248" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>3</v>
+      </c>
+      <c r="B249">
+        <v>24000363</v>
+      </c>
+      <c r="C249" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>3</v>
+      </c>
+      <c r="B250">
+        <v>24000368</v>
+      </c>
+      <c r="C250" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>3</v>
+      </c>
+      <c r="B251">
+        <v>24000373</v>
+      </c>
+      <c r="C251" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>3</v>
+      </c>
+      <c r="B252">
+        <v>23000306</v>
+      </c>
+      <c r="C252" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>3</v>
+      </c>
+      <c r="B253">
+        <v>23000311</v>
+      </c>
+      <c r="C253" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>3</v>
+      </c>
+      <c r="B254">
+        <v>23000316</v>
+      </c>
+      <c r="C254" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>3</v>
+      </c>
+      <c r="B255">
+        <v>23000321</v>
+      </c>
+      <c r="C255" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>3</v>
+      </c>
+      <c r="B256">
+        <v>23000326</v>
+      </c>
+      <c r="C256" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>3</v>
+      </c>
+      <c r="B257">
+        <v>23000331</v>
+      </c>
+      <c r="C257" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>3</v>
+      </c>
+      <c r="B258">
+        <v>23000336</v>
+      </c>
+      <c r="C258" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>3</v>
+      </c>
+      <c r="B259">
+        <v>23000341</v>
+      </c>
+      <c r="C259" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>3</v>
+      </c>
+      <c r="B260">
+        <v>23000346</v>
+      </c>
+      <c r="C260" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>3</v>
+      </c>
+      <c r="B261">
+        <v>23000351</v>
+      </c>
+      <c r="C261" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>3</v>
+      </c>
+      <c r="B262">
+        <v>23000356</v>
+      </c>
+      <c r="C262" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>3</v>
+      </c>
+      <c r="B263">
+        <v>23000361</v>
+      </c>
+      <c r="C263" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>3</v>
+      </c>
+      <c r="B264">
+        <v>23000366</v>
+      </c>
+      <c r="C264" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>3</v>
+      </c>
+      <c r="B265">
+        <v>23000371</v>
+      </c>
+      <c r="C265" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>3</v>
+      </c>
+      <c r="B266">
+        <v>23000376</v>
+      </c>
+      <c r="C266" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>3</v>
+      </c>
+      <c r="B267">
+        <v>23000381</v>
+      </c>
+      <c r="C267" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>3</v>
+      </c>
+      <c r="B268">
+        <v>23000386</v>
+      </c>
+      <c r="C268" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>3</v>
+      </c>
+      <c r="B269">
+        <v>23000391</v>
+      </c>
+      <c r="C269" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>3</v>
+      </c>
+      <c r="B270">
+        <v>23000396</v>
+      </c>
+      <c r="C270" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>3</v>
+      </c>
+      <c r="B271">
+        <v>23000401</v>
+      </c>
+      <c r="C271" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>3</v>
+      </c>
+      <c r="B272">
+        <v>23000406</v>
+      </c>
+      <c r="C272" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>3</v>
+      </c>
+      <c r="B273">
+        <v>23000411</v>
+      </c>
+      <c r="C273" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>3</v>
+      </c>
+      <c r="B274">
+        <v>23000416</v>
+      </c>
+      <c r="C274" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>3</v>
+      </c>
+      <c r="B275">
+        <v>23000421</v>
+      </c>
+      <c r="C275" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>3</v>
+      </c>
+      <c r="B276">
+        <v>23000426</v>
+      </c>
+      <c r="C276" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>3</v>
+      </c>
+      <c r="B277">
+        <v>23000431</v>
+      </c>
+      <c r="C277" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>3</v>
+      </c>
+      <c r="B278">
+        <v>23000436</v>
+      </c>
+      <c r="C278" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>3</v>
+      </c>
+      <c r="B279">
+        <v>23000136</v>
+      </c>
+      <c r="C279" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>3</v>
+      </c>
+      <c r="B280">
+        <v>23000141</v>
+      </c>
+      <c r="C280" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>3</v>
+      </c>
+      <c r="B281">
+        <v>23000146</v>
+      </c>
+      <c r="C281" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>3</v>
+      </c>
+      <c r="B282">
+        <v>23000151</v>
+      </c>
+      <c r="C282" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>3</v>
+      </c>
+      <c r="B283">
+        <v>23000156</v>
+      </c>
+      <c r="C283" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>3</v>
+      </c>
+      <c r="B284">
+        <v>23000161</v>
+      </c>
+      <c r="C284" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>3</v>
+      </c>
+      <c r="B285">
+        <v>23000166</v>
+      </c>
+      <c r="C285" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>3</v>
+      </c>
+      <c r="B286">
+        <v>23000171</v>
+      </c>
+      <c r="C286" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>3</v>
+      </c>
+      <c r="B287">
+        <v>23000176</v>
+      </c>
+      <c r="C287" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>3</v>
+      </c>
+      <c r="B288">
+        <v>23000181</v>
+      </c>
+      <c r="C288" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>3</v>
+      </c>
+      <c r="B289">
+        <v>23000186</v>
+      </c>
+      <c r="C289" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>3</v>
+      </c>
+      <c r="B290">
+        <v>23000191</v>
+      </c>
+      <c r="C290" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>3</v>
+      </c>
+      <c r="B291">
+        <v>23000196</v>
+      </c>
+      <c r="C291" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>3</v>
+      </c>
+      <c r="B292">
+        <v>23000201</v>
+      </c>
+      <c r="C292" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>3</v>
+      </c>
+      <c r="B293">
+        <v>23000206</v>
+      </c>
+      <c r="C293" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>3</v>
+      </c>
+      <c r="B294">
+        <v>23000211</v>
+      </c>
+      <c r="C294" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>3</v>
+      </c>
+      <c r="B295">
+        <v>23000216</v>
+      </c>
+      <c r="C295" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>3</v>
+      </c>
+      <c r="B296">
+        <v>23000221</v>
+      </c>
+      <c r="C296" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>3</v>
+      </c>
+      <c r="B297">
+        <v>23000226</v>
+      </c>
+      <c r="C297" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>3</v>
+      </c>
+      <c r="B298">
+        <v>23000231</v>
+      </c>
+      <c r="C298" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>3</v>
+      </c>
+      <c r="B299">
+        <v>23000236</v>
+      </c>
+      <c r="C299" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>3</v>
+      </c>
+      <c r="B300">
+        <v>23000241</v>
+      </c>
+      <c r="C300" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>3</v>
+      </c>
+      <c r="B301">
+        <v>23000246</v>
+      </c>
+      <c r="C301" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/file/StudentSem.xlsx
+++ b/src/main/resources/file/StudentSem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wong zhao xuan\Documents\Programming Languages\Java\Course Timetable\timetable\src\main\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B0DE19-2EAB-417B-8027-9FC58E3E0B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AA8787-B1A8-487F-9137-61FB9B71D552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{775B32B7-97F4-4E22-B0E8-E8501CDB7B73}"/>
   </bookViews>
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021D61C9-216E-4AA0-9570-AB2E074861E1}">
   <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F290" sqref="F290"/>
+    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E298" sqref="E298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B102">
         <v>23000065</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B103">
         <v>23000070</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B104">
         <v>23000075</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B105">
         <v>23000080</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B106">
         <v>23000085</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B107">
         <v>23000090</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B108">
         <v>23000095</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B109">
         <v>23000100</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B110">
         <v>23000105</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B111">
         <v>23000110</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B112">
         <v>23000115</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B113">
         <v>23000120</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B114">
         <v>23000125</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B115">
         <v>23000130</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B116">
         <v>23000135</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B117">
         <v>23000140</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B118">
         <v>23000145</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B119">
         <v>23000150</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B120">
         <v>23000155</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B121">
         <v>23000160</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B122">
         <v>23000165</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B123">
         <v>23000170</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B124">
         <v>23000175</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B125">
         <v>23000180</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B126">
         <v>23000185</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B127">
         <v>23000190</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B128">
         <v>23000195</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B129">
         <v>23000200</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B130">
         <v>23000205</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B131">
         <v>23000210</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B132">
         <v>23000215</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B133">
         <v>23000220</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B134">
         <v>23000225</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B135">
         <v>23000230</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B136">
         <v>23000235</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B137">
         <v>23000240</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B138">
         <v>23000245</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B139">
         <v>23000250</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B140">
         <v>23000255</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B141">
         <v>23000260</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B142">
         <v>23000265</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B143">
         <v>23000270</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B144">
         <v>23000275</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B145">
         <v>23000280</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B146">
         <v>23000285</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B147">
         <v>23000290</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B148">
         <v>23000295</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B149">
         <v>23000300</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B150">
         <v>23000305</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B151">
         <v>23000310</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B152">
         <v>23000315</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B153">
         <v>23000320</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B154">
         <v>23000325</v>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B155">
         <v>23000330</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B156">
         <v>23000335</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B157">
         <v>23000340</v>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B158">
         <v>23000345</v>
@@ -2176,7 +2176,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B159">
         <v>23000350</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B160">
         <v>23000355</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B161">
         <v>23000360</v>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B162">
         <v>23000365</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B163">
         <v>23000370</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B164">
         <v>23000375</v>
@@ -2242,7 +2242,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B165">
         <v>23000380</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B166">
         <v>23000385</v>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B167">
         <v>23000390</v>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B168">
         <v>23000395</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B169">
         <v>23000400</v>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B170">
         <v>23000405</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B171">
         <v>23000410</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B172">
         <v>23000415</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B173">
         <v>23000420</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B174">
         <v>23000425</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B175">
         <v>23000430</v>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B176">
         <v>23000435</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B177">
         <v>24000003</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B178">
         <v>24000008</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B179">
         <v>24000013</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B180">
         <v>24000018</v>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B181">
         <v>24000023</v>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B182">
         <v>24000028</v>
@@ -2440,7 +2440,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B183">
         <v>24000033</v>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B184">
         <v>24000038</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B185">
         <v>24000043</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B186">
         <v>24000048</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B187">
         <v>24000053</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B188">
         <v>24000058</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B189">
         <v>24000063</v>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B190">
         <v>24000068</v>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B191">
         <v>24000073</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B192">
         <v>24000078</v>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B193">
         <v>24000083</v>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B194">
         <v>24000088</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B195">
         <v>24000093</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B196">
         <v>24000098</v>
@@ -2594,7 +2594,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B197">
         <v>24000103</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B198">
         <v>24000108</v>
@@ -2616,7 +2616,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B199">
         <v>24000113</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B200">
         <v>24000118</v>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B201">
         <v>24000123</v>
@@ -2649,7 +2649,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B202">
         <v>24000128</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B203">
         <v>24000133</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B204">
         <v>24000138</v>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B205">
         <v>24000143</v>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B206">
         <v>24000148</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B207">
         <v>24000153</v>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B208">
         <v>24000158</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B209">
         <v>24000163</v>
@@ -2737,7 +2737,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B210">
         <v>24000168</v>
@@ -2748,7 +2748,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B211">
         <v>24000173</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B212">
         <v>24000178</v>
@@ -2770,7 +2770,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B213">
         <v>24000183</v>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B214">
         <v>24000188</v>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B215">
         <v>24000193</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B216">
         <v>24000198</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B217">
         <v>24000203</v>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B218">
         <v>24000208</v>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B219">
         <v>24000213</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B220">
         <v>24000218</v>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B221">
         <v>24000223</v>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B222">
         <v>24000228</v>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B223">
         <v>24000233</v>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B224">
         <v>24000238</v>
@@ -2902,7 +2902,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B225">
         <v>24000243</v>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B226">
         <v>24000248</v>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B227">
         <v>24000253</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B228">
         <v>24000258</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B229">
         <v>24000263</v>
@@ -2957,7 +2957,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B230">
         <v>24000268</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B231">
         <v>24000273</v>
@@ -2979,7 +2979,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B232">
         <v>24000278</v>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B233">
         <v>24000283</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B234">
         <v>24000288</v>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B235">
         <v>24000293</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B236">
         <v>24000298</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B237">
         <v>24000303</v>
@@ -3045,7 +3045,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B238">
         <v>24000308</v>
@@ -3056,7 +3056,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B239">
         <v>24000313</v>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B240">
         <v>24000318</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B241">
         <v>24000323</v>
@@ -3089,7 +3089,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B242">
         <v>24000328</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B243">
         <v>24000333</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B244">
         <v>24000338</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B245">
         <v>24000343</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B246">
         <v>24000348</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B247">
         <v>24000353</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B248">
         <v>24000358</v>
@@ -3166,7 +3166,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B249">
         <v>24000363</v>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B250">
         <v>24000368</v>
@@ -3188,7 +3188,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B251">
         <v>24000373</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B252">
         <v>23000306</v>
@@ -3210,7 +3210,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B253">
         <v>23000311</v>
@@ -3221,7 +3221,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B254">
         <v>23000316</v>
@@ -3232,7 +3232,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B255">
         <v>23000321</v>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B256">
         <v>23000326</v>
@@ -3254,7 +3254,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B257">
         <v>23000331</v>
@@ -3265,7 +3265,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B258">
         <v>23000336</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B259">
         <v>23000341</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B260">
         <v>23000346</v>
@@ -3298,7 +3298,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B261">
         <v>23000351</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B262">
         <v>23000356</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B263">
         <v>23000361</v>
@@ -3331,7 +3331,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B264">
         <v>23000366</v>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B265">
         <v>23000371</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B266">
         <v>23000376</v>
@@ -3364,7 +3364,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B267">
         <v>23000381</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B268">
         <v>23000386</v>
@@ -3386,7 +3386,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B269">
         <v>23000391</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B270">
         <v>23000396</v>
@@ -3408,7 +3408,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B271">
         <v>23000401</v>
@@ -3419,7 +3419,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B272">
         <v>23000406</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B273">
         <v>23000411</v>
@@ -3441,7 +3441,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B274">
         <v>23000416</v>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B275">
         <v>23000421</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B276">
         <v>23000426</v>
@@ -3474,7 +3474,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B277">
         <v>23000431</v>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B278">
         <v>23000436</v>
@@ -3496,7 +3496,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B279">
         <v>23000136</v>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B280">
         <v>23000141</v>
@@ -3518,7 +3518,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B281">
         <v>23000146</v>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B282">
         <v>23000151</v>
@@ -3540,7 +3540,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B283">
         <v>23000156</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B284">
         <v>23000161</v>
@@ -3562,7 +3562,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B285">
         <v>23000166</v>
@@ -3573,7 +3573,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B286">
         <v>23000171</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B287">
         <v>23000176</v>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B288">
         <v>23000181</v>
@@ -3606,7 +3606,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B289">
         <v>23000186</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B290">
         <v>23000191</v>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B291">
         <v>23000196</v>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B292">
         <v>23000201</v>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B293">
         <v>23000206</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B294">
         <v>23000211</v>
@@ -3672,7 +3672,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B295">
         <v>23000216</v>
@@ -3683,7 +3683,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B296">
         <v>23000221</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B297">
         <v>23000226</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B298">
         <v>23000231</v>
@@ -3716,7 +3716,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B299">
         <v>23000236</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B300">
         <v>23000241</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B301">
         <v>23000246</v>

--- a/src/main/resources/file/StudentSem.xlsx
+++ b/src/main/resources/file/StudentSem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wong zhao xuan\Documents\Programming Languages\Java\Course Timetable\timetable\src\main\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AA8787-B1A8-487F-9137-61FB9B71D552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4551EBDE-6EB8-49F5-911F-4EBE30806266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{775B32B7-97F4-4E22-B0E8-E8501CDB7B73}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="4">
   <si>
     <t>Semester</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>BCS</t>
-  </si>
-  <si>
-    <t>BSE</t>
   </si>
 </sst>
 </file>
@@ -424,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021D61C9-216E-4AA0-9570-AB2E074861E1}">
   <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E298" sqref="E298"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F298" sqref="F298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,7 +449,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>22000002</v>
+        <v>24000012</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -463,7 +460,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22000007</v>
+        <v>24000017</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -474,7 +471,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>22000012</v>
+        <v>24000027</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -485,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>22000017</v>
+        <v>24000042</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -496,7 +493,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>22000022</v>
+        <v>24000052</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -507,7 +504,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>22000027</v>
+        <v>24000062</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -518,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>22000032</v>
+        <v>24000067</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -529,7 +526,7 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>22000037</v>
+        <v>24000072</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -540,7 +537,7 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>22000042</v>
+        <v>24000147</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -551,7 +548,7 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>22000047</v>
+        <v>24000152</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -562,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>22000052</v>
+        <v>24000157</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -573,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>22000057</v>
+        <v>24000182</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
@@ -584,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>22000062</v>
+        <v>24000187</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -595,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>22000067</v>
+        <v>24000197</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -606,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>22000072</v>
+        <v>24000212</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -617,7 +614,7 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>22000077</v>
+        <v>24000262</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -628,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>22000082</v>
+        <v>24000272</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -639,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>22000087</v>
+        <v>24000277</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -650,7 +647,7 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>22000092</v>
+        <v>24000302</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -661,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>22000097</v>
+        <v>24000312</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
@@ -672,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>22000102</v>
+        <v>24000332</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
@@ -683,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>22000107</v>
+        <v>24000362</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
@@ -694,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>22000112</v>
+        <v>24000412</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
@@ -705,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>22000117</v>
+        <v>24000422</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
@@ -716,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>22000122</v>
+        <v>24000427</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
@@ -727,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>22000127</v>
+        <v>24000442</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -738,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>22000132</v>
+        <v>24000462</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -749,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>22000137</v>
+        <v>24000482</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
@@ -760,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>22000142</v>
+        <v>24000487</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -771,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="B31">
-        <v>22000147</v>
+        <v>24000522</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -782,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>22000152</v>
+        <v>24000547</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -793,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>22000157</v>
+        <v>24000557</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
@@ -804,7 +801,7 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>22000162</v>
+        <v>24000567</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
@@ -815,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>22000167</v>
+        <v>24000602</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
@@ -826,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>22000172</v>
+        <v>24000622</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
@@ -837,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>22000177</v>
+        <v>24000627</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
@@ -848,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>22000182</v>
+        <v>24000632</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -859,10 +856,10 @@
         <v>1</v>
       </c>
       <c r="B39">
-        <v>22000187</v>
+        <v>24000657</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -870,10 +867,10 @@
         <v>1</v>
       </c>
       <c r="B40">
-        <v>22000192</v>
+        <v>24000662</v>
       </c>
       <c r="C40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -881,10 +878,10 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>22000197</v>
+        <v>24000672</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -892,10 +889,10 @@
         <v>1</v>
       </c>
       <c r="B42">
-        <v>22000202</v>
+        <v>24000682</v>
       </c>
       <c r="C42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -903,10 +900,10 @@
         <v>1</v>
       </c>
       <c r="B43">
-        <v>22000207</v>
+        <v>24000687</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -914,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="B44">
-        <v>22000212</v>
+        <v>24000692</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
@@ -925,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="B45">
-        <v>22000217</v>
+        <v>24000712</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
@@ -936,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="B46">
-        <v>22000222</v>
+        <v>24000722</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
@@ -947,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="B47">
-        <v>22000227</v>
+        <v>24000737</v>
       </c>
       <c r="C47" t="s">
         <v>3</v>
@@ -958,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="B48">
-        <v>22000232</v>
+        <v>24000792</v>
       </c>
       <c r="C48" t="s">
         <v>3</v>
@@ -969,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="B49">
-        <v>22000237</v>
+        <v>24000812</v>
       </c>
       <c r="C49" t="s">
         <v>3</v>
@@ -980,7 +977,7 @@
         <v>1</v>
       </c>
       <c r="B50">
-        <v>22000242</v>
+        <v>24000817</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
@@ -991,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="B51">
-        <v>22000247</v>
+        <v>24000872</v>
       </c>
       <c r="C51" t="s">
         <v>3</v>
@@ -1002,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="B52">
-        <v>22000252</v>
+        <v>24000887</v>
       </c>
       <c r="C52" t="s">
         <v>3</v>
@@ -1013,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="B53">
-        <v>22000257</v>
+        <v>24000892</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
@@ -1024,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="B54">
-        <v>22000262</v>
+        <v>24000897</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -1035,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="B55">
-        <v>22000267</v>
+        <v>24000937</v>
       </c>
       <c r="C55" t="s">
         <v>3</v>
@@ -1046,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="B56">
-        <v>22000272</v>
+        <v>24000942</v>
       </c>
       <c r="C56" t="s">
         <v>3</v>
@@ -1057,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="B57">
-        <v>22000277</v>
+        <v>24000967</v>
       </c>
       <c r="C57" t="s">
         <v>3</v>
@@ -1068,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="B58">
-        <v>22000282</v>
+        <v>24000982</v>
       </c>
       <c r="C58" t="s">
         <v>3</v>
@@ -1079,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="B59">
-        <v>22000287</v>
+        <v>24001037</v>
       </c>
       <c r="C59" t="s">
         <v>3</v>
@@ -1090,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="B60">
-        <v>22000292</v>
+        <v>24001042</v>
       </c>
       <c r="C60" t="s">
         <v>3</v>
@@ -1101,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="B61">
-        <v>22000297</v>
+        <v>24001057</v>
       </c>
       <c r="C61" t="s">
         <v>3</v>
@@ -1112,7 +1109,7 @@
         <v>1</v>
       </c>
       <c r="B62">
-        <v>22000302</v>
+        <v>24001062</v>
       </c>
       <c r="C62" t="s">
         <v>3</v>
@@ -1123,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="B63">
-        <v>22000307</v>
+        <v>24001072</v>
       </c>
       <c r="C63" t="s">
         <v>3</v>
@@ -1134,7 +1131,7 @@
         <v>1</v>
       </c>
       <c r="B64">
-        <v>22000312</v>
+        <v>24001077</v>
       </c>
       <c r="C64" t="s">
         <v>3</v>
@@ -1145,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="B65">
-        <v>22000317</v>
+        <v>24001092</v>
       </c>
       <c r="C65" t="s">
         <v>3</v>
@@ -1156,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="B66">
-        <v>22000322</v>
+        <v>24001097</v>
       </c>
       <c r="C66" t="s">
         <v>3</v>
@@ -1167,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="B67">
-        <v>22000327</v>
+        <v>24001112</v>
       </c>
       <c r="C67" t="s">
         <v>3</v>
@@ -1178,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="B68">
-        <v>22000332</v>
+        <v>24001122</v>
       </c>
       <c r="C68" t="s">
         <v>3</v>
@@ -1189,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="B69">
-        <v>22000337</v>
+        <v>24001137</v>
       </c>
       <c r="C69" t="s">
         <v>3</v>
@@ -1200,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="B70">
-        <v>22000342</v>
+        <v>24001142</v>
       </c>
       <c r="C70" t="s">
         <v>3</v>
@@ -1211,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="B71">
-        <v>22000347</v>
+        <v>24001147</v>
       </c>
       <c r="C71" t="s">
         <v>3</v>
@@ -1222,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="B72">
-        <v>22000352</v>
+        <v>24001162</v>
       </c>
       <c r="C72" t="s">
         <v>3</v>
@@ -1233,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="B73">
-        <v>22000357</v>
+        <v>24001172</v>
       </c>
       <c r="C73" t="s">
         <v>3</v>
@@ -1244,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="B74">
-        <v>22000362</v>
+        <v>24001182</v>
       </c>
       <c r="C74" t="s">
         <v>3</v>
@@ -1255,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="B75">
-        <v>22000367</v>
+        <v>24001202</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -1266,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="B76">
-        <v>22000372</v>
+        <v>24001207</v>
       </c>
       <c r="C76" t="s">
         <v>3</v>
@@ -1277,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="B77">
-        <v>22000377</v>
+        <v>24001212</v>
       </c>
       <c r="C77" t="s">
         <v>3</v>
@@ -1288,7 +1285,7 @@
         <v>1</v>
       </c>
       <c r="B78">
-        <v>22000382</v>
+        <v>24001217</v>
       </c>
       <c r="C78" t="s">
         <v>3</v>
@@ -1299,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="B79">
-        <v>22000387</v>
+        <v>24001222</v>
       </c>
       <c r="C79" t="s">
         <v>3</v>
@@ -1310,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="B80">
-        <v>22000392</v>
+        <v>24001237</v>
       </c>
       <c r="C80" t="s">
         <v>3</v>
@@ -1321,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="B81">
-        <v>22000397</v>
+        <v>24001252</v>
       </c>
       <c r="C81" t="s">
         <v>3</v>
@@ -1332,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="B82">
-        <v>22000402</v>
+        <v>24001257</v>
       </c>
       <c r="C82" t="s">
         <v>3</v>
@@ -1343,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="B83">
-        <v>22000407</v>
+        <v>24001272</v>
       </c>
       <c r="C83" t="s">
         <v>3</v>
@@ -1354,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="B84">
-        <v>22000412</v>
+        <v>24001287</v>
       </c>
       <c r="C84" t="s">
         <v>3</v>
@@ -1365,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="B85">
-        <v>22000417</v>
+        <v>24001302</v>
       </c>
       <c r="C85" t="s">
         <v>3</v>
@@ -1376,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="B86">
-        <v>22000422</v>
+        <v>24001307</v>
       </c>
       <c r="C86" t="s">
         <v>3</v>
@@ -1387,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="B87">
-        <v>22000427</v>
+        <v>24001312</v>
       </c>
       <c r="C87" t="s">
         <v>3</v>
@@ -1398,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="B88">
-        <v>22000432</v>
+        <v>24001317</v>
       </c>
       <c r="C88" t="s">
         <v>3</v>
@@ -1409,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="B89">
-        <v>22000437</v>
+        <v>24001332</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
@@ -1420,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="B90">
-        <v>23000005</v>
+        <v>24001342</v>
       </c>
       <c r="C90" t="s">
         <v>3</v>
@@ -1431,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="B91">
-        <v>23000010</v>
+        <v>24001357</v>
       </c>
       <c r="C91" t="s">
         <v>3</v>
@@ -1442,7 +1439,7 @@
         <v>1</v>
       </c>
       <c r="B92">
-        <v>23000015</v>
+        <v>24001362</v>
       </c>
       <c r="C92" t="s">
         <v>3</v>
@@ -1453,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="B93">
-        <v>23000020</v>
+        <v>24001377</v>
       </c>
       <c r="C93" t="s">
         <v>3</v>
@@ -1464,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="B94">
-        <v>23000025</v>
+        <v>24001402</v>
       </c>
       <c r="C94" t="s">
         <v>3</v>
@@ -1475,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="B95">
-        <v>23000030</v>
+        <v>24001417</v>
       </c>
       <c r="C95" t="s">
         <v>3</v>
@@ -1486,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="B96">
-        <v>23000035</v>
+        <v>24001437</v>
       </c>
       <c r="C96" t="s">
         <v>3</v>
@@ -1497,7 +1494,7 @@
         <v>1</v>
       </c>
       <c r="B97">
-        <v>23000040</v>
+        <v>24001447</v>
       </c>
       <c r="C97" t="s">
         <v>3</v>
@@ -1508,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="B98">
-        <v>23000045</v>
+        <v>24001452</v>
       </c>
       <c r="C98" t="s">
         <v>3</v>
@@ -1519,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="B99">
-        <v>23000050</v>
+        <v>24001457</v>
       </c>
       <c r="C99" t="s">
         <v>3</v>
@@ -1530,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="B100">
-        <v>23000055</v>
+        <v>24001462</v>
       </c>
       <c r="C100" t="s">
         <v>3</v>
@@ -1541,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="B101">
-        <v>23000060</v>
+        <v>24001472</v>
       </c>
       <c r="C101" t="s">
         <v>3</v>
@@ -1552,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="B102">
-        <v>23000065</v>
+        <v>24001477</v>
       </c>
       <c r="C102" t="s">
         <v>3</v>
@@ -1563,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="B103">
-        <v>23000070</v>
+        <v>24001482</v>
       </c>
       <c r="C103" t="s">
         <v>3</v>
@@ -1574,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="B104">
-        <v>23000075</v>
+        <v>24001497</v>
       </c>
       <c r="C104" t="s">
         <v>3</v>
@@ -1585,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="B105">
-        <v>23000080</v>
+        <v>24001507</v>
       </c>
       <c r="C105" t="s">
         <v>3</v>
@@ -1596,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="B106">
-        <v>23000085</v>
+        <v>24001512</v>
       </c>
       <c r="C106" t="s">
         <v>3</v>
@@ -1607,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="B107">
-        <v>23000090</v>
+        <v>24001517</v>
       </c>
       <c r="C107" t="s">
         <v>3</v>
@@ -1618,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="B108">
-        <v>23000095</v>
+        <v>24001542</v>
       </c>
       <c r="C108" t="s">
         <v>3</v>
@@ -1629,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="B109">
-        <v>23000100</v>
+        <v>24001557</v>
       </c>
       <c r="C109" t="s">
         <v>3</v>
@@ -1640,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="B110">
-        <v>23000105</v>
+        <v>24001577</v>
       </c>
       <c r="C110" t="s">
         <v>3</v>
@@ -1651,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="B111">
-        <v>23000110</v>
+        <v>24001587</v>
       </c>
       <c r="C111" t="s">
         <v>3</v>
@@ -1662,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="B112">
-        <v>23000115</v>
+        <v>24001592</v>
       </c>
       <c r="C112" t="s">
         <v>3</v>
@@ -1673,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="B113">
-        <v>23000120</v>
+        <v>24001597</v>
       </c>
       <c r="C113" t="s">
         <v>3</v>
@@ -1684,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="B114">
-        <v>23000125</v>
+        <v>24001602</v>
       </c>
       <c r="C114" t="s">
         <v>3</v>
@@ -1695,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="B115">
-        <v>23000130</v>
+        <v>24001612</v>
       </c>
       <c r="C115" t="s">
         <v>3</v>
@@ -1706,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="B116">
-        <v>23000135</v>
+        <v>24001637</v>
       </c>
       <c r="C116" t="s">
         <v>3</v>
@@ -1717,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="B117">
-        <v>23000140</v>
+        <v>24001697</v>
       </c>
       <c r="C117" t="s">
         <v>3</v>
@@ -1728,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="B118">
-        <v>23000145</v>
+        <v>24001707</v>
       </c>
       <c r="C118" t="s">
         <v>3</v>
@@ -1739,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="B119">
-        <v>23000150</v>
+        <v>24001717</v>
       </c>
       <c r="C119" t="s">
         <v>3</v>
@@ -1750,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="B120">
-        <v>23000155</v>
+        <v>24001737</v>
       </c>
       <c r="C120" t="s">
         <v>3</v>
@@ -1761,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="B121">
-        <v>23000160</v>
+        <v>24001757</v>
       </c>
       <c r="C121" t="s">
         <v>3</v>
@@ -1772,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="B122">
-        <v>23000165</v>
+        <v>24001762</v>
       </c>
       <c r="C122" t="s">
         <v>3</v>
@@ -1783,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="B123">
-        <v>23000170</v>
+        <v>24001772</v>
       </c>
       <c r="C123" t="s">
         <v>3</v>
@@ -1794,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="B124">
-        <v>23000175</v>
+        <v>24001782</v>
       </c>
       <c r="C124" t="s">
         <v>3</v>
@@ -1805,7 +1802,7 @@
         <v>1</v>
       </c>
       <c r="B125">
-        <v>23000180</v>
+        <v>24001792</v>
       </c>
       <c r="C125" t="s">
         <v>3</v>
@@ -1816,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="B126">
-        <v>23000185</v>
+        <v>24001822</v>
       </c>
       <c r="C126" t="s">
         <v>3</v>
@@ -1827,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="B127">
-        <v>23000190</v>
+        <v>24001827</v>
       </c>
       <c r="C127" t="s">
         <v>3</v>
@@ -1838,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="B128">
-        <v>23000195</v>
+        <v>24001837</v>
       </c>
       <c r="C128" t="s">
         <v>3</v>
@@ -1849,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="B129">
-        <v>23000200</v>
+        <v>24001862</v>
       </c>
       <c r="C129" t="s">
         <v>3</v>
@@ -1860,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="B130">
-        <v>23000205</v>
+        <v>24001892</v>
       </c>
       <c r="C130" t="s">
         <v>3</v>
@@ -1871,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="B131">
-        <v>23000210</v>
+        <v>24001897</v>
       </c>
       <c r="C131" t="s">
         <v>3</v>
@@ -1882,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="B132">
-        <v>23000215</v>
+        <v>24001912</v>
       </c>
       <c r="C132" t="s">
         <v>3</v>
@@ -1893,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="B133">
-        <v>23000220</v>
+        <v>24001917</v>
       </c>
       <c r="C133" t="s">
         <v>3</v>
@@ -1904,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="B134">
-        <v>23000225</v>
+        <v>24001927</v>
       </c>
       <c r="C134" t="s">
         <v>3</v>
@@ -1915,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="B135">
-        <v>23000230</v>
+        <v>24001952</v>
       </c>
       <c r="C135" t="s">
         <v>3</v>
@@ -1926,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="B136">
-        <v>23000235</v>
+        <v>24001957</v>
       </c>
       <c r="C136" t="s">
         <v>3</v>
@@ -1937,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="B137">
-        <v>23000240</v>
+        <v>24001967</v>
       </c>
       <c r="C137" t="s">
         <v>3</v>
@@ -1948,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="B138">
-        <v>23000245</v>
+        <v>24001977</v>
       </c>
       <c r="C138" t="s">
         <v>3</v>
@@ -1959,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="B139">
-        <v>23000250</v>
+        <v>24001997</v>
       </c>
       <c r="C139" t="s">
         <v>3</v>
@@ -1970,7 +1967,7 @@
         <v>1</v>
       </c>
       <c r="B140">
-        <v>23000255</v>
+        <v>24002012</v>
       </c>
       <c r="C140" t="s">
         <v>3</v>
@@ -1981,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="B141">
-        <v>23000260</v>
+        <v>24002042</v>
       </c>
       <c r="C141" t="s">
         <v>3</v>
@@ -1992,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="B142">
-        <v>23000265</v>
+        <v>24002052</v>
       </c>
       <c r="C142" t="s">
         <v>3</v>
@@ -2003,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="B143">
-        <v>23000270</v>
+        <v>24002082</v>
       </c>
       <c r="C143" t="s">
         <v>3</v>
@@ -2014,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="B144">
-        <v>23000275</v>
+        <v>24002117</v>
       </c>
       <c r="C144" t="s">
         <v>3</v>
@@ -2025,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B145">
-        <v>23000280</v>
+        <v>24002127</v>
       </c>
       <c r="C145" t="s">
         <v>3</v>
@@ -2036,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="B146">
-        <v>23000285</v>
+        <v>24002162</v>
       </c>
       <c r="C146" t="s">
         <v>3</v>
@@ -2047,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="B147">
-        <v>23000290</v>
+        <v>24002172</v>
       </c>
       <c r="C147" t="s">
         <v>3</v>
@@ -2058,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="B148">
-        <v>23000295</v>
+        <v>24002177</v>
       </c>
       <c r="C148" t="s">
         <v>3</v>
@@ -2069,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="B149">
-        <v>23000300</v>
+        <v>24002197</v>
       </c>
       <c r="C149" t="s">
         <v>3</v>
@@ -2080,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="B150">
-        <v>23000305</v>
+        <v>24002202</v>
       </c>
       <c r="C150" t="s">
         <v>3</v>
@@ -2091,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="B151">
-        <v>23000310</v>
+        <v>24002212</v>
       </c>
       <c r="C151" t="s">
         <v>3</v>
@@ -2102,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="B152">
-        <v>23000315</v>
+        <v>24002217</v>
       </c>
       <c r="C152" t="s">
         <v>3</v>
@@ -2113,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="B153">
-        <v>23000320</v>
+        <v>24002237</v>
       </c>
       <c r="C153" t="s">
         <v>3</v>
@@ -2124,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="B154">
-        <v>23000325</v>
+        <v>24002247</v>
       </c>
       <c r="C154" t="s">
         <v>3</v>
@@ -2135,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="B155">
-        <v>23000330</v>
+        <v>24002257</v>
       </c>
       <c r="C155" t="s">
         <v>3</v>
@@ -2146,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="B156">
-        <v>23000335</v>
+        <v>24002262</v>
       </c>
       <c r="C156" t="s">
         <v>3</v>
@@ -2157,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="B157">
-        <v>23000340</v>
+        <v>24002277</v>
       </c>
       <c r="C157" t="s">
         <v>3</v>
@@ -2168,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="B158">
-        <v>23000345</v>
+        <v>24002292</v>
       </c>
       <c r="C158" t="s">
         <v>3</v>
@@ -2179,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="B159">
-        <v>23000350</v>
+        <v>24002302</v>
       </c>
       <c r="C159" t="s">
         <v>3</v>
@@ -2190,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="B160">
-        <v>23000355</v>
+        <v>24002327</v>
       </c>
       <c r="C160" t="s">
         <v>3</v>
@@ -2201,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="B161">
-        <v>23000360</v>
+        <v>24002342</v>
       </c>
       <c r="C161" t="s">
         <v>3</v>
@@ -2212,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="B162">
-        <v>23000365</v>
+        <v>24002352</v>
       </c>
       <c r="C162" t="s">
         <v>3</v>
@@ -2223,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="B163">
-        <v>23000370</v>
+        <v>24002367</v>
       </c>
       <c r="C163" t="s">
         <v>3</v>
@@ -2234,7 +2231,7 @@
         <v>1</v>
       </c>
       <c r="B164">
-        <v>23000375</v>
+        <v>24002377</v>
       </c>
       <c r="C164" t="s">
         <v>3</v>
@@ -2245,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="B165">
-        <v>23000380</v>
+        <v>24002382</v>
       </c>
       <c r="C165" t="s">
         <v>3</v>
@@ -2256,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="B166">
-        <v>23000385</v>
+        <v>24002407</v>
       </c>
       <c r="C166" t="s">
         <v>3</v>
@@ -2267,7 +2264,7 @@
         <v>1</v>
       </c>
       <c r="B167">
-        <v>23000390</v>
+        <v>24002427</v>
       </c>
       <c r="C167" t="s">
         <v>3</v>
@@ -2278,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="B168">
-        <v>23000395</v>
+        <v>24002432</v>
       </c>
       <c r="C168" t="s">
         <v>3</v>
@@ -2289,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="B169">
-        <v>23000400</v>
+        <v>24002437</v>
       </c>
       <c r="C169" t="s">
         <v>3</v>
@@ -2300,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="B170">
-        <v>23000405</v>
+        <v>24002457</v>
       </c>
       <c r="C170" t="s">
         <v>3</v>
@@ -2311,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="B171">
-        <v>23000410</v>
+        <v>24002462</v>
       </c>
       <c r="C171" t="s">
         <v>3</v>
@@ -2322,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="B172">
-        <v>23000415</v>
+        <v>24002517</v>
       </c>
       <c r="C172" t="s">
         <v>3</v>
@@ -2333,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="B173">
-        <v>23000420</v>
+        <v>24002537</v>
       </c>
       <c r="C173" t="s">
         <v>3</v>
@@ -2344,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="B174">
-        <v>23000425</v>
+        <v>24002542</v>
       </c>
       <c r="C174" t="s">
         <v>3</v>
@@ -2355,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="B175">
-        <v>23000430</v>
+        <v>24002562</v>
       </c>
       <c r="C175" t="s">
         <v>3</v>
@@ -2366,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="B176">
-        <v>23000435</v>
+        <v>24002567</v>
       </c>
       <c r="C176" t="s">
         <v>3</v>
@@ -2377,7 +2374,7 @@
         <v>1</v>
       </c>
       <c r="B177">
-        <v>24000003</v>
+        <v>24002612</v>
       </c>
       <c r="C177" t="s">
         <v>3</v>
@@ -2388,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="B178">
-        <v>24000008</v>
+        <v>24002637</v>
       </c>
       <c r="C178" t="s">
         <v>3</v>
@@ -2399,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="B179">
-        <v>24000013</v>
+        <v>24002657</v>
       </c>
       <c r="C179" t="s">
         <v>3</v>
@@ -2410,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="B180">
-        <v>24000018</v>
+        <v>24002667</v>
       </c>
       <c r="C180" t="s">
         <v>3</v>
@@ -2421,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="B181">
-        <v>24000023</v>
+        <v>24002697</v>
       </c>
       <c r="C181" t="s">
         <v>3</v>
@@ -2432,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="B182">
-        <v>24000028</v>
+        <v>24002707</v>
       </c>
       <c r="C182" t="s">
         <v>3</v>
@@ -2443,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="B183">
-        <v>24000033</v>
+        <v>24002712</v>
       </c>
       <c r="C183" t="s">
         <v>3</v>
@@ -2454,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="B184">
-        <v>24000038</v>
+        <v>24002722</v>
       </c>
       <c r="C184" t="s">
         <v>3</v>
@@ -2465,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="B185">
-        <v>24000043</v>
+        <v>24002742</v>
       </c>
       <c r="C185" t="s">
         <v>3</v>
@@ -2476,7 +2473,7 @@
         <v>1</v>
       </c>
       <c r="B186">
-        <v>24000048</v>
+        <v>24002762</v>
       </c>
       <c r="C186" t="s">
         <v>3</v>
@@ -2487,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="B187">
-        <v>24000053</v>
+        <v>24002767</v>
       </c>
       <c r="C187" t="s">
         <v>3</v>
@@ -2498,7 +2495,7 @@
         <v>1</v>
       </c>
       <c r="B188">
-        <v>24000058</v>
+        <v>24002772</v>
       </c>
       <c r="C188" t="s">
         <v>3</v>
@@ -2509,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="B189">
-        <v>24000063</v>
+        <v>24002777</v>
       </c>
       <c r="C189" t="s">
         <v>3</v>
@@ -2520,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="B190">
-        <v>24000068</v>
+        <v>24002812</v>
       </c>
       <c r="C190" t="s">
         <v>3</v>
@@ -2531,7 +2528,7 @@
         <v>1</v>
       </c>
       <c r="B191">
-        <v>24000073</v>
+        <v>24002822</v>
       </c>
       <c r="C191" t="s">
         <v>3</v>
@@ -2542,7 +2539,7 @@
         <v>1</v>
       </c>
       <c r="B192">
-        <v>24000078</v>
+        <v>24002837</v>
       </c>
       <c r="C192" t="s">
         <v>3</v>
@@ -2553,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="B193">
-        <v>24000083</v>
+        <v>24002842</v>
       </c>
       <c r="C193" t="s">
         <v>3</v>
@@ -2564,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="B194">
-        <v>24000088</v>
+        <v>24002877</v>
       </c>
       <c r="C194" t="s">
         <v>3</v>
@@ -2575,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="B195">
-        <v>24000093</v>
+        <v>24002887</v>
       </c>
       <c r="C195" t="s">
         <v>3</v>
@@ -2586,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="B196">
-        <v>24000098</v>
+        <v>24002922</v>
       </c>
       <c r="C196" t="s">
         <v>3</v>
@@ -2597,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="B197">
-        <v>24000103</v>
+        <v>24002932</v>
       </c>
       <c r="C197" t="s">
         <v>3</v>
@@ -2608,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="B198">
-        <v>24000108</v>
+        <v>24002947</v>
       </c>
       <c r="C198" t="s">
         <v>3</v>
@@ -2619,7 +2616,7 @@
         <v>1</v>
       </c>
       <c r="B199">
-        <v>24000113</v>
+        <v>24002962</v>
       </c>
       <c r="C199" t="s">
         <v>3</v>
@@ -2630,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="B200">
-        <v>24000118</v>
+        <v>24002967</v>
       </c>
       <c r="C200" t="s">
         <v>3</v>
@@ -2641,7 +2638,7 @@
         <v>1</v>
       </c>
       <c r="B201">
-        <v>24000123</v>
+        <v>24002987</v>
       </c>
       <c r="C201" t="s">
         <v>3</v>
@@ -2652,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="B202">
-        <v>24000128</v>
+        <v>24002992</v>
       </c>
       <c r="C202" t="s">
         <v>3</v>
@@ -2663,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="B203">
-        <v>24000133</v>
+        <v>24003002</v>
       </c>
       <c r="C203" t="s">
         <v>3</v>
@@ -2674,7 +2671,7 @@
         <v>1</v>
       </c>
       <c r="B204">
-        <v>24000138</v>
+        <v>24003022</v>
       </c>
       <c r="C204" t="s">
         <v>3</v>
@@ -2685,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="B205">
-        <v>24000143</v>
+        <v>24003042</v>
       </c>
       <c r="C205" t="s">
         <v>3</v>
@@ -2696,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="B206">
-        <v>24000148</v>
+        <v>24003062</v>
       </c>
       <c r="C206" t="s">
         <v>3</v>
@@ -2707,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="B207">
-        <v>24000153</v>
+        <v>24003067</v>
       </c>
       <c r="C207" t="s">
         <v>3</v>
@@ -2718,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="B208">
-        <v>24000158</v>
+        <v>24003087</v>
       </c>
       <c r="C208" t="s">
         <v>3</v>
@@ -2729,7 +2726,7 @@
         <v>1</v>
       </c>
       <c r="B209">
-        <v>24000163</v>
+        <v>24003092</v>
       </c>
       <c r="C209" t="s">
         <v>3</v>
@@ -2740,7 +2737,7 @@
         <v>1</v>
       </c>
       <c r="B210">
-        <v>24000168</v>
+        <v>24003122</v>
       </c>
       <c r="C210" t="s">
         <v>3</v>
@@ -2751,7 +2748,7 @@
         <v>1</v>
       </c>
       <c r="B211">
-        <v>24000173</v>
+        <v>24003137</v>
       </c>
       <c r="C211" t="s">
         <v>3</v>
@@ -2762,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="B212">
-        <v>24000178</v>
+        <v>24003182</v>
       </c>
       <c r="C212" t="s">
         <v>3</v>
@@ -2773,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="B213">
-        <v>24000183</v>
+        <v>24003197</v>
       </c>
       <c r="C213" t="s">
         <v>3</v>
@@ -2784,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="B214">
-        <v>24000188</v>
+        <v>24003237</v>
       </c>
       <c r="C214" t="s">
         <v>3</v>
@@ -2795,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="B215">
-        <v>24000193</v>
+        <v>24003242</v>
       </c>
       <c r="C215" t="s">
         <v>3</v>
@@ -2806,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="B216">
-        <v>24000198</v>
+        <v>24003247</v>
       </c>
       <c r="C216" t="s">
         <v>3</v>
@@ -2817,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="B217">
-        <v>24000203</v>
+        <v>24003262</v>
       </c>
       <c r="C217" t="s">
         <v>3</v>
@@ -2828,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="B218">
-        <v>24000208</v>
+        <v>24003277</v>
       </c>
       <c r="C218" t="s">
         <v>3</v>
@@ -2839,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="B219">
-        <v>24000213</v>
+        <v>24003297</v>
       </c>
       <c r="C219" t="s">
         <v>3</v>
@@ -2850,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="B220">
-        <v>24000218</v>
+        <v>24003307</v>
       </c>
       <c r="C220" t="s">
         <v>3</v>
@@ -2861,7 +2858,7 @@
         <v>1</v>
       </c>
       <c r="B221">
-        <v>24000223</v>
+        <v>24003327</v>
       </c>
       <c r="C221" t="s">
         <v>3</v>
@@ -2872,7 +2869,7 @@
         <v>1</v>
       </c>
       <c r="B222">
-        <v>24000228</v>
+        <v>24003337</v>
       </c>
       <c r="C222" t="s">
         <v>3</v>
@@ -2883,7 +2880,7 @@
         <v>1</v>
       </c>
       <c r="B223">
-        <v>24000233</v>
+        <v>24003342</v>
       </c>
       <c r="C223" t="s">
         <v>3</v>
@@ -2894,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="B224">
-        <v>24000238</v>
+        <v>24003352</v>
       </c>
       <c r="C224" t="s">
         <v>3</v>
@@ -2905,7 +2902,7 @@
         <v>1</v>
       </c>
       <c r="B225">
-        <v>24000243</v>
+        <v>24003362</v>
       </c>
       <c r="C225" t="s">
         <v>3</v>
@@ -2916,7 +2913,7 @@
         <v>1</v>
       </c>
       <c r="B226">
-        <v>24000248</v>
+        <v>24003367</v>
       </c>
       <c r="C226" t="s">
         <v>3</v>
@@ -2927,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="B227">
-        <v>24000253</v>
+        <v>24003382</v>
       </c>
       <c r="C227" t="s">
         <v>3</v>
@@ -2938,7 +2935,7 @@
         <v>1</v>
       </c>
       <c r="B228">
-        <v>24000258</v>
+        <v>24003387</v>
       </c>
       <c r="C228" t="s">
         <v>3</v>
@@ -2949,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="B229">
-        <v>24000263</v>
+        <v>24003417</v>
       </c>
       <c r="C229" t="s">
         <v>3</v>
@@ -2960,7 +2957,7 @@
         <v>1</v>
       </c>
       <c r="B230">
-        <v>24000268</v>
+        <v>24003427</v>
       </c>
       <c r="C230" t="s">
         <v>3</v>
@@ -2971,7 +2968,7 @@
         <v>1</v>
       </c>
       <c r="B231">
-        <v>24000273</v>
+        <v>24003447</v>
       </c>
       <c r="C231" t="s">
         <v>3</v>
@@ -2982,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="B232">
-        <v>24000278</v>
+        <v>24003472</v>
       </c>
       <c r="C232" t="s">
         <v>3</v>
@@ -2993,7 +2990,7 @@
         <v>1</v>
       </c>
       <c r="B233">
-        <v>24000283</v>
+        <v>24003487</v>
       </c>
       <c r="C233" t="s">
         <v>3</v>
@@ -3004,7 +3001,7 @@
         <v>1</v>
       </c>
       <c r="B234">
-        <v>24000288</v>
+        <v>24003502</v>
       </c>
       <c r="C234" t="s">
         <v>3</v>
@@ -3015,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="B235">
-        <v>24000293</v>
+        <v>24003507</v>
       </c>
       <c r="C235" t="s">
         <v>3</v>
@@ -3026,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="B236">
-        <v>24000298</v>
+        <v>24003512</v>
       </c>
       <c r="C236" t="s">
         <v>3</v>
@@ -3037,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="B237">
-        <v>24000303</v>
+        <v>24003527</v>
       </c>
       <c r="C237" t="s">
         <v>3</v>
@@ -3048,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="B238">
-        <v>24000308</v>
+        <v>24003537</v>
       </c>
       <c r="C238" t="s">
         <v>3</v>
@@ -3059,7 +3056,7 @@
         <v>1</v>
       </c>
       <c r="B239">
-        <v>24000313</v>
+        <v>24003542</v>
       </c>
       <c r="C239" t="s">
         <v>3</v>
@@ -3070,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="B240">
-        <v>24000318</v>
+        <v>24003552</v>
       </c>
       <c r="C240" t="s">
         <v>3</v>
@@ -3081,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="B241">
-        <v>24000323</v>
+        <v>24003572</v>
       </c>
       <c r="C241" t="s">
         <v>3</v>
@@ -3092,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="B242">
-        <v>24000328</v>
+        <v>24003612</v>
       </c>
       <c r="C242" t="s">
         <v>3</v>
@@ -3103,7 +3100,7 @@
         <v>1</v>
       </c>
       <c r="B243">
-        <v>24000333</v>
+        <v>24003622</v>
       </c>
       <c r="C243" t="s">
         <v>3</v>
@@ -3114,7 +3111,7 @@
         <v>1</v>
       </c>
       <c r="B244">
-        <v>24000338</v>
+        <v>24003662</v>
       </c>
       <c r="C244" t="s">
         <v>3</v>
@@ -3125,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="B245">
-        <v>24000343</v>
+        <v>24003677</v>
       </c>
       <c r="C245" t="s">
         <v>3</v>
@@ -3136,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="B246">
-        <v>24000348</v>
+        <v>24003692</v>
       </c>
       <c r="C246" t="s">
         <v>3</v>
@@ -3147,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="B247">
-        <v>24000353</v>
+        <v>24003717</v>
       </c>
       <c r="C247" t="s">
         <v>3</v>
@@ -3158,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="B248">
-        <v>24000358</v>
+        <v>24003737</v>
       </c>
       <c r="C248" t="s">
         <v>3</v>
@@ -3169,7 +3166,7 @@
         <v>1</v>
       </c>
       <c r="B249">
-        <v>24000363</v>
+        <v>24003742</v>
       </c>
       <c r="C249" t="s">
         <v>3</v>
@@ -3180,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="B250">
-        <v>24000368</v>
+        <v>24003747</v>
       </c>
       <c r="C250" t="s">
         <v>3</v>
@@ -3191,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="B251">
-        <v>24000373</v>
+        <v>24003752</v>
       </c>
       <c r="C251" t="s">
         <v>3</v>
@@ -3202,10 +3199,10 @@
         <v>1</v>
       </c>
       <c r="B252">
-        <v>23000306</v>
+        <v>24003767</v>
       </c>
       <c r="C252" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
@@ -3213,10 +3210,10 @@
         <v>1</v>
       </c>
       <c r="B253">
-        <v>23000311</v>
+        <v>24003772</v>
       </c>
       <c r="C253" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -3224,10 +3221,10 @@
         <v>1</v>
       </c>
       <c r="B254">
-        <v>23000316</v>
+        <v>24003782</v>
       </c>
       <c r="C254" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -3235,10 +3232,10 @@
         <v>1</v>
       </c>
       <c r="B255">
-        <v>23000321</v>
+        <v>24003807</v>
       </c>
       <c r="C255" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -3246,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="B256">
-        <v>23000326</v>
+        <v>24003812</v>
       </c>
       <c r="C256" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -3257,10 +3254,10 @@
         <v>1</v>
       </c>
       <c r="B257">
-        <v>23000331</v>
+        <v>24003817</v>
       </c>
       <c r="C257" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -3268,10 +3265,10 @@
         <v>1</v>
       </c>
       <c r="B258">
-        <v>23000336</v>
+        <v>24003827</v>
       </c>
       <c r="C258" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -3279,10 +3276,10 @@
         <v>1</v>
       </c>
       <c r="B259">
-        <v>23000341</v>
+        <v>24003837</v>
       </c>
       <c r="C259" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -3290,10 +3287,10 @@
         <v>1</v>
       </c>
       <c r="B260">
-        <v>23000346</v>
+        <v>24003852</v>
       </c>
       <c r="C260" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
@@ -3301,10 +3298,10 @@
         <v>1</v>
       </c>
       <c r="B261">
-        <v>23000351</v>
+        <v>24003892</v>
       </c>
       <c r="C261" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -3312,10 +3309,10 @@
         <v>1</v>
       </c>
       <c r="B262">
-        <v>23000356</v>
+        <v>24003922</v>
       </c>
       <c r="C262" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -3323,10 +3320,10 @@
         <v>1</v>
       </c>
       <c r="B263">
-        <v>23000361</v>
+        <v>24003927</v>
       </c>
       <c r="C263" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
@@ -3334,10 +3331,10 @@
         <v>1</v>
       </c>
       <c r="B264">
-        <v>23000366</v>
+        <v>24003937</v>
       </c>
       <c r="C264" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -3345,10 +3342,10 @@
         <v>1</v>
       </c>
       <c r="B265">
-        <v>23000371</v>
+        <v>24003942</v>
       </c>
       <c r="C265" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -3356,10 +3353,10 @@
         <v>1</v>
       </c>
       <c r="B266">
-        <v>23000376</v>
+        <v>24003952</v>
       </c>
       <c r="C266" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
@@ -3367,10 +3364,10 @@
         <v>1</v>
       </c>
       <c r="B267">
-        <v>23000381</v>
+        <v>24003997</v>
       </c>
       <c r="C267" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -3378,10 +3375,10 @@
         <v>1</v>
       </c>
       <c r="B268">
-        <v>23000386</v>
+        <v>24004012</v>
       </c>
       <c r="C268" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -3389,10 +3386,10 @@
         <v>1</v>
       </c>
       <c r="B269">
-        <v>23000391</v>
+        <v>24004037</v>
       </c>
       <c r="C269" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -3400,10 +3397,10 @@
         <v>1</v>
       </c>
       <c r="B270">
-        <v>23000396</v>
+        <v>24004062</v>
       </c>
       <c r="C270" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -3411,10 +3408,10 @@
         <v>1</v>
       </c>
       <c r="B271">
-        <v>23000401</v>
+        <v>24004067</v>
       </c>
       <c r="C271" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -3422,10 +3419,10 @@
         <v>1</v>
       </c>
       <c r="B272">
-        <v>23000406</v>
+        <v>24004077</v>
       </c>
       <c r="C272" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
@@ -3433,10 +3430,10 @@
         <v>1</v>
       </c>
       <c r="B273">
-        <v>23000411</v>
+        <v>24004087</v>
       </c>
       <c r="C273" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
@@ -3444,10 +3441,10 @@
         <v>1</v>
       </c>
       <c r="B274">
-        <v>23000416</v>
+        <v>24004092</v>
       </c>
       <c r="C274" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
@@ -3455,10 +3452,10 @@
         <v>1</v>
       </c>
       <c r="B275">
-        <v>23000421</v>
+        <v>24004102</v>
       </c>
       <c r="C275" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
@@ -3466,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="B276">
-        <v>23000426</v>
+        <v>24004122</v>
       </c>
       <c r="C276" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
@@ -3477,10 +3474,10 @@
         <v>1</v>
       </c>
       <c r="B277">
-        <v>23000431</v>
+        <v>24004147</v>
       </c>
       <c r="C277" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
@@ -3488,10 +3485,10 @@
         <v>1</v>
       </c>
       <c r="B278">
-        <v>23000436</v>
+        <v>24004172</v>
       </c>
       <c r="C278" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
@@ -3499,10 +3496,10 @@
         <v>1</v>
       </c>
       <c r="B279">
-        <v>23000136</v>
+        <v>24004187</v>
       </c>
       <c r="C279" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
@@ -3510,10 +3507,10 @@
         <v>1</v>
       </c>
       <c r="B280">
-        <v>23000141</v>
+        <v>24004192</v>
       </c>
       <c r="C280" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
@@ -3521,10 +3518,10 @@
         <v>1</v>
       </c>
       <c r="B281">
-        <v>23000146</v>
+        <v>24004207</v>
       </c>
       <c r="C281" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -3532,10 +3529,10 @@
         <v>1</v>
       </c>
       <c r="B282">
-        <v>23000151</v>
+        <v>24004212</v>
       </c>
       <c r="C282" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
@@ -3543,10 +3540,10 @@
         <v>1</v>
       </c>
       <c r="B283">
-        <v>23000156</v>
+        <v>24004217</v>
       </c>
       <c r="C283" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
@@ -3554,10 +3551,10 @@
         <v>1</v>
       </c>
       <c r="B284">
-        <v>23000161</v>
+        <v>24004227</v>
       </c>
       <c r="C284" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
@@ -3565,10 +3562,10 @@
         <v>1</v>
       </c>
       <c r="B285">
-        <v>23000166</v>
+        <v>24004242</v>
       </c>
       <c r="C285" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
@@ -3576,10 +3573,10 @@
         <v>1</v>
       </c>
       <c r="B286">
-        <v>23000171</v>
+        <v>24004257</v>
       </c>
       <c r="C286" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
@@ -3587,10 +3584,10 @@
         <v>1</v>
       </c>
       <c r="B287">
-        <v>23000176</v>
+        <v>24004272</v>
       </c>
       <c r="C287" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
@@ -3598,10 +3595,10 @@
         <v>1</v>
       </c>
       <c r="B288">
-        <v>23000181</v>
+        <v>24004287</v>
       </c>
       <c r="C288" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -3609,10 +3606,10 @@
         <v>1</v>
       </c>
       <c r="B289">
-        <v>23000186</v>
+        <v>24004307</v>
       </c>
       <c r="C289" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -3620,10 +3617,10 @@
         <v>1</v>
       </c>
       <c r="B290">
-        <v>23000191</v>
+        <v>24004317</v>
       </c>
       <c r="C290" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
@@ -3631,10 +3628,10 @@
         <v>1</v>
       </c>
       <c r="B291">
-        <v>23000196</v>
+        <v>24004322</v>
       </c>
       <c r="C291" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
@@ -3642,10 +3639,10 @@
         <v>1</v>
       </c>
       <c r="B292">
-        <v>23000201</v>
+        <v>24004332</v>
       </c>
       <c r="C292" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
@@ -3653,10 +3650,10 @@
         <v>1</v>
       </c>
       <c r="B293">
-        <v>23000206</v>
+        <v>24004377</v>
       </c>
       <c r="C293" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
@@ -3664,10 +3661,10 @@
         <v>1</v>
       </c>
       <c r="B294">
-        <v>23000211</v>
+        <v>24004382</v>
       </c>
       <c r="C294" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
@@ -3675,10 +3672,10 @@
         <v>1</v>
       </c>
       <c r="B295">
-        <v>23000216</v>
+        <v>24004392</v>
       </c>
       <c r="C295" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
@@ -3686,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="B296">
-        <v>23000221</v>
+        <v>24004417</v>
       </c>
       <c r="C296" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
@@ -3697,10 +3694,10 @@
         <v>1</v>
       </c>
       <c r="B297">
-        <v>23000226</v>
+        <v>24004447</v>
       </c>
       <c r="C297" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
@@ -3708,10 +3705,10 @@
         <v>1</v>
       </c>
       <c r="B298">
-        <v>23000231</v>
+        <v>24004462</v>
       </c>
       <c r="C298" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
@@ -3719,10 +3716,10 @@
         <v>1</v>
       </c>
       <c r="B299">
-        <v>23000236</v>
+        <v>24004467</v>
       </c>
       <c r="C299" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
@@ -3730,10 +3727,10 @@
         <v>1</v>
       </c>
       <c r="B300">
-        <v>23000241</v>
+        <v>24004482</v>
       </c>
       <c r="C300" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
@@ -3741,10 +3738,10 @@
         <v>1</v>
       </c>
       <c r="B301">
-        <v>23000246</v>
+        <v>24004507</v>
       </c>
       <c r="C301" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/file/StudentSem.xlsx
+++ b/src/main/resources/file/StudentSem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wong zhao xuan\Documents\Programming Languages\Java\Course Timetable\timetable\src\main\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4551EBDE-6EB8-49F5-911F-4EBE30806266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6275DDC2-1B61-472B-BEB4-06D00649F61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{775B32B7-97F4-4E22-B0E8-E8501CDB7B73}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{775B32B7-97F4-4E22-B0E8-E8501CDB7B73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="4">
   <si>
     <t>Semester</t>
   </si>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021D61C9-216E-4AA0-9570-AB2E074861E1}">
-  <dimension ref="A1:C301"/>
+  <dimension ref="A1:C451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F298" sqref="F298"/>
+    <sheetView tabSelected="1" topLeftCell="A410" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E449" sqref="E449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B152">
         <v>24002217</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B153">
         <v>24002237</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B154">
         <v>24002247</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B155">
         <v>24002257</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B156">
         <v>24002262</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B157">
         <v>24002277</v>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B158">
         <v>24002292</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B159">
         <v>24002302</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B160">
         <v>24002327</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B161">
         <v>24002342</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B162">
         <v>24002352</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B163">
         <v>24002367</v>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B164">
         <v>24002377</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B165">
         <v>24002382</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B166">
         <v>24002407</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B167">
         <v>24002427</v>
@@ -2272,7 +2272,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B168">
         <v>24002432</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B169">
         <v>24002437</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B170">
         <v>24002457</v>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B171">
         <v>24002462</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B172">
         <v>24002517</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B173">
         <v>24002537</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B174">
         <v>24002542</v>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B175">
         <v>24002562</v>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B176">
         <v>24002567</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B177">
         <v>24002612</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B178">
         <v>24002637</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B179">
         <v>24002657</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B180">
         <v>24002667</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B181">
         <v>24002697</v>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B182">
         <v>24002707</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B183">
         <v>24002712</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B184">
         <v>24002722</v>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B185">
         <v>24002742</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B186">
         <v>24002762</v>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B187">
         <v>24002767</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B188">
         <v>24002772</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B189">
         <v>24002777</v>
@@ -2514,7 +2514,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B190">
         <v>24002812</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B191">
         <v>24002822</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B192">
         <v>24002837</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B193">
         <v>24002842</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B194">
         <v>24002877</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B195">
         <v>24002887</v>
@@ -2580,7 +2580,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B196">
         <v>24002922</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B197">
         <v>24002932</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B198">
         <v>24002947</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B199">
         <v>24002962</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B200">
         <v>24002967</v>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B201">
         <v>24002987</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B202">
         <v>24002992</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B203">
         <v>24003002</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B204">
         <v>24003022</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B205">
         <v>24003042</v>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B206">
         <v>24003062</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B207">
         <v>24003067</v>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B208">
         <v>24003087</v>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B209">
         <v>24003092</v>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B210">
         <v>24003122</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B211">
         <v>24003137</v>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B212">
         <v>24003182</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B213">
         <v>24003197</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B214">
         <v>24003237</v>
@@ -2789,7 +2789,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B215">
         <v>24003242</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B216">
         <v>24003247</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B217">
         <v>24003262</v>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B218">
         <v>24003277</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B219">
         <v>24003297</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B220">
         <v>24003307</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B221">
         <v>24003327</v>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B222">
         <v>24003337</v>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B223">
         <v>24003342</v>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B224">
         <v>24003352</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B225">
         <v>24003362</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B226">
         <v>24003367</v>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B227">
         <v>24003382</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B228">
         <v>24003387</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B229">
         <v>24003417</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B230">
         <v>24003427</v>
@@ -2965,7 +2965,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B231">
         <v>24003447</v>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B232">
         <v>24003472</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B233">
         <v>24003487</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B234">
         <v>24003502</v>
@@ -3009,7 +3009,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B235">
         <v>24003507</v>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B236">
         <v>24003512</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B237">
         <v>24003527</v>
@@ -3042,7 +3042,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B238">
         <v>24003537</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B239">
         <v>24003542</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B240">
         <v>24003552</v>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B241">
         <v>24003572</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B242">
         <v>24003612</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B243">
         <v>24003622</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B244">
         <v>24003662</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B245">
         <v>24003677</v>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B246">
         <v>24003692</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B247">
         <v>24003717</v>
@@ -3152,7 +3152,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B248">
         <v>24003737</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B249">
         <v>24003742</v>
@@ -3174,7 +3174,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B250">
         <v>24003747</v>
@@ -3185,7 +3185,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B251">
         <v>24003752</v>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B252">
         <v>24003767</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B253">
         <v>24003772</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B254">
         <v>24003782</v>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B255">
         <v>24003807</v>
@@ -3240,7 +3240,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B256">
         <v>24003812</v>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B257">
         <v>24003817</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B258">
         <v>24003827</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B259">
         <v>24003837</v>
@@ -3284,7 +3284,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B260">
         <v>24003852</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B261">
         <v>24003892</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B262">
         <v>24003922</v>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B263">
         <v>24003927</v>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B264">
         <v>24003937</v>
@@ -3339,7 +3339,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B265">
         <v>24003942</v>
@@ -3350,7 +3350,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B266">
         <v>24003952</v>
@@ -3361,7 +3361,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B267">
         <v>24003997</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B268">
         <v>24004012</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B269">
         <v>24004037</v>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B270">
         <v>24004062</v>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B271">
         <v>24004067</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B272">
         <v>24004077</v>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B273">
         <v>24004087</v>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B274">
         <v>24004092</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B275">
         <v>24004102</v>
@@ -3460,7 +3460,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B276">
         <v>24004122</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B277">
         <v>24004147</v>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B278">
         <v>24004172</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B279">
         <v>24004187</v>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B280">
         <v>24004192</v>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B281">
         <v>24004207</v>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B282">
         <v>24004212</v>
@@ -3537,7 +3537,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B283">
         <v>24004217</v>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B284">
         <v>24004227</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B285">
         <v>24004242</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B286">
         <v>24004257</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B287">
         <v>24004272</v>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B288">
         <v>24004287</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B289">
         <v>24004307</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B290">
         <v>24004317</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B291">
         <v>24004322</v>
@@ -3636,7 +3636,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B292">
         <v>24004332</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B293">
         <v>24004377</v>
@@ -3658,7 +3658,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B294">
         <v>24004382</v>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B295">
         <v>24004392</v>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B296">
         <v>24004417</v>
@@ -3691,7 +3691,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B297">
         <v>24004447</v>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B298">
         <v>24004462</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B299">
         <v>24004467</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B300">
         <v>24004482</v>
@@ -3735,12 +3735,1662 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B301">
         <v>24004507</v>
       </c>
       <c r="C301" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>3</v>
+      </c>
+      <c r="B302">
+        <v>24000022</v>
+      </c>
+      <c r="C302" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>3</v>
+      </c>
+      <c r="B303">
+        <v>24000037</v>
+      </c>
+      <c r="C303" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>3</v>
+      </c>
+      <c r="B304">
+        <v>24000047</v>
+      </c>
+      <c r="C304" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>3</v>
+      </c>
+      <c r="B305">
+        <v>24000077</v>
+      </c>
+      <c r="C305" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>3</v>
+      </c>
+      <c r="B306">
+        <v>24000082</v>
+      </c>
+      <c r="C306" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>3</v>
+      </c>
+      <c r="B307">
+        <v>24000087</v>
+      </c>
+      <c r="C307" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>3</v>
+      </c>
+      <c r="B308">
+        <v>24000092</v>
+      </c>
+      <c r="C308" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>3</v>
+      </c>
+      <c r="B309">
+        <v>24000102</v>
+      </c>
+      <c r="C309" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>3</v>
+      </c>
+      <c r="B310">
+        <v>24000107</v>
+      </c>
+      <c r="C310" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>3</v>
+      </c>
+      <c r="B311">
+        <v>24000117</v>
+      </c>
+      <c r="C311" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>3</v>
+      </c>
+      <c r="B312">
+        <v>24000127</v>
+      </c>
+      <c r="C312" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>3</v>
+      </c>
+      <c r="B313">
+        <v>24000132</v>
+      </c>
+      <c r="C313" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>3</v>
+      </c>
+      <c r="B314">
+        <v>24000162</v>
+      </c>
+      <c r="C314" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>3</v>
+      </c>
+      <c r="B315">
+        <v>24000172</v>
+      </c>
+      <c r="C315" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>3</v>
+      </c>
+      <c r="B316">
+        <v>24000177</v>
+      </c>
+      <c r="C316" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>3</v>
+      </c>
+      <c r="B317">
+        <v>24000192</v>
+      </c>
+      <c r="C317" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>3</v>
+      </c>
+      <c r="B318">
+        <v>24000237</v>
+      </c>
+      <c r="C318" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>3</v>
+      </c>
+      <c r="B319">
+        <v>24000242</v>
+      </c>
+      <c r="C319" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>3</v>
+      </c>
+      <c r="B320">
+        <v>24000247</v>
+      </c>
+      <c r="C320" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>3</v>
+      </c>
+      <c r="B321">
+        <v>24000267</v>
+      </c>
+      <c r="C321" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>3</v>
+      </c>
+      <c r="B322">
+        <v>24000287</v>
+      </c>
+      <c r="C322" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>3</v>
+      </c>
+      <c r="B323">
+        <v>24000297</v>
+      </c>
+      <c r="C323" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>3</v>
+      </c>
+      <c r="B324">
+        <v>24000307</v>
+      </c>
+      <c r="C324" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>3</v>
+      </c>
+      <c r="B325">
+        <v>24000317</v>
+      </c>
+      <c r="C325" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>3</v>
+      </c>
+      <c r="B326">
+        <v>24000347</v>
+      </c>
+      <c r="C326" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>3</v>
+      </c>
+      <c r="B327">
+        <v>24000357</v>
+      </c>
+      <c r="C327" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>3</v>
+      </c>
+      <c r="B328">
+        <v>24000367</v>
+      </c>
+      <c r="C328" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>3</v>
+      </c>
+      <c r="B329">
+        <v>24000387</v>
+      </c>
+      <c r="C329" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>3</v>
+      </c>
+      <c r="B330">
+        <v>24000402</v>
+      </c>
+      <c r="C330" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>3</v>
+      </c>
+      <c r="B331">
+        <v>24000407</v>
+      </c>
+      <c r="C331" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>3</v>
+      </c>
+      <c r="B332">
+        <v>24000432</v>
+      </c>
+      <c r="C332" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>3</v>
+      </c>
+      <c r="B333">
+        <v>24000437</v>
+      </c>
+      <c r="C333" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>3</v>
+      </c>
+      <c r="B334">
+        <v>24000457</v>
+      </c>
+      <c r="C334" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>3</v>
+      </c>
+      <c r="B335">
+        <v>24000467</v>
+      </c>
+      <c r="C335" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>3</v>
+      </c>
+      <c r="B336">
+        <v>24000507</v>
+      </c>
+      <c r="C336" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>3</v>
+      </c>
+      <c r="B337">
+        <v>24000512</v>
+      </c>
+      <c r="C337" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>3</v>
+      </c>
+      <c r="B338">
+        <v>24000517</v>
+      </c>
+      <c r="C338" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>3</v>
+      </c>
+      <c r="B339">
+        <v>24000527</v>
+      </c>
+      <c r="C339" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>3</v>
+      </c>
+      <c r="B340">
+        <v>24000532</v>
+      </c>
+      <c r="C340" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>3</v>
+      </c>
+      <c r="B341">
+        <v>24000542</v>
+      </c>
+      <c r="C341" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>3</v>
+      </c>
+      <c r="B342">
+        <v>24000552</v>
+      </c>
+      <c r="C342" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>3</v>
+      </c>
+      <c r="B343">
+        <v>24000577</v>
+      </c>
+      <c r="C343" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>3</v>
+      </c>
+      <c r="B344">
+        <v>24000587</v>
+      </c>
+      <c r="C344" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>3</v>
+      </c>
+      <c r="B345">
+        <v>24000592</v>
+      </c>
+      <c r="C345" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>3</v>
+      </c>
+      <c r="B346">
+        <v>24000612</v>
+      </c>
+      <c r="C346" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>3</v>
+      </c>
+      <c r="B347">
+        <v>24000702</v>
+      </c>
+      <c r="C347" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>3</v>
+      </c>
+      <c r="B348">
+        <v>24000727</v>
+      </c>
+      <c r="C348" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>3</v>
+      </c>
+      <c r="B349">
+        <v>24000742</v>
+      </c>
+      <c r="C349" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>3</v>
+      </c>
+      <c r="B350">
+        <v>24000752</v>
+      </c>
+      <c r="C350" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>3</v>
+      </c>
+      <c r="B351">
+        <v>24000762</v>
+      </c>
+      <c r="C351" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>3</v>
+      </c>
+      <c r="B352">
+        <v>24000777</v>
+      </c>
+      <c r="C352" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>3</v>
+      </c>
+      <c r="B353">
+        <v>24000782</v>
+      </c>
+      <c r="C353" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>3</v>
+      </c>
+      <c r="B354">
+        <v>24000787</v>
+      </c>
+      <c r="C354" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>3</v>
+      </c>
+      <c r="B355">
+        <v>24000802</v>
+      </c>
+      <c r="C355" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>3</v>
+      </c>
+      <c r="B356">
+        <v>24000807</v>
+      </c>
+      <c r="C356" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>3</v>
+      </c>
+      <c r="B357">
+        <v>24000822</v>
+      </c>
+      <c r="C357" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>3</v>
+      </c>
+      <c r="B358">
+        <v>24000827</v>
+      </c>
+      <c r="C358" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>3</v>
+      </c>
+      <c r="B359">
+        <v>24000832</v>
+      </c>
+      <c r="C359" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>3</v>
+      </c>
+      <c r="B360">
+        <v>24000852</v>
+      </c>
+      <c r="C360" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>3</v>
+      </c>
+      <c r="B361">
+        <v>24000857</v>
+      </c>
+      <c r="C361" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>3</v>
+      </c>
+      <c r="B362">
+        <v>24000877</v>
+      </c>
+      <c r="C362" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>3</v>
+      </c>
+      <c r="B363">
+        <v>24000882</v>
+      </c>
+      <c r="C363" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>3</v>
+      </c>
+      <c r="B364">
+        <v>24000902</v>
+      </c>
+      <c r="C364" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>3</v>
+      </c>
+      <c r="B365">
+        <v>24000922</v>
+      </c>
+      <c r="C365" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>3</v>
+      </c>
+      <c r="B366">
+        <v>24000927</v>
+      </c>
+      <c r="C366" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>3</v>
+      </c>
+      <c r="B367">
+        <v>24000932</v>
+      </c>
+      <c r="C367" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>3</v>
+      </c>
+      <c r="B368">
+        <v>24000952</v>
+      </c>
+      <c r="C368" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>3</v>
+      </c>
+      <c r="B369">
+        <v>24000962</v>
+      </c>
+      <c r="C369" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>3</v>
+      </c>
+      <c r="B370">
+        <v>24000977</v>
+      </c>
+      <c r="C370" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>3</v>
+      </c>
+      <c r="B371">
+        <v>24000987</v>
+      </c>
+      <c r="C371" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>3</v>
+      </c>
+      <c r="B372">
+        <v>24000992</v>
+      </c>
+      <c r="C372" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>3</v>
+      </c>
+      <c r="B373">
+        <v>24001017</v>
+      </c>
+      <c r="C373" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>3</v>
+      </c>
+      <c r="B374">
+        <v>24001027</v>
+      </c>
+      <c r="C374" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>3</v>
+      </c>
+      <c r="B375">
+        <v>24001047</v>
+      </c>
+      <c r="C375" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>3</v>
+      </c>
+      <c r="B376">
+        <v>24001067</v>
+      </c>
+      <c r="C376" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>3</v>
+      </c>
+      <c r="B377">
+        <v>24001082</v>
+      </c>
+      <c r="C377" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>3</v>
+      </c>
+      <c r="B378">
+        <v>24001087</v>
+      </c>
+      <c r="C378" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>3</v>
+      </c>
+      <c r="B379">
+        <v>24001107</v>
+      </c>
+      <c r="C379" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>3</v>
+      </c>
+      <c r="B380">
+        <v>24001117</v>
+      </c>
+      <c r="C380" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>3</v>
+      </c>
+      <c r="B381">
+        <v>24001127</v>
+      </c>
+      <c r="C381" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>3</v>
+      </c>
+      <c r="B382">
+        <v>24001132</v>
+      </c>
+      <c r="C382" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>3</v>
+      </c>
+      <c r="B383">
+        <v>24001152</v>
+      </c>
+      <c r="C383" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>3</v>
+      </c>
+      <c r="B384">
+        <v>24001187</v>
+      </c>
+      <c r="C384" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>3</v>
+      </c>
+      <c r="B385">
+        <v>24001197</v>
+      </c>
+      <c r="C385" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>3</v>
+      </c>
+      <c r="B386">
+        <v>24001227</v>
+      </c>
+      <c r="C386" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>3</v>
+      </c>
+      <c r="B387">
+        <v>24001262</v>
+      </c>
+      <c r="C387" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>3</v>
+      </c>
+      <c r="B388">
+        <v>24001267</v>
+      </c>
+      <c r="C388" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>3</v>
+      </c>
+      <c r="B389">
+        <v>24001292</v>
+      </c>
+      <c r="C389" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>3</v>
+      </c>
+      <c r="B390">
+        <v>24001297</v>
+      </c>
+      <c r="C390" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>3</v>
+      </c>
+      <c r="B391">
+        <v>24001347</v>
+      </c>
+      <c r="C391" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>3</v>
+      </c>
+      <c r="B392">
+        <v>24001352</v>
+      </c>
+      <c r="C392" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>3</v>
+      </c>
+      <c r="B393">
+        <v>24001367</v>
+      </c>
+      <c r="C393" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>3</v>
+      </c>
+      <c r="B394">
+        <v>24001372</v>
+      </c>
+      <c r="C394" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>3</v>
+      </c>
+      <c r="B395">
+        <v>24001407</v>
+      </c>
+      <c r="C395" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>3</v>
+      </c>
+      <c r="B396">
+        <v>24001442</v>
+      </c>
+      <c r="C396" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>3</v>
+      </c>
+      <c r="B397">
+        <v>24001492</v>
+      </c>
+      <c r="C397" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>3</v>
+      </c>
+      <c r="B398">
+        <v>24001552</v>
+      </c>
+      <c r="C398" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>3</v>
+      </c>
+      <c r="B399">
+        <v>24001567</v>
+      </c>
+      <c r="C399" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>3</v>
+      </c>
+      <c r="B400">
+        <v>24001582</v>
+      </c>
+      <c r="C400" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>3</v>
+      </c>
+      <c r="B401">
+        <v>24001607</v>
+      </c>
+      <c r="C401" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>3</v>
+      </c>
+      <c r="B402">
+        <v>24001632</v>
+      </c>
+      <c r="C402" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>3</v>
+      </c>
+      <c r="B403">
+        <v>24001642</v>
+      </c>
+      <c r="C403" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>3</v>
+      </c>
+      <c r="B404">
+        <v>24001647</v>
+      </c>
+      <c r="C404" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>3</v>
+      </c>
+      <c r="B405">
+        <v>24001657</v>
+      </c>
+      <c r="C405" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>3</v>
+      </c>
+      <c r="B406">
+        <v>24001672</v>
+      </c>
+      <c r="C406" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>3</v>
+      </c>
+      <c r="B407">
+        <v>24001687</v>
+      </c>
+      <c r="C407" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>3</v>
+      </c>
+      <c r="B408">
+        <v>24001692</v>
+      </c>
+      <c r="C408" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>3</v>
+      </c>
+      <c r="B409">
+        <v>24001732</v>
+      </c>
+      <c r="C409" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>3</v>
+      </c>
+      <c r="B410">
+        <v>24001742</v>
+      </c>
+      <c r="C410" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>3</v>
+      </c>
+      <c r="B411">
+        <v>24001802</v>
+      </c>
+      <c r="C411" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>3</v>
+      </c>
+      <c r="B412">
+        <v>24001817</v>
+      </c>
+      <c r="C412" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>3</v>
+      </c>
+      <c r="B413">
+        <v>24001832</v>
+      </c>
+      <c r="C413" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>3</v>
+      </c>
+      <c r="B414">
+        <v>24001842</v>
+      </c>
+      <c r="C414" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>3</v>
+      </c>
+      <c r="B415">
+        <v>24001847</v>
+      </c>
+      <c r="C415" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>3</v>
+      </c>
+      <c r="B416">
+        <v>24001852</v>
+      </c>
+      <c r="C416" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>3</v>
+      </c>
+      <c r="B417">
+        <v>24001872</v>
+      </c>
+      <c r="C417" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>3</v>
+      </c>
+      <c r="B418">
+        <v>24001877</v>
+      </c>
+      <c r="C418" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>3</v>
+      </c>
+      <c r="B419">
+        <v>24001882</v>
+      </c>
+      <c r="C419" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>3</v>
+      </c>
+      <c r="B420">
+        <v>24001887</v>
+      </c>
+      <c r="C420" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>3</v>
+      </c>
+      <c r="B421">
+        <v>24001907</v>
+      </c>
+      <c r="C421" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>3</v>
+      </c>
+      <c r="B422">
+        <v>24001937</v>
+      </c>
+      <c r="C422" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>3</v>
+      </c>
+      <c r="B423">
+        <v>24001982</v>
+      </c>
+      <c r="C423" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>3</v>
+      </c>
+      <c r="B424">
+        <v>24001987</v>
+      </c>
+      <c r="C424" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>3</v>
+      </c>
+      <c r="B425">
+        <v>24001992</v>
+      </c>
+      <c r="C425" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>3</v>
+      </c>
+      <c r="B426">
+        <v>24002017</v>
+      </c>
+      <c r="C426" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>3</v>
+      </c>
+      <c r="B427">
+        <v>24002022</v>
+      </c>
+      <c r="C427" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>3</v>
+      </c>
+      <c r="B428">
+        <v>24002027</v>
+      </c>
+      <c r="C428" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>3</v>
+      </c>
+      <c r="B429">
+        <v>24002032</v>
+      </c>
+      <c r="C429" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>3</v>
+      </c>
+      <c r="B430">
+        <v>24002037</v>
+      </c>
+      <c r="C430" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>3</v>
+      </c>
+      <c r="B431">
+        <v>24002057</v>
+      </c>
+      <c r="C431" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>3</v>
+      </c>
+      <c r="B432">
+        <v>24002062</v>
+      </c>
+      <c r="C432" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>3</v>
+      </c>
+      <c r="B433">
+        <v>24002072</v>
+      </c>
+      <c r="C433" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>3</v>
+      </c>
+      <c r="B434">
+        <v>24002087</v>
+      </c>
+      <c r="C434" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>3</v>
+      </c>
+      <c r="B435">
+        <v>24002092</v>
+      </c>
+      <c r="C435" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>3</v>
+      </c>
+      <c r="B436">
+        <v>24002157</v>
+      </c>
+      <c r="C436" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>3</v>
+      </c>
+      <c r="B437">
+        <v>24002167</v>
+      </c>
+      <c r="C437" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>3</v>
+      </c>
+      <c r="B438">
+        <v>24002182</v>
+      </c>
+      <c r="C438" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>3</v>
+      </c>
+      <c r="B439">
+        <v>24002222</v>
+      </c>
+      <c r="C439" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>3</v>
+      </c>
+      <c r="B440">
+        <v>24002227</v>
+      </c>
+      <c r="C440" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>3</v>
+      </c>
+      <c r="B441">
+        <v>24002232</v>
+      </c>
+      <c r="C441" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>3</v>
+      </c>
+      <c r="B442">
+        <v>24002242</v>
+      </c>
+      <c r="C442" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>3</v>
+      </c>
+      <c r="B443">
+        <v>24002267</v>
+      </c>
+      <c r="C443" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>3</v>
+      </c>
+      <c r="B444">
+        <v>24002282</v>
+      </c>
+      <c r="C444" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>3</v>
+      </c>
+      <c r="B445">
+        <v>24002287</v>
+      </c>
+      <c r="C445" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>3</v>
+      </c>
+      <c r="B446">
+        <v>24002297</v>
+      </c>
+      <c r="C446" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>3</v>
+      </c>
+      <c r="B447">
+        <v>24002317</v>
+      </c>
+      <c r="C447" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>3</v>
+      </c>
+      <c r="B448">
+        <v>24002322</v>
+      </c>
+      <c r="C448" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>3</v>
+      </c>
+      <c r="B449">
+        <v>24002337</v>
+      </c>
+      <c r="C449" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>3</v>
+      </c>
+      <c r="B450">
+        <v>24002357</v>
+      </c>
+      <c r="C450" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>3</v>
+      </c>
+      <c r="B451">
+        <v>24002387</v>
+      </c>
+      <c r="C451" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/resources/file/StudentSem.xlsx
+++ b/src/main/resources/file/StudentSem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wong zhao xuan\Documents\Programming Languages\Java\Course Timetable\timetable\src\main\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6275DDC2-1B61-472B-BEB4-06D00649F61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CF3AB8-08D5-49D3-A3D8-A83161E9BF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{775B32B7-97F4-4E22-B0E8-E8501CDB7B73}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{775B32B7-97F4-4E22-B0E8-E8501CDB7B73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="4">
   <si>
     <t>Semester</t>
   </si>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021D61C9-216E-4AA0-9570-AB2E074861E1}">
-  <dimension ref="A1:C451"/>
+  <dimension ref="A1:C501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A410" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E449" sqref="E449"/>
+    <sheetView tabSelected="1" topLeftCell="A469" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F193" sqref="F193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B102">
         <v>24001477</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B103">
         <v>24001482</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B104">
         <v>24001497</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B105">
         <v>24001507</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B106">
         <v>24001512</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B107">
         <v>24001517</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B108">
         <v>24001542</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B109">
         <v>24001557</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B110">
         <v>24001577</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B111">
         <v>24001587</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B112">
         <v>24001592</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B113">
         <v>24001597</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B114">
         <v>24001602</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B115">
         <v>24001612</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B116">
         <v>24001637</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B117">
         <v>24001697</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B118">
         <v>24001707</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B119">
         <v>24001717</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B120">
         <v>24001737</v>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B121">
         <v>24001757</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B122">
         <v>24001762</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B123">
         <v>24001772</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B124">
         <v>24001782</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B125">
         <v>24001792</v>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B126">
         <v>24001822</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B127">
         <v>24001827</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B128">
         <v>24001837</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B129">
         <v>24001862</v>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B130">
         <v>24001892</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B131">
         <v>24001897</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B132">
         <v>24001912</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B133">
         <v>24001917</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B134">
         <v>24001927</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B135">
         <v>24001952</v>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B136">
         <v>24001957</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B137">
         <v>24001967</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B138">
         <v>24001977</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B139">
         <v>24001997</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B140">
         <v>24002012</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B141">
         <v>24002042</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B142">
         <v>24002052</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B143">
         <v>24002082</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B144">
         <v>24002117</v>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B145">
         <v>24002127</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B146">
         <v>24002162</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B147">
         <v>24002172</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B148">
         <v>24002177</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B149">
         <v>24002197</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B150">
         <v>24002202</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B151">
         <v>24002212</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B202">
         <v>24002992</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B203">
         <v>24003002</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B204">
         <v>24003022</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B205">
         <v>24003042</v>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B206">
         <v>24003062</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B207">
         <v>24003067</v>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B208">
         <v>24003087</v>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B209">
         <v>24003092</v>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B210">
         <v>24003122</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B211">
         <v>24003137</v>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B212">
         <v>24003182</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B213">
         <v>24003197</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B214">
         <v>24003237</v>
@@ -2789,7 +2789,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B215">
         <v>24003242</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B216">
         <v>24003247</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B217">
         <v>24003262</v>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B218">
         <v>24003277</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B219">
         <v>24003297</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B220">
         <v>24003307</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B221">
         <v>24003327</v>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B222">
         <v>24003337</v>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B223">
         <v>24003342</v>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B224">
         <v>24003352</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B225">
         <v>24003362</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B226">
         <v>24003367</v>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B227">
         <v>24003382</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B228">
         <v>24003387</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B229">
         <v>24003417</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B230">
         <v>24003427</v>
@@ -2965,7 +2965,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B231">
         <v>24003447</v>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B232">
         <v>24003472</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B233">
         <v>24003487</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B234">
         <v>24003502</v>
@@ -3009,7 +3009,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B235">
         <v>24003507</v>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B236">
         <v>24003512</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B237">
         <v>24003527</v>
@@ -3042,7 +3042,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B238">
         <v>24003537</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B239">
         <v>24003542</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B240">
         <v>24003552</v>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B241">
         <v>24003572</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B242">
         <v>24003612</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B243">
         <v>24003622</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B244">
         <v>24003662</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B245">
         <v>24003677</v>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B246">
         <v>24003692</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B247">
         <v>24003717</v>
@@ -3152,7 +3152,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B248">
         <v>24003737</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B249">
         <v>24003742</v>
@@ -3174,7 +3174,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B250">
         <v>24003747</v>
@@ -3185,7 +3185,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B251">
         <v>24003752</v>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B252">
         <v>24003767</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B253">
         <v>24003772</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B254">
         <v>24003782</v>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B255">
         <v>24003807</v>
@@ -3240,7 +3240,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B256">
         <v>24003812</v>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B257">
         <v>24003817</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B258">
         <v>24003827</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B259">
         <v>24003837</v>
@@ -3284,7 +3284,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B260">
         <v>24003852</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B261">
         <v>24003892</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B262">
         <v>24003922</v>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B263">
         <v>24003927</v>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B264">
         <v>24003937</v>
@@ -3339,7 +3339,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B265">
         <v>24003942</v>
@@ -3350,7 +3350,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B266">
         <v>24003952</v>
@@ -3361,7 +3361,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B267">
         <v>24003997</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B268">
         <v>24004012</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B269">
         <v>24004037</v>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B270">
         <v>24004062</v>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B271">
         <v>24004067</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B272">
         <v>24004077</v>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B273">
         <v>24004087</v>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B274">
         <v>24004092</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B275">
         <v>24004102</v>
@@ -3460,7 +3460,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B276">
         <v>24004122</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B277">
         <v>24004147</v>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B278">
         <v>24004172</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B279">
         <v>24004187</v>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B280">
         <v>24004192</v>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B281">
         <v>24004207</v>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B282">
         <v>24004212</v>
@@ -3537,7 +3537,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B283">
         <v>24004217</v>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B284">
         <v>24004227</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B285">
         <v>24004242</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B286">
         <v>24004257</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B287">
         <v>24004272</v>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B288">
         <v>24004287</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B289">
         <v>24004307</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B290">
         <v>24004317</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B291">
         <v>24004322</v>
@@ -3636,7 +3636,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B292">
         <v>24004332</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B293">
         <v>24004377</v>
@@ -3658,7 +3658,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B294">
         <v>24004382</v>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B295">
         <v>24004392</v>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B296">
         <v>24004417</v>
@@ -3691,7 +3691,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B297">
         <v>24004447</v>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B298">
         <v>24004462</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B299">
         <v>24004467</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B300">
         <v>24004482</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B301">
         <v>24004507</v>
@@ -3746,10 +3746,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B302">
-        <v>24000022</v>
+        <v>24004512</v>
       </c>
       <c r="C302" t="s">
         <v>3</v>
@@ -3757,10 +3757,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B303">
-        <v>24000037</v>
+        <v>24004517</v>
       </c>
       <c r="C303" t="s">
         <v>3</v>
@@ -3768,10 +3768,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B304">
-        <v>24000047</v>
+        <v>24004522</v>
       </c>
       <c r="C304" t="s">
         <v>3</v>
@@ -3779,10 +3779,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B305">
-        <v>24000077</v>
+        <v>24004527</v>
       </c>
       <c r="C305" t="s">
         <v>3</v>
@@ -3790,10 +3790,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B306">
-        <v>24000082</v>
+        <v>24004532</v>
       </c>
       <c r="C306" t="s">
         <v>3</v>
@@ -3801,10 +3801,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B307">
-        <v>24000087</v>
+        <v>24004537</v>
       </c>
       <c r="C307" t="s">
         <v>3</v>
@@ -3812,10 +3812,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B308">
-        <v>24000092</v>
+        <v>24004542</v>
       </c>
       <c r="C308" t="s">
         <v>3</v>
@@ -3823,10 +3823,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B309">
-        <v>24000102</v>
+        <v>24004547</v>
       </c>
       <c r="C309" t="s">
         <v>3</v>
@@ -3834,10 +3834,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B310">
-        <v>24000107</v>
+        <v>24004552</v>
       </c>
       <c r="C310" t="s">
         <v>3</v>
@@ -3845,10 +3845,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B311">
-        <v>24000117</v>
+        <v>24004557</v>
       </c>
       <c r="C311" t="s">
         <v>3</v>
@@ -3856,10 +3856,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B312">
-        <v>24000127</v>
+        <v>24004562</v>
       </c>
       <c r="C312" t="s">
         <v>3</v>
@@ -3867,10 +3867,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B313">
-        <v>24000132</v>
+        <v>24004567</v>
       </c>
       <c r="C313" t="s">
         <v>3</v>
@@ -3878,10 +3878,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B314">
-        <v>24000162</v>
+        <v>24004572</v>
       </c>
       <c r="C314" t="s">
         <v>3</v>
@@ -3889,10 +3889,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B315">
-        <v>24000172</v>
+        <v>24004577</v>
       </c>
       <c r="C315" t="s">
         <v>3</v>
@@ -3900,10 +3900,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B316">
-        <v>24000177</v>
+        <v>24004582</v>
       </c>
       <c r="C316" t="s">
         <v>3</v>
@@ -3911,10 +3911,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B317">
-        <v>24000192</v>
+        <v>24004587</v>
       </c>
       <c r="C317" t="s">
         <v>3</v>
@@ -3922,10 +3922,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B318">
-        <v>24000237</v>
+        <v>24004592</v>
       </c>
       <c r="C318" t="s">
         <v>3</v>
@@ -3933,10 +3933,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B319">
-        <v>24000242</v>
+        <v>24004597</v>
       </c>
       <c r="C319" t="s">
         <v>3</v>
@@ -3944,10 +3944,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B320">
-        <v>24000247</v>
+        <v>24004602</v>
       </c>
       <c r="C320" t="s">
         <v>3</v>
@@ -3955,10 +3955,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B321">
-        <v>24000267</v>
+        <v>24004607</v>
       </c>
       <c r="C321" t="s">
         <v>3</v>
@@ -3966,10 +3966,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B322">
-        <v>24000287</v>
+        <v>24004612</v>
       </c>
       <c r="C322" t="s">
         <v>3</v>
@@ -3977,10 +3977,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B323">
-        <v>24000297</v>
+        <v>24004617</v>
       </c>
       <c r="C323" t="s">
         <v>3</v>
@@ -3988,10 +3988,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B324">
-        <v>24000307</v>
+        <v>24004622</v>
       </c>
       <c r="C324" t="s">
         <v>3</v>
@@ -3999,10 +3999,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B325">
-        <v>24000317</v>
+        <v>24004627</v>
       </c>
       <c r="C325" t="s">
         <v>3</v>
@@ -4010,10 +4010,10 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B326">
-        <v>24000347</v>
+        <v>24004632</v>
       </c>
       <c r="C326" t="s">
         <v>3</v>
@@ -4021,10 +4021,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B327">
-        <v>24000357</v>
+        <v>24004637</v>
       </c>
       <c r="C327" t="s">
         <v>3</v>
@@ -4032,10 +4032,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B328">
-        <v>24000367</v>
+        <v>24004642</v>
       </c>
       <c r="C328" t="s">
         <v>3</v>
@@ -4043,10 +4043,10 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B329">
-        <v>24000387</v>
+        <v>24004647</v>
       </c>
       <c r="C329" t="s">
         <v>3</v>
@@ -4054,10 +4054,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B330">
-        <v>24000402</v>
+        <v>24004652</v>
       </c>
       <c r="C330" t="s">
         <v>3</v>
@@ -4065,10 +4065,10 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B331">
-        <v>24000407</v>
+        <v>24004657</v>
       </c>
       <c r="C331" t="s">
         <v>3</v>
@@ -4076,10 +4076,10 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B332">
-        <v>24000432</v>
+        <v>24004662</v>
       </c>
       <c r="C332" t="s">
         <v>3</v>
@@ -4087,10 +4087,10 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B333">
-        <v>24000437</v>
+        <v>24004667</v>
       </c>
       <c r="C333" t="s">
         <v>3</v>
@@ -4098,10 +4098,10 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B334">
-        <v>24000457</v>
+        <v>24004672</v>
       </c>
       <c r="C334" t="s">
         <v>3</v>
@@ -4109,10 +4109,10 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B335">
-        <v>24000467</v>
+        <v>24004677</v>
       </c>
       <c r="C335" t="s">
         <v>3</v>
@@ -4120,10 +4120,10 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B336">
-        <v>24000507</v>
+        <v>24004682</v>
       </c>
       <c r="C336" t="s">
         <v>3</v>
@@ -4131,10 +4131,10 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B337">
-        <v>24000512</v>
+        <v>24004687</v>
       </c>
       <c r="C337" t="s">
         <v>3</v>
@@ -4142,10 +4142,10 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B338">
-        <v>24000517</v>
+        <v>24004692</v>
       </c>
       <c r="C338" t="s">
         <v>3</v>
@@ -4153,10 +4153,10 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B339">
-        <v>24000527</v>
+        <v>24004697</v>
       </c>
       <c r="C339" t="s">
         <v>3</v>
@@ -4164,10 +4164,10 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B340">
-        <v>24000532</v>
+        <v>24004702</v>
       </c>
       <c r="C340" t="s">
         <v>3</v>
@@ -4175,10 +4175,10 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B341">
-        <v>24000542</v>
+        <v>24004707</v>
       </c>
       <c r="C341" t="s">
         <v>3</v>
@@ -4186,10 +4186,10 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B342">
-        <v>24000552</v>
+        <v>24004712</v>
       </c>
       <c r="C342" t="s">
         <v>3</v>
@@ -4197,10 +4197,10 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B343">
-        <v>24000577</v>
+        <v>24004717</v>
       </c>
       <c r="C343" t="s">
         <v>3</v>
@@ -4208,10 +4208,10 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B344">
-        <v>24000587</v>
+        <v>24004722</v>
       </c>
       <c r="C344" t="s">
         <v>3</v>
@@ -4219,10 +4219,10 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B345">
-        <v>24000592</v>
+        <v>24004727</v>
       </c>
       <c r="C345" t="s">
         <v>3</v>
@@ -4230,10 +4230,10 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B346">
-        <v>24000612</v>
+        <v>24004732</v>
       </c>
       <c r="C346" t="s">
         <v>3</v>
@@ -4241,10 +4241,10 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B347">
-        <v>24000702</v>
+        <v>24004737</v>
       </c>
       <c r="C347" t="s">
         <v>3</v>
@@ -4252,10 +4252,10 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B348">
-        <v>24000727</v>
+        <v>24004742</v>
       </c>
       <c r="C348" t="s">
         <v>3</v>
@@ -4263,10 +4263,10 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B349">
-        <v>24000742</v>
+        <v>24004747</v>
       </c>
       <c r="C349" t="s">
         <v>3</v>
@@ -4274,10 +4274,10 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B350">
-        <v>24000752</v>
+        <v>24004752</v>
       </c>
       <c r="C350" t="s">
         <v>3</v>
@@ -4285,10 +4285,10 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B351">
-        <v>24000762</v>
+        <v>24004757</v>
       </c>
       <c r="C351" t="s">
         <v>3</v>
@@ -4296,10 +4296,10 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B352">
-        <v>24000777</v>
+        <v>24004762</v>
       </c>
       <c r="C352" t="s">
         <v>3</v>
@@ -4307,10 +4307,10 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B353">
-        <v>24000782</v>
+        <v>24004767</v>
       </c>
       <c r="C353" t="s">
         <v>3</v>
@@ -4318,10 +4318,10 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B354">
-        <v>24000787</v>
+        <v>24004772</v>
       </c>
       <c r="C354" t="s">
         <v>3</v>
@@ -4329,10 +4329,10 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B355">
-        <v>24000802</v>
+        <v>24004777</v>
       </c>
       <c r="C355" t="s">
         <v>3</v>
@@ -4340,10 +4340,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B356">
-        <v>24000807</v>
+        <v>24004782</v>
       </c>
       <c r="C356" t="s">
         <v>3</v>
@@ -4351,10 +4351,10 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B357">
-        <v>24000822</v>
+        <v>24004787</v>
       </c>
       <c r="C357" t="s">
         <v>3</v>
@@ -4362,10 +4362,10 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B358">
-        <v>24000827</v>
+        <v>24004792</v>
       </c>
       <c r="C358" t="s">
         <v>3</v>
@@ -4373,10 +4373,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B359">
-        <v>24000832</v>
+        <v>24004797</v>
       </c>
       <c r="C359" t="s">
         <v>3</v>
@@ -4384,10 +4384,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B360">
-        <v>24000852</v>
+        <v>24004802</v>
       </c>
       <c r="C360" t="s">
         <v>3</v>
@@ -4395,10 +4395,10 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B361">
-        <v>24000857</v>
+        <v>24004807</v>
       </c>
       <c r="C361" t="s">
         <v>3</v>
@@ -4406,10 +4406,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B362">
-        <v>24000877</v>
+        <v>24004812</v>
       </c>
       <c r="C362" t="s">
         <v>3</v>
@@ -4417,10 +4417,10 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B363">
-        <v>24000882</v>
+        <v>24004817</v>
       </c>
       <c r="C363" t="s">
         <v>3</v>
@@ -4428,10 +4428,10 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B364">
-        <v>24000902</v>
+        <v>24004822</v>
       </c>
       <c r="C364" t="s">
         <v>3</v>
@@ -4439,10 +4439,10 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B365">
-        <v>24000922</v>
+        <v>24004827</v>
       </c>
       <c r="C365" t="s">
         <v>3</v>
@@ -4450,10 +4450,10 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B366">
-        <v>24000927</v>
+        <v>24004832</v>
       </c>
       <c r="C366" t="s">
         <v>3</v>
@@ -4461,10 +4461,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B367">
-        <v>24000932</v>
+        <v>24004837</v>
       </c>
       <c r="C367" t="s">
         <v>3</v>
@@ -4472,10 +4472,10 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B368">
-        <v>24000952</v>
+        <v>24004842</v>
       </c>
       <c r="C368" t="s">
         <v>3</v>
@@ -4483,10 +4483,10 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B369">
-        <v>24000962</v>
+        <v>24004847</v>
       </c>
       <c r="C369" t="s">
         <v>3</v>
@@ -4494,10 +4494,10 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B370">
-        <v>24000977</v>
+        <v>24004852</v>
       </c>
       <c r="C370" t="s">
         <v>3</v>
@@ -4505,10 +4505,10 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B371">
-        <v>24000987</v>
+        <v>24004857</v>
       </c>
       <c r="C371" t="s">
         <v>3</v>
@@ -4516,10 +4516,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B372">
-        <v>24000992</v>
+        <v>24004862</v>
       </c>
       <c r="C372" t="s">
         <v>3</v>
@@ -4527,10 +4527,10 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B373">
-        <v>24001017</v>
+        <v>24004867</v>
       </c>
       <c r="C373" t="s">
         <v>3</v>
@@ -4538,10 +4538,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B374">
-        <v>24001027</v>
+        <v>24004872</v>
       </c>
       <c r="C374" t="s">
         <v>3</v>
@@ -4549,10 +4549,10 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B375">
-        <v>24001047</v>
+        <v>24004877</v>
       </c>
       <c r="C375" t="s">
         <v>3</v>
@@ -4560,10 +4560,10 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B376">
-        <v>24001067</v>
+        <v>24004882</v>
       </c>
       <c r="C376" t="s">
         <v>3</v>
@@ -4571,10 +4571,10 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B377">
-        <v>24001082</v>
+        <v>24004887</v>
       </c>
       <c r="C377" t="s">
         <v>3</v>
@@ -4582,10 +4582,10 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B378">
-        <v>24001087</v>
+        <v>24004892</v>
       </c>
       <c r="C378" t="s">
         <v>3</v>
@@ -4593,10 +4593,10 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B379">
-        <v>24001107</v>
+        <v>24004897</v>
       </c>
       <c r="C379" t="s">
         <v>3</v>
@@ -4604,10 +4604,10 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B380">
-        <v>24001117</v>
+        <v>24004902</v>
       </c>
       <c r="C380" t="s">
         <v>3</v>
@@ -4615,10 +4615,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B381">
-        <v>24001127</v>
+        <v>24004907</v>
       </c>
       <c r="C381" t="s">
         <v>3</v>
@@ -4626,10 +4626,10 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B382">
-        <v>24001132</v>
+        <v>24004912</v>
       </c>
       <c r="C382" t="s">
         <v>3</v>
@@ -4637,10 +4637,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B383">
-        <v>24001152</v>
+        <v>24004917</v>
       </c>
       <c r="C383" t="s">
         <v>3</v>
@@ -4648,10 +4648,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B384">
-        <v>24001187</v>
+        <v>24004922</v>
       </c>
       <c r="C384" t="s">
         <v>3</v>
@@ -4659,10 +4659,10 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B385">
-        <v>24001197</v>
+        <v>24004927</v>
       </c>
       <c r="C385" t="s">
         <v>3</v>
@@ -4670,10 +4670,10 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B386">
-        <v>24001227</v>
+        <v>24004932</v>
       </c>
       <c r="C386" t="s">
         <v>3</v>
@@ -4681,10 +4681,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B387">
-        <v>24001262</v>
+        <v>24004937</v>
       </c>
       <c r="C387" t="s">
         <v>3</v>
@@ -4692,10 +4692,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B388">
-        <v>24001267</v>
+        <v>24004942</v>
       </c>
       <c r="C388" t="s">
         <v>3</v>
@@ -4703,10 +4703,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B389">
-        <v>24001292</v>
+        <v>24004947</v>
       </c>
       <c r="C389" t="s">
         <v>3</v>
@@ -4714,10 +4714,10 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B390">
-        <v>24001297</v>
+        <v>24004952</v>
       </c>
       <c r="C390" t="s">
         <v>3</v>
@@ -4725,10 +4725,10 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B391">
-        <v>24001347</v>
+        <v>24004957</v>
       </c>
       <c r="C391" t="s">
         <v>3</v>
@@ -4736,10 +4736,10 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B392">
-        <v>24001352</v>
+        <v>24004962</v>
       </c>
       <c r="C392" t="s">
         <v>3</v>
@@ -4747,10 +4747,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B393">
-        <v>24001367</v>
+        <v>24004967</v>
       </c>
       <c r="C393" t="s">
         <v>3</v>
@@ -4758,10 +4758,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B394">
-        <v>24001372</v>
+        <v>24004972</v>
       </c>
       <c r="C394" t="s">
         <v>3</v>
@@ -4769,10 +4769,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B395">
-        <v>24001407</v>
+        <v>24004977</v>
       </c>
       <c r="C395" t="s">
         <v>3</v>
@@ -4780,10 +4780,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B396">
-        <v>24001442</v>
+        <v>24004982</v>
       </c>
       <c r="C396" t="s">
         <v>3</v>
@@ -4791,10 +4791,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B397">
-        <v>24001492</v>
+        <v>24004987</v>
       </c>
       <c r="C397" t="s">
         <v>3</v>
@@ -4802,10 +4802,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B398">
-        <v>24001552</v>
+        <v>24004992</v>
       </c>
       <c r="C398" t="s">
         <v>3</v>
@@ -4813,10 +4813,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B399">
-        <v>24001567</v>
+        <v>24004997</v>
       </c>
       <c r="C399" t="s">
         <v>3</v>
@@ -4824,10 +4824,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B400">
-        <v>24001582</v>
+        <v>24005002</v>
       </c>
       <c r="C400" t="s">
         <v>3</v>
@@ -4835,10 +4835,10 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B401">
-        <v>24001607</v>
+        <v>24005007</v>
       </c>
       <c r="C401" t="s">
         <v>3</v>
@@ -4846,10 +4846,10 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B402">
-        <v>24001632</v>
+        <v>24005012</v>
       </c>
       <c r="C402" t="s">
         <v>3</v>
@@ -4857,10 +4857,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B403">
-        <v>24001642</v>
+        <v>24005017</v>
       </c>
       <c r="C403" t="s">
         <v>3</v>
@@ -4868,10 +4868,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B404">
-        <v>24001647</v>
+        <v>24005022</v>
       </c>
       <c r="C404" t="s">
         <v>3</v>
@@ -4879,10 +4879,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B405">
-        <v>24001657</v>
+        <v>24005027</v>
       </c>
       <c r="C405" t="s">
         <v>3</v>
@@ -4890,10 +4890,10 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B406">
-        <v>24001672</v>
+        <v>24005032</v>
       </c>
       <c r="C406" t="s">
         <v>3</v>
@@ -4901,10 +4901,10 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B407">
-        <v>24001687</v>
+        <v>24005037</v>
       </c>
       <c r="C407" t="s">
         <v>3</v>
@@ -4912,10 +4912,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B408">
-        <v>24001692</v>
+        <v>24005042</v>
       </c>
       <c r="C408" t="s">
         <v>3</v>
@@ -4923,10 +4923,10 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B409">
-        <v>24001732</v>
+        <v>24005047</v>
       </c>
       <c r="C409" t="s">
         <v>3</v>
@@ -4934,10 +4934,10 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B410">
-        <v>24001742</v>
+        <v>24005052</v>
       </c>
       <c r="C410" t="s">
         <v>3</v>
@@ -4945,10 +4945,10 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B411">
-        <v>24001802</v>
+        <v>24005057</v>
       </c>
       <c r="C411" t="s">
         <v>3</v>
@@ -4956,10 +4956,10 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B412">
-        <v>24001817</v>
+        <v>24005062</v>
       </c>
       <c r="C412" t="s">
         <v>3</v>
@@ -4967,10 +4967,10 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B413">
-        <v>24001832</v>
+        <v>24005067</v>
       </c>
       <c r="C413" t="s">
         <v>3</v>
@@ -4978,10 +4978,10 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B414">
-        <v>24001842</v>
+        <v>24005072</v>
       </c>
       <c r="C414" t="s">
         <v>3</v>
@@ -4989,10 +4989,10 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B415">
-        <v>24001847</v>
+        <v>24005077</v>
       </c>
       <c r="C415" t="s">
         <v>3</v>
@@ -5000,10 +5000,10 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B416">
-        <v>24001852</v>
+        <v>24005082</v>
       </c>
       <c r="C416" t="s">
         <v>3</v>
@@ -5011,10 +5011,10 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B417">
-        <v>24001872</v>
+        <v>24005087</v>
       </c>
       <c r="C417" t="s">
         <v>3</v>
@@ -5022,10 +5022,10 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B418">
-        <v>24001877</v>
+        <v>24005092</v>
       </c>
       <c r="C418" t="s">
         <v>3</v>
@@ -5033,10 +5033,10 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B419">
-        <v>24001882</v>
+        <v>24005097</v>
       </c>
       <c r="C419" t="s">
         <v>3</v>
@@ -5044,10 +5044,10 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B420">
-        <v>24001887</v>
+        <v>24005102</v>
       </c>
       <c r="C420" t="s">
         <v>3</v>
@@ -5055,10 +5055,10 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B421">
-        <v>24001907</v>
+        <v>24005107</v>
       </c>
       <c r="C421" t="s">
         <v>3</v>
@@ -5066,10 +5066,10 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B422">
-        <v>24001937</v>
+        <v>24005112</v>
       </c>
       <c r="C422" t="s">
         <v>3</v>
@@ -5077,10 +5077,10 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B423">
-        <v>24001982</v>
+        <v>24005117</v>
       </c>
       <c r="C423" t="s">
         <v>3</v>
@@ -5088,10 +5088,10 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B424">
-        <v>24001987</v>
+        <v>24005122</v>
       </c>
       <c r="C424" t="s">
         <v>3</v>
@@ -5099,10 +5099,10 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B425">
-        <v>24001992</v>
+        <v>24005127</v>
       </c>
       <c r="C425" t="s">
         <v>3</v>
@@ -5110,10 +5110,10 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B426">
-        <v>24002017</v>
+        <v>24005132</v>
       </c>
       <c r="C426" t="s">
         <v>3</v>
@@ -5121,10 +5121,10 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B427">
-        <v>24002022</v>
+        <v>24005137</v>
       </c>
       <c r="C427" t="s">
         <v>3</v>
@@ -5132,10 +5132,10 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B428">
-        <v>24002027</v>
+        <v>24005142</v>
       </c>
       <c r="C428" t="s">
         <v>3</v>
@@ -5143,10 +5143,10 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B429">
-        <v>24002032</v>
+        <v>24005147</v>
       </c>
       <c r="C429" t="s">
         <v>3</v>
@@ -5154,10 +5154,10 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B430">
-        <v>24002037</v>
+        <v>24005152</v>
       </c>
       <c r="C430" t="s">
         <v>3</v>
@@ -5165,10 +5165,10 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B431">
-        <v>24002057</v>
+        <v>24005157</v>
       </c>
       <c r="C431" t="s">
         <v>3</v>
@@ -5176,10 +5176,10 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B432">
-        <v>24002062</v>
+        <v>24005162</v>
       </c>
       <c r="C432" t="s">
         <v>3</v>
@@ -5187,10 +5187,10 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B433">
-        <v>24002072</v>
+        <v>24005167</v>
       </c>
       <c r="C433" t="s">
         <v>3</v>
@@ -5198,10 +5198,10 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B434">
-        <v>24002087</v>
+        <v>24005172</v>
       </c>
       <c r="C434" t="s">
         <v>3</v>
@@ -5209,10 +5209,10 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B435">
-        <v>24002092</v>
+        <v>24005177</v>
       </c>
       <c r="C435" t="s">
         <v>3</v>
@@ -5220,10 +5220,10 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B436">
-        <v>24002157</v>
+        <v>24005182</v>
       </c>
       <c r="C436" t="s">
         <v>3</v>
@@ -5231,10 +5231,10 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B437">
-        <v>24002167</v>
+        <v>24005187</v>
       </c>
       <c r="C437" t="s">
         <v>3</v>
@@ -5242,10 +5242,10 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B438">
-        <v>24002182</v>
+        <v>24005192</v>
       </c>
       <c r="C438" t="s">
         <v>3</v>
@@ -5253,10 +5253,10 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B439">
-        <v>24002222</v>
+        <v>24005197</v>
       </c>
       <c r="C439" t="s">
         <v>3</v>
@@ -5264,10 +5264,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B440">
-        <v>24002227</v>
+        <v>24005202</v>
       </c>
       <c r="C440" t="s">
         <v>3</v>
@@ -5275,10 +5275,10 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B441">
-        <v>24002232</v>
+        <v>24005207</v>
       </c>
       <c r="C441" t="s">
         <v>3</v>
@@ -5286,10 +5286,10 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B442">
-        <v>24002242</v>
+        <v>24005212</v>
       </c>
       <c r="C442" t="s">
         <v>3</v>
@@ -5297,10 +5297,10 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B443">
-        <v>24002267</v>
+        <v>24005217</v>
       </c>
       <c r="C443" t="s">
         <v>3</v>
@@ -5308,10 +5308,10 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B444">
-        <v>24002282</v>
+        <v>24005222</v>
       </c>
       <c r="C444" t="s">
         <v>3</v>
@@ -5319,10 +5319,10 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B445">
-        <v>24002287</v>
+        <v>24005227</v>
       </c>
       <c r="C445" t="s">
         <v>3</v>
@@ -5330,10 +5330,10 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B446">
-        <v>24002297</v>
+        <v>24005232</v>
       </c>
       <c r="C446" t="s">
         <v>3</v>
@@ -5341,10 +5341,10 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B447">
-        <v>24002317</v>
+        <v>24005237</v>
       </c>
       <c r="C447" t="s">
         <v>3</v>
@@ -5352,10 +5352,10 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B448">
-        <v>24002322</v>
+        <v>24005242</v>
       </c>
       <c r="C448" t="s">
         <v>3</v>
@@ -5363,10 +5363,10 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B449">
-        <v>24002337</v>
+        <v>24005247</v>
       </c>
       <c r="C449" t="s">
         <v>3</v>
@@ -5374,10 +5374,10 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B450">
-        <v>24002357</v>
+        <v>24005252</v>
       </c>
       <c r="C450" t="s">
         <v>3</v>
@@ -5385,12 +5385,562 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B451">
-        <v>24002387</v>
+        <v>24005257</v>
       </c>
       <c r="C451" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>5</v>
+      </c>
+      <c r="B452">
+        <v>24005262</v>
+      </c>
+      <c r="C452" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>5</v>
+      </c>
+      <c r="B453">
+        <v>24005267</v>
+      </c>
+      <c r="C453" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>5</v>
+      </c>
+      <c r="B454">
+        <v>24005272</v>
+      </c>
+      <c r="C454" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>5</v>
+      </c>
+      <c r="B455">
+        <v>24005277</v>
+      </c>
+      <c r="C455" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>5</v>
+      </c>
+      <c r="B456">
+        <v>24005282</v>
+      </c>
+      <c r="C456" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>5</v>
+      </c>
+      <c r="B457">
+        <v>24005287</v>
+      </c>
+      <c r="C457" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>5</v>
+      </c>
+      <c r="B458">
+        <v>24005292</v>
+      </c>
+      <c r="C458" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>5</v>
+      </c>
+      <c r="B459">
+        <v>24005297</v>
+      </c>
+      <c r="C459" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>5</v>
+      </c>
+      <c r="B460">
+        <v>24005302</v>
+      </c>
+      <c r="C460" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>5</v>
+      </c>
+      <c r="B461">
+        <v>24005307</v>
+      </c>
+      <c r="C461" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>5</v>
+      </c>
+      <c r="B462">
+        <v>24005312</v>
+      </c>
+      <c r="C462" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>5</v>
+      </c>
+      <c r="B463">
+        <v>24005317</v>
+      </c>
+      <c r="C463" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>5</v>
+      </c>
+      <c r="B464">
+        <v>24005322</v>
+      </c>
+      <c r="C464" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>5</v>
+      </c>
+      <c r="B465">
+        <v>24005327</v>
+      </c>
+      <c r="C465" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>5</v>
+      </c>
+      <c r="B466">
+        <v>24005332</v>
+      </c>
+      <c r="C466" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>5</v>
+      </c>
+      <c r="B467">
+        <v>24005337</v>
+      </c>
+      <c r="C467" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>5</v>
+      </c>
+      <c r="B468">
+        <v>24005342</v>
+      </c>
+      <c r="C468" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>5</v>
+      </c>
+      <c r="B469">
+        <v>24005347</v>
+      </c>
+      <c r="C469" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>5</v>
+      </c>
+      <c r="B470">
+        <v>24005352</v>
+      </c>
+      <c r="C470" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>5</v>
+      </c>
+      <c r="B471">
+        <v>24005357</v>
+      </c>
+      <c r="C471" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>5</v>
+      </c>
+      <c r="B472">
+        <v>24005362</v>
+      </c>
+      <c r="C472" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>5</v>
+      </c>
+      <c r="B473">
+        <v>24005367</v>
+      </c>
+      <c r="C473" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>5</v>
+      </c>
+      <c r="B474">
+        <v>24005372</v>
+      </c>
+      <c r="C474" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>5</v>
+      </c>
+      <c r="B475">
+        <v>24005377</v>
+      </c>
+      <c r="C475" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>5</v>
+      </c>
+      <c r="B476">
+        <v>24005382</v>
+      </c>
+      <c r="C476" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>5</v>
+      </c>
+      <c r="B477">
+        <v>24005387</v>
+      </c>
+      <c r="C477" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>5</v>
+      </c>
+      <c r="B478">
+        <v>24005392</v>
+      </c>
+      <c r="C478" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>5</v>
+      </c>
+      <c r="B479">
+        <v>24005397</v>
+      </c>
+      <c r="C479" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>5</v>
+      </c>
+      <c r="B480">
+        <v>24005402</v>
+      </c>
+      <c r="C480" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>5</v>
+      </c>
+      <c r="B481">
+        <v>24005407</v>
+      </c>
+      <c r="C481" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>5</v>
+      </c>
+      <c r="B482">
+        <v>24005412</v>
+      </c>
+      <c r="C482" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>5</v>
+      </c>
+      <c r="B483">
+        <v>24005417</v>
+      </c>
+      <c r="C483" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>5</v>
+      </c>
+      <c r="B484">
+        <v>24005422</v>
+      </c>
+      <c r="C484" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>5</v>
+      </c>
+      <c r="B485">
+        <v>24005427</v>
+      </c>
+      <c r="C485" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>5</v>
+      </c>
+      <c r="B486">
+        <v>24005432</v>
+      </c>
+      <c r="C486" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>5</v>
+      </c>
+      <c r="B487">
+        <v>24005437</v>
+      </c>
+      <c r="C487" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>5</v>
+      </c>
+      <c r="B488">
+        <v>24005442</v>
+      </c>
+      <c r="C488" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>5</v>
+      </c>
+      <c r="B489">
+        <v>24005447</v>
+      </c>
+      <c r="C489" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>5</v>
+      </c>
+      <c r="B490">
+        <v>24005452</v>
+      </c>
+      <c r="C490" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>5</v>
+      </c>
+      <c r="B491">
+        <v>24005457</v>
+      </c>
+      <c r="C491" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>5</v>
+      </c>
+      <c r="B492">
+        <v>24005462</v>
+      </c>
+      <c r="C492" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>5</v>
+      </c>
+      <c r="B493">
+        <v>24005467</v>
+      </c>
+      <c r="C493" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>5</v>
+      </c>
+      <c r="B494">
+        <v>24005472</v>
+      </c>
+      <c r="C494" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>5</v>
+      </c>
+      <c r="B495">
+        <v>24005477</v>
+      </c>
+      <c r="C495" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>5</v>
+      </c>
+      <c r="B496">
+        <v>24005482</v>
+      </c>
+      <c r="C496" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>5</v>
+      </c>
+      <c r="B497">
+        <v>24005487</v>
+      </c>
+      <c r="C497" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>5</v>
+      </c>
+      <c r="B498">
+        <v>24005492</v>
+      </c>
+      <c r="C498" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>5</v>
+      </c>
+      <c r="B499">
+        <v>24005497</v>
+      </c>
+      <c r="C499" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>5</v>
+      </c>
+      <c r="B500">
+        <v>24005502</v>
+      </c>
+      <c r="C500" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>5</v>
+      </c>
+      <c r="B501">
+        <v>24005507</v>
+      </c>
+      <c r="C501" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/resources/file/StudentSem.xlsx
+++ b/src/main/resources/file/StudentSem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wong zhao xuan\Documents\Programming Languages\Java\Course Timetable\timetable\src\main\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CF3AB8-08D5-49D3-A3D8-A83161E9BF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6596B7D2-C02D-4C7D-BAB9-5B495A76E25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{775B32B7-97F4-4E22-B0E8-E8501CDB7B73}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="4">
   <si>
     <t>Semester</t>
   </si>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021D61C9-216E-4AA0-9570-AB2E074861E1}">
-  <dimension ref="A1:C501"/>
+  <dimension ref="A1:C401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A469" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F193" sqref="F193"/>
+    <sheetView tabSelected="1" topLeftCell="A192" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G211" sqref="G211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B102">
         <v>24001477</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B103">
         <v>24001482</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B104">
         <v>24001497</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B105">
         <v>24001507</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B106">
         <v>24001512</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B107">
         <v>24001517</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B108">
         <v>24001542</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B109">
         <v>24001557</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B110">
         <v>24001577</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B111">
         <v>24001587</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B112">
         <v>24001592</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B113">
         <v>24001597</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B114">
         <v>24001602</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B115">
         <v>24001612</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B116">
         <v>24001637</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B117">
         <v>24001697</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B118">
         <v>24001707</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B119">
         <v>24001717</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B120">
         <v>24001737</v>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B121">
         <v>24001757</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B122">
         <v>24001762</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B123">
         <v>24001772</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B124">
         <v>24001782</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B125">
         <v>24001792</v>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B126">
         <v>24001822</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B127">
         <v>24001827</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B128">
         <v>24001837</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B129">
         <v>24001862</v>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B130">
         <v>24001892</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B131">
         <v>24001897</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B132">
         <v>24001912</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B133">
         <v>24001917</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B134">
         <v>24001927</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B135">
         <v>24001952</v>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B136">
         <v>24001957</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B137">
         <v>24001967</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B138">
         <v>24001977</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B139">
         <v>24001997</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B140">
         <v>24002012</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B141">
         <v>24002042</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B142">
         <v>24002052</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B143">
         <v>24002082</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B144">
         <v>24002117</v>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B145">
         <v>24002127</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B146">
         <v>24002162</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B147">
         <v>24002172</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B148">
         <v>24002177</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B149">
         <v>24002197</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B150">
         <v>24002202</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B151">
         <v>24002212</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B152">
         <v>24002217</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B153">
         <v>24002237</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B154">
         <v>24002247</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B155">
         <v>24002257</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B156">
         <v>24002262</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B157">
         <v>24002277</v>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B158">
         <v>24002292</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B159">
         <v>24002302</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B160">
         <v>24002327</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B161">
         <v>24002342</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B162">
         <v>24002352</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B163">
         <v>24002367</v>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B164">
         <v>24002377</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B165">
         <v>24002382</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B166">
         <v>24002407</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B167">
         <v>24002427</v>
@@ -2272,7 +2272,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B168">
         <v>24002432</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B169">
         <v>24002437</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B170">
         <v>24002457</v>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B171">
         <v>24002462</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B172">
         <v>24002517</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B173">
         <v>24002537</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B174">
         <v>24002542</v>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B175">
         <v>24002562</v>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B176">
         <v>24002567</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B177">
         <v>24002612</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B178">
         <v>24002637</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B179">
         <v>24002657</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B180">
         <v>24002667</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B181">
         <v>24002697</v>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B182">
         <v>24002707</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B183">
         <v>24002712</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B184">
         <v>24002722</v>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B185">
         <v>24002742</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B186">
         <v>24002762</v>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B187">
         <v>24002767</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B188">
         <v>24002772</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B189">
         <v>24002777</v>
@@ -2514,7 +2514,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B190">
         <v>24002812</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B191">
         <v>24002822</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B192">
         <v>24002837</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B193">
         <v>24002842</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B194">
         <v>24002877</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B195">
         <v>24002887</v>
@@ -2580,7 +2580,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B196">
         <v>24002922</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B197">
         <v>24002932</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B198">
         <v>24002947</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B199">
         <v>24002962</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B200">
         <v>24002967</v>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B201">
         <v>24002987</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B202">
         <v>24002992</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B203">
         <v>24003002</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B204">
         <v>24003022</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B205">
         <v>24003042</v>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B206">
         <v>24003062</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B207">
         <v>24003067</v>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B208">
         <v>24003087</v>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B209">
         <v>24003092</v>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B210">
         <v>24003122</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B211">
         <v>24003137</v>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B212">
         <v>24003182</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B213">
         <v>24003197</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B214">
         <v>24003237</v>
@@ -2789,7 +2789,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B215">
         <v>24003242</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B216">
         <v>24003247</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B217">
         <v>24003262</v>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B218">
         <v>24003277</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B219">
         <v>24003297</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B220">
         <v>24003307</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B221">
         <v>24003327</v>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B222">
         <v>24003337</v>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B223">
         <v>24003342</v>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B224">
         <v>24003352</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B225">
         <v>24003362</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B226">
         <v>24003367</v>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B227">
         <v>24003382</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B228">
         <v>24003387</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B229">
         <v>24003417</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B230">
         <v>24003427</v>
@@ -2965,7 +2965,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B231">
         <v>24003447</v>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B232">
         <v>24003472</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B233">
         <v>24003487</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B234">
         <v>24003502</v>
@@ -3009,7 +3009,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B235">
         <v>24003507</v>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B236">
         <v>24003512</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B237">
         <v>24003527</v>
@@ -3042,7 +3042,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B238">
         <v>24003537</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B239">
         <v>24003542</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B240">
         <v>24003552</v>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B241">
         <v>24003572</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B242">
         <v>24003612</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B243">
         <v>24003622</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B244">
         <v>24003662</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B245">
         <v>24003677</v>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B246">
         <v>24003692</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B247">
         <v>24003717</v>
@@ -3152,7 +3152,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B248">
         <v>24003737</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B249">
         <v>24003742</v>
@@ -3174,7 +3174,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B250">
         <v>24003747</v>
@@ -3185,7 +3185,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B251">
         <v>24003752</v>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B252">
         <v>24003767</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B253">
         <v>24003772</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B254">
         <v>24003782</v>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B255">
         <v>24003807</v>
@@ -3240,7 +3240,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B256">
         <v>24003812</v>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B257">
         <v>24003817</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B258">
         <v>24003827</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B259">
         <v>24003837</v>
@@ -3284,7 +3284,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B260">
         <v>24003852</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B261">
         <v>24003892</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B262">
         <v>24003922</v>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B263">
         <v>24003927</v>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B264">
         <v>24003937</v>
@@ -3339,7 +3339,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B265">
         <v>24003942</v>
@@ -3350,7 +3350,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B266">
         <v>24003952</v>
@@ -3361,7 +3361,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B267">
         <v>24003997</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B268">
         <v>24004012</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B269">
         <v>24004037</v>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B270">
         <v>24004062</v>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B271">
         <v>24004067</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B272">
         <v>24004077</v>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B273">
         <v>24004087</v>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B274">
         <v>24004092</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B275">
         <v>24004102</v>
@@ -3460,7 +3460,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B276">
         <v>24004122</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B277">
         <v>24004147</v>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B278">
         <v>24004172</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B279">
         <v>24004187</v>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B280">
         <v>24004192</v>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B281">
         <v>24004207</v>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B282">
         <v>24004212</v>
@@ -3537,7 +3537,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B283">
         <v>24004217</v>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B284">
         <v>24004227</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B285">
         <v>24004242</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B286">
         <v>24004257</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B287">
         <v>24004272</v>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B288">
         <v>24004287</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B289">
         <v>24004307</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B290">
         <v>24004317</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B291">
         <v>24004322</v>
@@ -3636,7 +3636,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B292">
         <v>24004332</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B293">
         <v>24004377</v>
@@ -3658,7 +3658,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B294">
         <v>24004382</v>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B295">
         <v>24004392</v>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B296">
         <v>24004417</v>
@@ -3691,7 +3691,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B297">
         <v>24004447</v>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B298">
         <v>24004462</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B299">
         <v>24004467</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B300">
         <v>24004482</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B301">
         <v>24004507</v>
@@ -3746,7 +3746,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B302">
         <v>24004512</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B303">
         <v>24004517</v>
@@ -3768,7 +3768,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B304">
         <v>24004522</v>
@@ -3779,7 +3779,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B305">
         <v>24004527</v>
@@ -3790,7 +3790,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B306">
         <v>24004532</v>
@@ -3801,7 +3801,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B307">
         <v>24004537</v>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B308">
         <v>24004542</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B309">
         <v>24004547</v>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B310">
         <v>24004552</v>
@@ -3845,7 +3845,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B311">
         <v>24004557</v>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B312">
         <v>24004562</v>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B313">
         <v>24004567</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B314">
         <v>24004572</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B315">
         <v>24004577</v>
@@ -3900,7 +3900,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B316">
         <v>24004582</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B317">
         <v>24004587</v>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B318">
         <v>24004592</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B319">
         <v>24004597</v>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B320">
         <v>24004602</v>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B321">
         <v>24004607</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B322">
         <v>24004612</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B323">
         <v>24004617</v>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B324">
         <v>24004622</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B325">
         <v>24004627</v>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B326">
         <v>24004632</v>
@@ -4021,7 +4021,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B327">
         <v>24004637</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B328">
         <v>24004642</v>
@@ -4043,7 +4043,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B329">
         <v>24004647</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B330">
         <v>24004652</v>
@@ -4065,7 +4065,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B331">
         <v>24004657</v>
@@ -4076,7 +4076,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B332">
         <v>24004662</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B333">
         <v>24004667</v>
@@ -4098,7 +4098,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B334">
         <v>24004672</v>
@@ -4109,7 +4109,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B335">
         <v>24004677</v>
@@ -4120,7 +4120,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B336">
         <v>24004682</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B337">
         <v>24004687</v>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B338">
         <v>24004692</v>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B339">
         <v>24004697</v>
@@ -4164,7 +4164,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B340">
         <v>24004702</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B341">
         <v>24004707</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B342">
         <v>24004712</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B343">
         <v>24004717</v>
@@ -4208,7 +4208,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B344">
         <v>24004722</v>
@@ -4219,7 +4219,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B345">
         <v>24004727</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B346">
         <v>24004732</v>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B347">
         <v>24004737</v>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B348">
         <v>24004742</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B349">
         <v>24004747</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B350">
         <v>24004752</v>
@@ -4285,7 +4285,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B351">
         <v>24004757</v>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B352">
         <v>24004762</v>
@@ -4307,7 +4307,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B353">
         <v>24004767</v>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B354">
         <v>24004772</v>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B355">
         <v>24004777</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B356">
         <v>24004782</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B357">
         <v>24004787</v>
@@ -4362,7 +4362,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B358">
         <v>24004792</v>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B359">
         <v>24004797</v>
@@ -4384,7 +4384,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B360">
         <v>24004802</v>
@@ -4395,7 +4395,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B361">
         <v>24004807</v>
@@ -4406,7 +4406,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B362">
         <v>24004812</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B363">
         <v>24004817</v>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B364">
         <v>24004822</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B365">
         <v>24004827</v>
@@ -4450,7 +4450,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B366">
         <v>24004832</v>
@@ -4461,7 +4461,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B367">
         <v>24004837</v>
@@ -4472,7 +4472,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B368">
         <v>24004842</v>
@@ -4483,7 +4483,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B369">
         <v>24004847</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B370">
         <v>24004852</v>
@@ -4505,7 +4505,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B371">
         <v>24004857</v>
@@ -4516,7 +4516,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B372">
         <v>24004862</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B373">
         <v>24004867</v>
@@ -4538,7 +4538,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B374">
         <v>24004872</v>
@@ -4549,7 +4549,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B375">
         <v>24004877</v>
@@ -4560,7 +4560,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B376">
         <v>24004882</v>
@@ -4571,7 +4571,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B377">
         <v>24004887</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B378">
         <v>24004892</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B379">
         <v>24004897</v>
@@ -4604,7 +4604,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B380">
         <v>24004902</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B381">
         <v>24004907</v>
@@ -4626,7 +4626,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B382">
         <v>24004912</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B383">
         <v>24004917</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B384">
         <v>24004922</v>
@@ -4659,7 +4659,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B385">
         <v>24004927</v>
@@ -4670,7 +4670,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B386">
         <v>24004932</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B387">
         <v>24004937</v>
@@ -4692,7 +4692,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B388">
         <v>24004942</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B389">
         <v>24004947</v>
@@ -4714,7 +4714,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B390">
         <v>24004952</v>
@@ -4725,7 +4725,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B391">
         <v>24004957</v>
@@ -4736,7 +4736,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B392">
         <v>24004962</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B393">
         <v>24004967</v>
@@ -4758,7 +4758,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B394">
         <v>24004972</v>
@@ -4769,7 +4769,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B395">
         <v>24004977</v>
@@ -4780,7 +4780,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B396">
         <v>24004982</v>
@@ -4791,7 +4791,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B397">
         <v>24004987</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B398">
         <v>24004992</v>
@@ -4813,7 +4813,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B399">
         <v>24004997</v>
@@ -4824,7 +4824,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B400">
         <v>24005002</v>
@@ -4835,1112 +4835,12 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B401">
         <v>24005007</v>
       </c>
       <c r="C401" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A402">
-        <v>5</v>
-      </c>
-      <c r="B402">
-        <v>24005012</v>
-      </c>
-      <c r="C402" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A403">
-        <v>5</v>
-      </c>
-      <c r="B403">
-        <v>24005017</v>
-      </c>
-      <c r="C403" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A404">
-        <v>5</v>
-      </c>
-      <c r="B404">
-        <v>24005022</v>
-      </c>
-      <c r="C404" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A405">
-        <v>5</v>
-      </c>
-      <c r="B405">
-        <v>24005027</v>
-      </c>
-      <c r="C405" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A406">
-        <v>5</v>
-      </c>
-      <c r="B406">
-        <v>24005032</v>
-      </c>
-      <c r="C406" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A407">
-        <v>5</v>
-      </c>
-      <c r="B407">
-        <v>24005037</v>
-      </c>
-      <c r="C407" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A408">
-        <v>5</v>
-      </c>
-      <c r="B408">
-        <v>24005042</v>
-      </c>
-      <c r="C408" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A409">
-        <v>5</v>
-      </c>
-      <c r="B409">
-        <v>24005047</v>
-      </c>
-      <c r="C409" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A410">
-        <v>5</v>
-      </c>
-      <c r="B410">
-        <v>24005052</v>
-      </c>
-      <c r="C410" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A411">
-        <v>5</v>
-      </c>
-      <c r="B411">
-        <v>24005057</v>
-      </c>
-      <c r="C411" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A412">
-        <v>5</v>
-      </c>
-      <c r="B412">
-        <v>24005062</v>
-      </c>
-      <c r="C412" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A413">
-        <v>5</v>
-      </c>
-      <c r="B413">
-        <v>24005067</v>
-      </c>
-      <c r="C413" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A414">
-        <v>5</v>
-      </c>
-      <c r="B414">
-        <v>24005072</v>
-      </c>
-      <c r="C414" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A415">
-        <v>5</v>
-      </c>
-      <c r="B415">
-        <v>24005077</v>
-      </c>
-      <c r="C415" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A416">
-        <v>5</v>
-      </c>
-      <c r="B416">
-        <v>24005082</v>
-      </c>
-      <c r="C416" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A417">
-        <v>5</v>
-      </c>
-      <c r="B417">
-        <v>24005087</v>
-      </c>
-      <c r="C417" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A418">
-        <v>5</v>
-      </c>
-      <c r="B418">
-        <v>24005092</v>
-      </c>
-      <c r="C418" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A419">
-        <v>5</v>
-      </c>
-      <c r="B419">
-        <v>24005097</v>
-      </c>
-      <c r="C419" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A420">
-        <v>5</v>
-      </c>
-      <c r="B420">
-        <v>24005102</v>
-      </c>
-      <c r="C420" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A421">
-        <v>5</v>
-      </c>
-      <c r="B421">
-        <v>24005107</v>
-      </c>
-      <c r="C421" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A422">
-        <v>5</v>
-      </c>
-      <c r="B422">
-        <v>24005112</v>
-      </c>
-      <c r="C422" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A423">
-        <v>5</v>
-      </c>
-      <c r="B423">
-        <v>24005117</v>
-      </c>
-      <c r="C423" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A424">
-        <v>5</v>
-      </c>
-      <c r="B424">
-        <v>24005122</v>
-      </c>
-      <c r="C424" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A425">
-        <v>5</v>
-      </c>
-      <c r="B425">
-        <v>24005127</v>
-      </c>
-      <c r="C425" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A426">
-        <v>5</v>
-      </c>
-      <c r="B426">
-        <v>24005132</v>
-      </c>
-      <c r="C426" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A427">
-        <v>5</v>
-      </c>
-      <c r="B427">
-        <v>24005137</v>
-      </c>
-      <c r="C427" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A428">
-        <v>5</v>
-      </c>
-      <c r="B428">
-        <v>24005142</v>
-      </c>
-      <c r="C428" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A429">
-        <v>5</v>
-      </c>
-      <c r="B429">
-        <v>24005147</v>
-      </c>
-      <c r="C429" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A430">
-        <v>5</v>
-      </c>
-      <c r="B430">
-        <v>24005152</v>
-      </c>
-      <c r="C430" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A431">
-        <v>5</v>
-      </c>
-      <c r="B431">
-        <v>24005157</v>
-      </c>
-      <c r="C431" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A432">
-        <v>5</v>
-      </c>
-      <c r="B432">
-        <v>24005162</v>
-      </c>
-      <c r="C432" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A433">
-        <v>5</v>
-      </c>
-      <c r="B433">
-        <v>24005167</v>
-      </c>
-      <c r="C433" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A434">
-        <v>5</v>
-      </c>
-      <c r="B434">
-        <v>24005172</v>
-      </c>
-      <c r="C434" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A435">
-        <v>5</v>
-      </c>
-      <c r="B435">
-        <v>24005177</v>
-      </c>
-      <c r="C435" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A436">
-        <v>5</v>
-      </c>
-      <c r="B436">
-        <v>24005182</v>
-      </c>
-      <c r="C436" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A437">
-        <v>5</v>
-      </c>
-      <c r="B437">
-        <v>24005187</v>
-      </c>
-      <c r="C437" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A438">
-        <v>5</v>
-      </c>
-      <c r="B438">
-        <v>24005192</v>
-      </c>
-      <c r="C438" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A439">
-        <v>5</v>
-      </c>
-      <c r="B439">
-        <v>24005197</v>
-      </c>
-      <c r="C439" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A440">
-        <v>5</v>
-      </c>
-      <c r="B440">
-        <v>24005202</v>
-      </c>
-      <c r="C440" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A441">
-        <v>5</v>
-      </c>
-      <c r="B441">
-        <v>24005207</v>
-      </c>
-      <c r="C441" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A442">
-        <v>5</v>
-      </c>
-      <c r="B442">
-        <v>24005212</v>
-      </c>
-      <c r="C442" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A443">
-        <v>5</v>
-      </c>
-      <c r="B443">
-        <v>24005217</v>
-      </c>
-      <c r="C443" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A444">
-        <v>5</v>
-      </c>
-      <c r="B444">
-        <v>24005222</v>
-      </c>
-      <c r="C444" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A445">
-        <v>5</v>
-      </c>
-      <c r="B445">
-        <v>24005227</v>
-      </c>
-      <c r="C445" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A446">
-        <v>5</v>
-      </c>
-      <c r="B446">
-        <v>24005232</v>
-      </c>
-      <c r="C446" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A447">
-        <v>5</v>
-      </c>
-      <c r="B447">
-        <v>24005237</v>
-      </c>
-      <c r="C447" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A448">
-        <v>5</v>
-      </c>
-      <c r="B448">
-        <v>24005242</v>
-      </c>
-      <c r="C448" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A449">
-        <v>5</v>
-      </c>
-      <c r="B449">
-        <v>24005247</v>
-      </c>
-      <c r="C449" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A450">
-        <v>5</v>
-      </c>
-      <c r="B450">
-        <v>24005252</v>
-      </c>
-      <c r="C450" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A451">
-        <v>5</v>
-      </c>
-      <c r="B451">
-        <v>24005257</v>
-      </c>
-      <c r="C451" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A452">
-        <v>5</v>
-      </c>
-      <c r="B452">
-        <v>24005262</v>
-      </c>
-      <c r="C452" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A453">
-        <v>5</v>
-      </c>
-      <c r="B453">
-        <v>24005267</v>
-      </c>
-      <c r="C453" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A454">
-        <v>5</v>
-      </c>
-      <c r="B454">
-        <v>24005272</v>
-      </c>
-      <c r="C454" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A455">
-        <v>5</v>
-      </c>
-      <c r="B455">
-        <v>24005277</v>
-      </c>
-      <c r="C455" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A456">
-        <v>5</v>
-      </c>
-      <c r="B456">
-        <v>24005282</v>
-      </c>
-      <c r="C456" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A457">
-        <v>5</v>
-      </c>
-      <c r="B457">
-        <v>24005287</v>
-      </c>
-      <c r="C457" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A458">
-        <v>5</v>
-      </c>
-      <c r="B458">
-        <v>24005292</v>
-      </c>
-      <c r="C458" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A459">
-        <v>5</v>
-      </c>
-      <c r="B459">
-        <v>24005297</v>
-      </c>
-      <c r="C459" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A460">
-        <v>5</v>
-      </c>
-      <c r="B460">
-        <v>24005302</v>
-      </c>
-      <c r="C460" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A461">
-        <v>5</v>
-      </c>
-      <c r="B461">
-        <v>24005307</v>
-      </c>
-      <c r="C461" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A462">
-        <v>5</v>
-      </c>
-      <c r="B462">
-        <v>24005312</v>
-      </c>
-      <c r="C462" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A463">
-        <v>5</v>
-      </c>
-      <c r="B463">
-        <v>24005317</v>
-      </c>
-      <c r="C463" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A464">
-        <v>5</v>
-      </c>
-      <c r="B464">
-        <v>24005322</v>
-      </c>
-      <c r="C464" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A465">
-        <v>5</v>
-      </c>
-      <c r="B465">
-        <v>24005327</v>
-      </c>
-      <c r="C465" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A466">
-        <v>5</v>
-      </c>
-      <c r="B466">
-        <v>24005332</v>
-      </c>
-      <c r="C466" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A467">
-        <v>5</v>
-      </c>
-      <c r="B467">
-        <v>24005337</v>
-      </c>
-      <c r="C467" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A468">
-        <v>5</v>
-      </c>
-      <c r="B468">
-        <v>24005342</v>
-      </c>
-      <c r="C468" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A469">
-        <v>5</v>
-      </c>
-      <c r="B469">
-        <v>24005347</v>
-      </c>
-      <c r="C469" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A470">
-        <v>5</v>
-      </c>
-      <c r="B470">
-        <v>24005352</v>
-      </c>
-      <c r="C470" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A471">
-        <v>5</v>
-      </c>
-      <c r="B471">
-        <v>24005357</v>
-      </c>
-      <c r="C471" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A472">
-        <v>5</v>
-      </c>
-      <c r="B472">
-        <v>24005362</v>
-      </c>
-      <c r="C472" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A473">
-        <v>5</v>
-      </c>
-      <c r="B473">
-        <v>24005367</v>
-      </c>
-      <c r="C473" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A474">
-        <v>5</v>
-      </c>
-      <c r="B474">
-        <v>24005372</v>
-      </c>
-      <c r="C474" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A475">
-        <v>5</v>
-      </c>
-      <c r="B475">
-        <v>24005377</v>
-      </c>
-      <c r="C475" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A476">
-        <v>5</v>
-      </c>
-      <c r="B476">
-        <v>24005382</v>
-      </c>
-      <c r="C476" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A477">
-        <v>5</v>
-      </c>
-      <c r="B477">
-        <v>24005387</v>
-      </c>
-      <c r="C477" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A478">
-        <v>5</v>
-      </c>
-      <c r="B478">
-        <v>24005392</v>
-      </c>
-      <c r="C478" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A479">
-        <v>5</v>
-      </c>
-      <c r="B479">
-        <v>24005397</v>
-      </c>
-      <c r="C479" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A480">
-        <v>5</v>
-      </c>
-      <c r="B480">
-        <v>24005402</v>
-      </c>
-      <c r="C480" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A481">
-        <v>5</v>
-      </c>
-      <c r="B481">
-        <v>24005407</v>
-      </c>
-      <c r="C481" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A482">
-        <v>5</v>
-      </c>
-      <c r="B482">
-        <v>24005412</v>
-      </c>
-      <c r="C482" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A483">
-        <v>5</v>
-      </c>
-      <c r="B483">
-        <v>24005417</v>
-      </c>
-      <c r="C483" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A484">
-        <v>5</v>
-      </c>
-      <c r="B484">
-        <v>24005422</v>
-      </c>
-      <c r="C484" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A485">
-        <v>5</v>
-      </c>
-      <c r="B485">
-        <v>24005427</v>
-      </c>
-      <c r="C485" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A486">
-        <v>5</v>
-      </c>
-      <c r="B486">
-        <v>24005432</v>
-      </c>
-      <c r="C486" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A487">
-        <v>5</v>
-      </c>
-      <c r="B487">
-        <v>24005437</v>
-      </c>
-      <c r="C487" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A488">
-        <v>5</v>
-      </c>
-      <c r="B488">
-        <v>24005442</v>
-      </c>
-      <c r="C488" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A489">
-        <v>5</v>
-      </c>
-      <c r="B489">
-        <v>24005447</v>
-      </c>
-      <c r="C489" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A490">
-        <v>5</v>
-      </c>
-      <c r="B490">
-        <v>24005452</v>
-      </c>
-      <c r="C490" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A491">
-        <v>5</v>
-      </c>
-      <c r="B491">
-        <v>24005457</v>
-      </c>
-      <c r="C491" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A492">
-        <v>5</v>
-      </c>
-      <c r="B492">
-        <v>24005462</v>
-      </c>
-      <c r="C492" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A493">
-        <v>5</v>
-      </c>
-      <c r="B493">
-        <v>24005467</v>
-      </c>
-      <c r="C493" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A494">
-        <v>5</v>
-      </c>
-      <c r="B494">
-        <v>24005472</v>
-      </c>
-      <c r="C494" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A495">
-        <v>5</v>
-      </c>
-      <c r="B495">
-        <v>24005477</v>
-      </c>
-      <c r="C495" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A496">
-        <v>5</v>
-      </c>
-      <c r="B496">
-        <v>24005482</v>
-      </c>
-      <c r="C496" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A497">
-        <v>5</v>
-      </c>
-      <c r="B497">
-        <v>24005487</v>
-      </c>
-      <c r="C497" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A498">
-        <v>5</v>
-      </c>
-      <c r="B498">
-        <v>24005492</v>
-      </c>
-      <c r="C498" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A499">
-        <v>5</v>
-      </c>
-      <c r="B499">
-        <v>24005497</v>
-      </c>
-      <c r="C499" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A500">
-        <v>5</v>
-      </c>
-      <c r="B500">
-        <v>24005502</v>
-      </c>
-      <c r="C500" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A501">
-        <v>5</v>
-      </c>
-      <c r="B501">
-        <v>24005507</v>
-      </c>
-      <c r="C501" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/resources/file/StudentSem.xlsx
+++ b/src/main/resources/file/StudentSem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wong zhao xuan\Documents\Programming Languages\Java\Course Timetable\timetable\src\main\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6596B7D2-C02D-4C7D-BAB9-5B495A76E25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F49FB24-EEC4-492C-BA17-34BF84ABCE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{775B32B7-97F4-4E22-B0E8-E8501CDB7B73}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="4">
   <si>
     <t>Semester</t>
   </si>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021D61C9-216E-4AA0-9570-AB2E074861E1}">
-  <dimension ref="A1:C401"/>
+  <dimension ref="A1:C501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G211" sqref="G211"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A401" sqref="A401:A501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B127">
         <v>24001827</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B128">
         <v>24001837</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B129">
         <v>24001862</v>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B130">
         <v>24001892</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B131">
         <v>24001897</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B132">
         <v>24001912</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B133">
         <v>24001917</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B134">
         <v>24001927</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B135">
         <v>24001952</v>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B136">
         <v>24001957</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B137">
         <v>24001967</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B138">
         <v>24001977</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B139">
         <v>24001997</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B140">
         <v>24002012</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B141">
         <v>24002042</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B142">
         <v>24002052</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B143">
         <v>24002082</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B144">
         <v>24002117</v>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B145">
         <v>24002127</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B146">
         <v>24002162</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B147">
         <v>24002172</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B148">
         <v>24002177</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B149">
         <v>24002197</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B150">
         <v>24002202</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B151">
         <v>24002212</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B152">
         <v>24002217</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B153">
         <v>24002237</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B154">
         <v>24002247</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B155">
         <v>24002257</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B156">
         <v>24002262</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B157">
         <v>24002277</v>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B158">
         <v>24002292</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B159">
         <v>24002302</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B160">
         <v>24002327</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B161">
         <v>24002342</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B162">
         <v>24002352</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B163">
         <v>24002367</v>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B164">
         <v>24002377</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B165">
         <v>24002382</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B166">
         <v>24002407</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B167">
         <v>24002427</v>
@@ -2272,7 +2272,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B168">
         <v>24002432</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B169">
         <v>24002437</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B170">
         <v>24002457</v>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B171">
         <v>24002462</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B172">
         <v>24002517</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B173">
         <v>24002537</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B174">
         <v>24002542</v>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B175">
         <v>24002562</v>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B176">
         <v>24002567</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B177">
         <v>24002612</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B178">
         <v>24002637</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B179">
         <v>24002657</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B180">
         <v>24002667</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B181">
         <v>24002697</v>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B182">
         <v>24002707</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B183">
         <v>24002712</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B184">
         <v>24002722</v>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B185">
         <v>24002742</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B186">
         <v>24002762</v>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B187">
         <v>24002767</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B188">
         <v>24002772</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B189">
         <v>24002777</v>
@@ -2514,7 +2514,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B190">
         <v>24002812</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B191">
         <v>24002822</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B192">
         <v>24002837</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B193">
         <v>24002842</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B194">
         <v>24002877</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B195">
         <v>24002887</v>
@@ -2580,7 +2580,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B196">
         <v>24002922</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B197">
         <v>24002932</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B198">
         <v>24002947</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B199">
         <v>24002962</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B200">
         <v>24002967</v>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B201">
         <v>24002987</v>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B252">
         <v>24003767</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B253">
         <v>24003772</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B254">
         <v>24003782</v>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B255">
         <v>24003807</v>
@@ -3240,7 +3240,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B256">
         <v>24003812</v>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B257">
         <v>24003817</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B258">
         <v>24003827</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B259">
         <v>24003837</v>
@@ -3284,7 +3284,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B260">
         <v>24003852</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B261">
         <v>24003892</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B262">
         <v>24003922</v>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B263">
         <v>24003927</v>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B264">
         <v>24003937</v>
@@ -3339,7 +3339,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B265">
         <v>24003942</v>
@@ -3350,7 +3350,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B266">
         <v>24003952</v>
@@ -3361,7 +3361,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B267">
         <v>24003997</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B268">
         <v>24004012</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B269">
         <v>24004037</v>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B270">
         <v>24004062</v>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B271">
         <v>24004067</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B272">
         <v>24004077</v>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B273">
         <v>24004087</v>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B274">
         <v>24004092</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B275">
         <v>24004102</v>
@@ -3460,7 +3460,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B276">
         <v>24004122</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B277">
         <v>24004147</v>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B278">
         <v>24004172</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B279">
         <v>24004187</v>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B280">
         <v>24004192</v>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B281">
         <v>24004207</v>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B282">
         <v>24004212</v>
@@ -3537,7 +3537,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B283">
         <v>24004217</v>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B284">
         <v>24004227</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B285">
         <v>24004242</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B286">
         <v>24004257</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B287">
         <v>24004272</v>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B288">
         <v>24004287</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B289">
         <v>24004307</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B290">
         <v>24004317</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B291">
         <v>24004322</v>
@@ -3636,7 +3636,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B292">
         <v>24004332</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B293">
         <v>24004377</v>
@@ -3658,7 +3658,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B294">
         <v>24004382</v>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B295">
         <v>24004392</v>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B296">
         <v>24004417</v>
@@ -3691,7 +3691,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B297">
         <v>24004447</v>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B298">
         <v>24004462</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B299">
         <v>24004467</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B300">
         <v>24004482</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B301">
         <v>24004507</v>
@@ -3746,7 +3746,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B302">
         <v>24004512</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B303">
         <v>24004517</v>
@@ -3768,7 +3768,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B304">
         <v>24004522</v>
@@ -3779,7 +3779,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B305">
         <v>24004527</v>
@@ -3790,7 +3790,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B306">
         <v>24004532</v>
@@ -3801,7 +3801,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B307">
         <v>24004537</v>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B308">
         <v>24004542</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B309">
         <v>24004547</v>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B310">
         <v>24004552</v>
@@ -3845,7 +3845,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B311">
         <v>24004557</v>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B312">
         <v>24004562</v>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B313">
         <v>24004567</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B314">
         <v>24004572</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B315">
         <v>24004577</v>
@@ -3900,7 +3900,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B316">
         <v>24004582</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B317">
         <v>24004587</v>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B318">
         <v>24004592</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B319">
         <v>24004597</v>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B320">
         <v>24004602</v>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B321">
         <v>24004607</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B322">
         <v>24004612</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B323">
         <v>24004617</v>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B324">
         <v>24004622</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B325">
         <v>24004627</v>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B326">
         <v>24004632</v>
@@ -4021,7 +4021,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B327">
         <v>24004637</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B328">
         <v>24004642</v>
@@ -4043,7 +4043,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B329">
         <v>24004647</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B330">
         <v>24004652</v>
@@ -4065,7 +4065,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B331">
         <v>24004657</v>
@@ -4076,7 +4076,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B332">
         <v>24004662</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B333">
         <v>24004667</v>
@@ -4098,7 +4098,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B334">
         <v>24004672</v>
@@ -4109,7 +4109,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B335">
         <v>24004677</v>
@@ -4120,7 +4120,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B336">
         <v>24004682</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B337">
         <v>24004687</v>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B338">
         <v>24004692</v>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B339">
         <v>24004697</v>
@@ -4164,7 +4164,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B340">
         <v>24004702</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B341">
         <v>24004707</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B342">
         <v>24004712</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B343">
         <v>24004717</v>
@@ -4208,7 +4208,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B344">
         <v>24004722</v>
@@ -4219,7 +4219,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B345">
         <v>24004727</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B346">
         <v>24004732</v>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B347">
         <v>24004737</v>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B348">
         <v>24004742</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B349">
         <v>24004747</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B350">
         <v>24004752</v>
@@ -4285,7 +4285,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B351">
         <v>24004757</v>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B352">
         <v>24004762</v>
@@ -4307,7 +4307,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B353">
         <v>24004767</v>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B354">
         <v>24004772</v>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B355">
         <v>24004777</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B356">
         <v>24004782</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B357">
         <v>24004787</v>
@@ -4362,7 +4362,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B358">
         <v>24004792</v>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B359">
         <v>24004797</v>
@@ -4384,7 +4384,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B360">
         <v>24004802</v>
@@ -4395,7 +4395,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B361">
         <v>24004807</v>
@@ -4406,7 +4406,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B362">
         <v>24004812</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B363">
         <v>24004817</v>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B364">
         <v>24004822</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B365">
         <v>24004827</v>
@@ -4450,7 +4450,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B366">
         <v>24004832</v>
@@ -4461,7 +4461,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B367">
         <v>24004837</v>
@@ -4472,7 +4472,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B368">
         <v>24004842</v>
@@ -4483,7 +4483,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B369">
         <v>24004847</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B370">
         <v>24004852</v>
@@ -4505,7 +4505,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B371">
         <v>24004857</v>
@@ -4516,7 +4516,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B372">
         <v>24004862</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B373">
         <v>24004867</v>
@@ -4538,7 +4538,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B374">
         <v>24004872</v>
@@ -4549,7 +4549,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B375">
         <v>24004877</v>
@@ -4560,7 +4560,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B376">
         <v>24004882</v>
@@ -4571,7 +4571,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B377">
         <v>24004887</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B378">
         <v>24004892</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B379">
         <v>24004897</v>
@@ -4604,7 +4604,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B380">
         <v>24004902</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B381">
         <v>24004907</v>
@@ -4626,7 +4626,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B382">
         <v>24004912</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B383">
         <v>24004917</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B384">
         <v>24004922</v>
@@ -4659,7 +4659,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B385">
         <v>24004927</v>
@@ -4670,7 +4670,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B386">
         <v>24004932</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B387">
         <v>24004937</v>
@@ -4692,7 +4692,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B388">
         <v>24004942</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B389">
         <v>24004947</v>
@@ -4714,7 +4714,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B390">
         <v>24004952</v>
@@ -4725,7 +4725,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B391">
         <v>24004957</v>
@@ -4736,7 +4736,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B392">
         <v>24004962</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B393">
         <v>24004967</v>
@@ -4758,7 +4758,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B394">
         <v>24004972</v>
@@ -4769,7 +4769,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B395">
         <v>24004977</v>
@@ -4780,7 +4780,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B396">
         <v>24004982</v>
@@ -4791,7 +4791,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B397">
         <v>24004987</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B398">
         <v>24004992</v>
@@ -4813,7 +4813,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B399">
         <v>24004997</v>
@@ -4824,7 +4824,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B400">
         <v>24005002</v>
@@ -4835,12 +4835,1112 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B401">
         <v>24005007</v>
       </c>
       <c r="C401" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>4</v>
+      </c>
+      <c r="B402">
+        <v>24005012</v>
+      </c>
+      <c r="C402" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>4</v>
+      </c>
+      <c r="B403">
+        <v>24005017</v>
+      </c>
+      <c r="C403" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>4</v>
+      </c>
+      <c r="B404">
+        <v>24005022</v>
+      </c>
+      <c r="C404" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>4</v>
+      </c>
+      <c r="B405">
+        <v>24005027</v>
+      </c>
+      <c r="C405" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>4</v>
+      </c>
+      <c r="B406">
+        <v>24005032</v>
+      </c>
+      <c r="C406" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>4</v>
+      </c>
+      <c r="B407">
+        <v>24005037</v>
+      </c>
+      <c r="C407" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>4</v>
+      </c>
+      <c r="B408">
+        <v>24005042</v>
+      </c>
+      <c r="C408" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>4</v>
+      </c>
+      <c r="B409">
+        <v>24005047</v>
+      </c>
+      <c r="C409" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>4</v>
+      </c>
+      <c r="B410">
+        <v>24005052</v>
+      </c>
+      <c r="C410" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>4</v>
+      </c>
+      <c r="B411">
+        <v>24005057</v>
+      </c>
+      <c r="C411" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>4</v>
+      </c>
+      <c r="B412">
+        <v>24005062</v>
+      </c>
+      <c r="C412" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>4</v>
+      </c>
+      <c r="B413">
+        <v>24005067</v>
+      </c>
+      <c r="C413" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>4</v>
+      </c>
+      <c r="B414">
+        <v>24005072</v>
+      </c>
+      <c r="C414" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>4</v>
+      </c>
+      <c r="B415">
+        <v>24005077</v>
+      </c>
+      <c r="C415" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>4</v>
+      </c>
+      <c r="B416">
+        <v>24005082</v>
+      </c>
+      <c r="C416" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>4</v>
+      </c>
+      <c r="B417">
+        <v>24005087</v>
+      </c>
+      <c r="C417" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>4</v>
+      </c>
+      <c r="B418">
+        <v>24005092</v>
+      </c>
+      <c r="C418" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>4</v>
+      </c>
+      <c r="B419">
+        <v>24005097</v>
+      </c>
+      <c r="C419" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>4</v>
+      </c>
+      <c r="B420">
+        <v>24005102</v>
+      </c>
+      <c r="C420" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>4</v>
+      </c>
+      <c r="B421">
+        <v>24005107</v>
+      </c>
+      <c r="C421" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>4</v>
+      </c>
+      <c r="B422">
+        <v>24005112</v>
+      </c>
+      <c r="C422" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>4</v>
+      </c>
+      <c r="B423">
+        <v>24005117</v>
+      </c>
+      <c r="C423" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>4</v>
+      </c>
+      <c r="B424">
+        <v>24005122</v>
+      </c>
+      <c r="C424" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>4</v>
+      </c>
+      <c r="B425">
+        <v>24005127</v>
+      </c>
+      <c r="C425" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>4</v>
+      </c>
+      <c r="B426">
+        <v>24005132</v>
+      </c>
+      <c r="C426" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>4</v>
+      </c>
+      <c r="B427">
+        <v>24005137</v>
+      </c>
+      <c r="C427" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>4</v>
+      </c>
+      <c r="B428">
+        <v>24005142</v>
+      </c>
+      <c r="C428" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>4</v>
+      </c>
+      <c r="B429">
+        <v>24005147</v>
+      </c>
+      <c r="C429" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>4</v>
+      </c>
+      <c r="B430">
+        <v>24005152</v>
+      </c>
+      <c r="C430" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>4</v>
+      </c>
+      <c r="B431">
+        <v>24005157</v>
+      </c>
+      <c r="C431" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>4</v>
+      </c>
+      <c r="B432">
+        <v>24005162</v>
+      </c>
+      <c r="C432" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>4</v>
+      </c>
+      <c r="B433">
+        <v>24005167</v>
+      </c>
+      <c r="C433" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>4</v>
+      </c>
+      <c r="B434">
+        <v>24005172</v>
+      </c>
+      <c r="C434" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>4</v>
+      </c>
+      <c r="B435">
+        <v>24005177</v>
+      </c>
+      <c r="C435" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>4</v>
+      </c>
+      <c r="B436">
+        <v>24005182</v>
+      </c>
+      <c r="C436" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>4</v>
+      </c>
+      <c r="B437">
+        <v>24005187</v>
+      </c>
+      <c r="C437" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>4</v>
+      </c>
+      <c r="B438">
+        <v>24005192</v>
+      </c>
+      <c r="C438" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>4</v>
+      </c>
+      <c r="B439">
+        <v>24005197</v>
+      </c>
+      <c r="C439" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>4</v>
+      </c>
+      <c r="B440">
+        <v>24005202</v>
+      </c>
+      <c r="C440" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>4</v>
+      </c>
+      <c r="B441">
+        <v>24005207</v>
+      </c>
+      <c r="C441" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>4</v>
+      </c>
+      <c r="B442">
+        <v>24005212</v>
+      </c>
+      <c r="C442" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>4</v>
+      </c>
+      <c r="B443">
+        <v>24005217</v>
+      </c>
+      <c r="C443" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>4</v>
+      </c>
+      <c r="B444">
+        <v>24005222</v>
+      </c>
+      <c r="C444" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>4</v>
+      </c>
+      <c r="B445">
+        <v>24005227</v>
+      </c>
+      <c r="C445" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>4</v>
+      </c>
+      <c r="B446">
+        <v>24005232</v>
+      </c>
+      <c r="C446" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>4</v>
+      </c>
+      <c r="B447">
+        <v>24005237</v>
+      </c>
+      <c r="C447" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>4</v>
+      </c>
+      <c r="B448">
+        <v>24005242</v>
+      </c>
+      <c r="C448" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>4</v>
+      </c>
+      <c r="B449">
+        <v>24005247</v>
+      </c>
+      <c r="C449" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>4</v>
+      </c>
+      <c r="B450">
+        <v>24005252</v>
+      </c>
+      <c r="C450" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>4</v>
+      </c>
+      <c r="B451">
+        <v>24005257</v>
+      </c>
+      <c r="C451" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>4</v>
+      </c>
+      <c r="B452">
+        <v>24005262</v>
+      </c>
+      <c r="C452" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>4</v>
+      </c>
+      <c r="B453">
+        <v>24005267</v>
+      </c>
+      <c r="C453" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>4</v>
+      </c>
+      <c r="B454">
+        <v>24005272</v>
+      </c>
+      <c r="C454" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>4</v>
+      </c>
+      <c r="B455">
+        <v>24005277</v>
+      </c>
+      <c r="C455" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>4</v>
+      </c>
+      <c r="B456">
+        <v>24005282</v>
+      </c>
+      <c r="C456" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>4</v>
+      </c>
+      <c r="B457">
+        <v>24005287</v>
+      </c>
+      <c r="C457" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>4</v>
+      </c>
+      <c r="B458">
+        <v>24005292</v>
+      </c>
+      <c r="C458" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>4</v>
+      </c>
+      <c r="B459">
+        <v>24005297</v>
+      </c>
+      <c r="C459" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>4</v>
+      </c>
+      <c r="B460">
+        <v>24005302</v>
+      </c>
+      <c r="C460" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>4</v>
+      </c>
+      <c r="B461">
+        <v>24005307</v>
+      </c>
+      <c r="C461" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>4</v>
+      </c>
+      <c r="B462">
+        <v>24005312</v>
+      </c>
+      <c r="C462" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>4</v>
+      </c>
+      <c r="B463">
+        <v>24005317</v>
+      </c>
+      <c r="C463" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>4</v>
+      </c>
+      <c r="B464">
+        <v>24005322</v>
+      </c>
+      <c r="C464" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>4</v>
+      </c>
+      <c r="B465">
+        <v>24005327</v>
+      </c>
+      <c r="C465" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>4</v>
+      </c>
+      <c r="B466">
+        <v>24005332</v>
+      </c>
+      <c r="C466" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>4</v>
+      </c>
+      <c r="B467">
+        <v>24005337</v>
+      </c>
+      <c r="C467" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>4</v>
+      </c>
+      <c r="B468">
+        <v>24005342</v>
+      </c>
+      <c r="C468" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>4</v>
+      </c>
+      <c r="B469">
+        <v>24005347</v>
+      </c>
+      <c r="C469" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>4</v>
+      </c>
+      <c r="B470">
+        <v>24005352</v>
+      </c>
+      <c r="C470" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>4</v>
+      </c>
+      <c r="B471">
+        <v>24005357</v>
+      </c>
+      <c r="C471" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>4</v>
+      </c>
+      <c r="B472">
+        <v>24005362</v>
+      </c>
+      <c r="C472" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>4</v>
+      </c>
+      <c r="B473">
+        <v>24005367</v>
+      </c>
+      <c r="C473" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>4</v>
+      </c>
+      <c r="B474">
+        <v>24005372</v>
+      </c>
+      <c r="C474" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>4</v>
+      </c>
+      <c r="B475">
+        <v>24005377</v>
+      </c>
+      <c r="C475" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>4</v>
+      </c>
+      <c r="B476">
+        <v>24005382</v>
+      </c>
+      <c r="C476" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>4</v>
+      </c>
+      <c r="B477">
+        <v>24005387</v>
+      </c>
+      <c r="C477" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>4</v>
+      </c>
+      <c r="B478">
+        <v>24005392</v>
+      </c>
+      <c r="C478" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>4</v>
+      </c>
+      <c r="B479">
+        <v>24005397</v>
+      </c>
+      <c r="C479" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>4</v>
+      </c>
+      <c r="B480">
+        <v>24005402</v>
+      </c>
+      <c r="C480" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>4</v>
+      </c>
+      <c r="B481">
+        <v>24005407</v>
+      </c>
+      <c r="C481" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>4</v>
+      </c>
+      <c r="B482">
+        <v>24005412</v>
+      </c>
+      <c r="C482" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>4</v>
+      </c>
+      <c r="B483">
+        <v>24005417</v>
+      </c>
+      <c r="C483" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>4</v>
+      </c>
+      <c r="B484">
+        <v>24005422</v>
+      </c>
+      <c r="C484" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>4</v>
+      </c>
+      <c r="B485">
+        <v>24005427</v>
+      </c>
+      <c r="C485" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>4</v>
+      </c>
+      <c r="B486">
+        <v>24005432</v>
+      </c>
+      <c r="C486" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>4</v>
+      </c>
+      <c r="B487">
+        <v>24005437</v>
+      </c>
+      <c r="C487" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>4</v>
+      </c>
+      <c r="B488">
+        <v>24005442</v>
+      </c>
+      <c r="C488" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>4</v>
+      </c>
+      <c r="B489">
+        <v>24005447</v>
+      </c>
+      <c r="C489" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>4</v>
+      </c>
+      <c r="B490">
+        <v>24005452</v>
+      </c>
+      <c r="C490" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>4</v>
+      </c>
+      <c r="B491">
+        <v>24005457</v>
+      </c>
+      <c r="C491" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>4</v>
+      </c>
+      <c r="B492">
+        <v>24005462</v>
+      </c>
+      <c r="C492" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>4</v>
+      </c>
+      <c r="B493">
+        <v>24005467</v>
+      </c>
+      <c r="C493" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>4</v>
+      </c>
+      <c r="B494">
+        <v>24005472</v>
+      </c>
+      <c r="C494" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>4</v>
+      </c>
+      <c r="B495">
+        <v>24005477</v>
+      </c>
+      <c r="C495" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>4</v>
+      </c>
+      <c r="B496">
+        <v>24005482</v>
+      </c>
+      <c r="C496" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>4</v>
+      </c>
+      <c r="B497">
+        <v>24005487</v>
+      </c>
+      <c r="C497" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>4</v>
+      </c>
+      <c r="B498">
+        <v>24005492</v>
+      </c>
+      <c r="C498" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>4</v>
+      </c>
+      <c r="B499">
+        <v>24005497</v>
+      </c>
+      <c r="C499" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>4</v>
+      </c>
+      <c r="B500">
+        <v>24005502</v>
+      </c>
+      <c r="C500" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>4</v>
+      </c>
+      <c r="B501">
+        <v>24005507</v>
+      </c>
+      <c r="C501" t="s">
         <v>3</v>
       </c>
     </row>
